--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248B8A6F-ADED-4780-97C3-D7DA6B1F850E}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD39AE40-D7BC-4C6A-9BAF-9A0C648EC451}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="51870" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>Aufwand</t>
   </si>
@@ -383,6 +383,66 @@
   <si>
     <t>US 10: Unit Testing</t>
   </si>
+  <si>
+    <t>Anforderungen studieren</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Userstories erstellen</t>
+  </si>
+  <si>
+    <t>Datenmodell kreieren</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm erstellen</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm erstellen</t>
+  </si>
+  <si>
+    <t>Mockups designen</t>
+  </si>
+  <si>
+    <t>Realisierungskonzept schreiben</t>
+  </si>
+  <si>
+    <t>Reflexion &amp; Fazit schreiben</t>
+  </si>
+  <si>
+    <t>Vorwort schreiben</t>
+  </si>
+  <si>
+    <t>Teil 1: Firmenstandards deklarieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Informieren dokumentieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Planen dokumentieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Entscheiden dokumentieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Realisieren dokumentieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Kontrollieren dokumentieren</t>
+  </si>
+  <si>
+    <t>Teil 2: Auswerten dokumentieren</t>
+  </si>
+  <si>
+    <t>Kurzfassung schreiben</t>
+  </si>
+  <si>
+    <t>Arbeitsjournal schreiben</t>
+  </si>
+  <si>
+    <t>Korrekturschreiben</t>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +450,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1347,65 +1407,6 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1426,199 +1427,188 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,96 +1616,168 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3061,18 +3123,18 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT74" sqref="AT74"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="43" width="3.44140625" style="202" customWidth="1"/>
+    <col min="4" max="43" width="3.44140625" style="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
@@ -3081,66 +3143,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="138" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="138" t="s">
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="138" t="s">
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="138" t="s">
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="138" t="s">
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="138" t="s">
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="138" t="s">
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="138" t="s">
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="139"/>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="138" t="s">
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="140"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="217"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3148,178 +3210,178 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="141">
+      <c r="D2" s="212">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="141">
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="212">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="141">
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="212">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="141">
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="212">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="141">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="212">
         <v>45363</v>
       </c>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="141">
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="141">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="212">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="141">
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="213"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="212">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="141">
+      <c r="AG2" s="213"/>
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="212">
         <v>45370</v>
       </c>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="141">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="213"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="212">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="143"/>
+      <c r="AO2" s="213"/>
+      <c r="AP2" s="213"/>
+      <c r="AQ2" s="214"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="209">
+      <c r="B3" s="208" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="D3" s="220">
+      <c r="D3" s="189">
         <v>0.5</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="148"/>
-      <c r="AM3" s="149"/>
-      <c r="AN3" s="147"/>
-      <c r="AO3" s="148"/>
-      <c r="AP3" s="148"/>
-      <c r="AQ3" s="149"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="120"/>
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="223">
+      <c r="B4" s="220"/>
+      <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="D4" s="165">
+      <c r="D4" s="136">
         <v>0.5</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="153"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="153"/>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="153"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="155"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="126"/>
       <c r="AR4"/>
       <c r="AS4"/>
       <c r="AT4"/>
@@ -3339,3715 +3401,3731 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="222">
+      <c r="B5" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
       </c>
-      <c r="D5" s="217">
+      <c r="D5" s="186">
         <v>1.5</v>
       </c>
-      <c r="E5" s="215">
+      <c r="E5" s="184">
         <v>0.5</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="156">
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="127">
         <v>0.5</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="163"/>
-      <c r="AP5" s="163"/>
-      <c r="AQ5" s="164"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="135"/>
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="223">
+      <c r="B6" s="227"/>
+      <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
       </c>
-      <c r="D6" s="218">
+      <c r="D6" s="187">
         <v>1.5</v>
       </c>
-      <c r="E6" s="219">
+      <c r="E6" s="188">
         <v>0.5</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="238">
+      <c r="F6" s="128"/>
+      <c r="G6" s="205">
         <v>0.5</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="157"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="168"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="167"/>
-      <c r="AQ6" s="168"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="138"/>
+      <c r="AH6" s="138"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="138"/>
+      <c r="AL6" s="138"/>
+      <c r="AM6" s="139"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="139"/>
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="222">
+      <c r="B7" s="229" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="213">
+      <c r="D7" s="130"/>
+      <c r="E7" s="182">
         <v>1.5</v>
       </c>
-      <c r="F7" s="215">
+      <c r="F7" s="184">
         <v>0.5</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="169"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="169"/>
-      <c r="AK7" s="170"/>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="169"/>
-      <c r="AO7" s="170"/>
-      <c r="AP7" s="170"/>
-      <c r="AQ7" s="171"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="142"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="141"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="142"/>
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="221">
+      <c r="B8" s="230"/>
+      <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="214">
+      <c r="D8" s="143"/>
+      <c r="E8" s="183">
         <v>1</v>
       </c>
-      <c r="F8" s="216">
+      <c r="F8" s="185">
         <v>0.5</v>
       </c>
-      <c r="G8" s="173"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="177"/>
-      <c r="AJ8" s="175"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="177"/>
-      <c r="AN8" s="175"/>
-      <c r="AO8" s="176"/>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="177"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="147"/>
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="148"/>
+      <c r="AN8" s="146"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="148"/>
     </row>
     <row r="9" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="209">
+      <c r="B9" s="226" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181">
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="152">
         <v>0.5</v>
       </c>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="179"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="179"/>
-      <c r="AD9" s="179"/>
-      <c r="AE9" s="180"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="180"/>
-      <c r="AJ9" s="178"/>
-      <c r="AK9" s="179"/>
-      <c r="AL9" s="179"/>
-      <c r="AM9" s="180"/>
-      <c r="AN9" s="178"/>
-      <c r="AO9" s="179"/>
-      <c r="AP9" s="179"/>
-      <c r="AQ9" s="180"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="149"/>
+      <c r="AK9" s="150"/>
+      <c r="AL9" s="150"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="149"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
+      <c r="AQ9" s="151"/>
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="223">
+      <c r="B10" s="207"/>
+      <c r="C10" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
+      <c r="AQ10" s="155"/>
+    </row>
+    <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="207" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156">
+        <v>1</v>
+      </c>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="153"/>
+      <c r="AK11" s="154"/>
+      <c r="AL11" s="154"/>
+      <c r="AM11" s="155"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
+      <c r="AQ11" s="155"/>
+    </row>
+    <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="153"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="206">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="153"/>
+      <c r="AK12" s="154"/>
+      <c r="AL12" s="154"/>
+      <c r="AM12" s="155"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
+      <c r="AQ12" s="155"/>
+    </row>
+    <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="207" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="191">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="157">
+        <v>1</v>
+      </c>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="153"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="153"/>
+      <c r="AG13" s="154"/>
+      <c r="AH13" s="154"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="153"/>
+      <c r="AK13" s="154"/>
+      <c r="AL13" s="154"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="155"/>
+    </row>
+    <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="170">
+        <v>1</v>
+      </c>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="155"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="155"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="154"/>
+      <c r="AQ14" s="155"/>
+    </row>
+    <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="207" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="157">
+        <v>1</v>
+      </c>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="153"/>
+      <c r="AK15" s="154"/>
+      <c r="AL15" s="154"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
+      <c r="AQ15" s="155"/>
+    </row>
+    <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="170">
+        <v>1</v>
+      </c>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="153"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="153"/>
+      <c r="AK16" s="154"/>
+      <c r="AL16" s="154"/>
+      <c r="AM16" s="155"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
+      <c r="AQ16" s="155"/>
+    </row>
+    <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="207" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156">
+        <v>2</v>
+      </c>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="153"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="154"/>
+      <c r="AM17" s="155"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
+      <c r="AQ17" s="155"/>
+    </row>
+    <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="184"/>
-      <c r="AJ10" s="182"/>
-      <c r="AK10" s="183"/>
-      <c r="AL10" s="183"/>
-      <c r="AM10" s="184"/>
-      <c r="AN10" s="182"/>
-      <c r="AO10" s="183"/>
-      <c r="AP10" s="183"/>
-      <c r="AQ10" s="184"/>
-    </row>
-    <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185">
-        <v>1</v>
-      </c>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="182"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="184"/>
-      <c r="AJ11" s="182"/>
-      <c r="AK11" s="183"/>
-      <c r="AL11" s="183"/>
-      <c r="AM11" s="184"/>
-      <c r="AN11" s="182"/>
-      <c r="AO11" s="183"/>
-      <c r="AP11" s="183"/>
-      <c r="AQ11" s="184"/>
-    </row>
-    <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="184"/>
-      <c r="AJ12" s="182"/>
-      <c r="AK12" s="183"/>
-      <c r="AL12" s="183"/>
-      <c r="AM12" s="184"/>
-      <c r="AN12" s="182"/>
-      <c r="AO12" s="183"/>
-      <c r="AP12" s="183"/>
-      <c r="AQ12" s="184"/>
-    </row>
-    <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="222">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="182"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="186">
-        <v>1</v>
-      </c>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="182"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="183"/>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="184"/>
-      <c r="AJ13" s="182"/>
-      <c r="AK13" s="183"/>
-      <c r="AL13" s="183"/>
-      <c r="AM13" s="184"/>
-      <c r="AN13" s="182"/>
-      <c r="AO13" s="183"/>
-      <c r="AP13" s="183"/>
-      <c r="AQ13" s="184"/>
-    </row>
-    <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="183"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="182"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="184"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183"/>
-      <c r="AI14" s="184"/>
-      <c r="AJ14" s="182"/>
-      <c r="AK14" s="183"/>
-      <c r="AL14" s="183"/>
-      <c r="AM14" s="184"/>
-      <c r="AN14" s="182"/>
-      <c r="AO14" s="183"/>
-      <c r="AP14" s="183"/>
-      <c r="AQ14" s="184"/>
-    </row>
-    <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="186">
-        <v>1</v>
-      </c>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="183"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="184"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="184"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="184"/>
-      <c r="AJ15" s="182"/>
-      <c r="AK15" s="183"/>
-      <c r="AL15" s="183"/>
-      <c r="AM15" s="184"/>
-      <c r="AN15" s="182"/>
-      <c r="AO15" s="183"/>
-      <c r="AP15" s="183"/>
-      <c r="AQ15" s="184"/>
-    </row>
-    <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="184"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="184"/>
-      <c r="AJ16" s="182"/>
-      <c r="AK16" s="183"/>
-      <c r="AL16" s="183"/>
-      <c r="AM16" s="184"/>
-      <c r="AN16" s="182"/>
-      <c r="AO16" s="183"/>
-      <c r="AP16" s="183"/>
-      <c r="AQ16" s="184"/>
-    </row>
-    <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="185">
-        <v>2</v>
-      </c>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="184"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="184"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="184"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="184"/>
-      <c r="AJ17" s="182"/>
-      <c r="AK17" s="183"/>
-      <c r="AL17" s="183"/>
-      <c r="AM17" s="184"/>
-      <c r="AN17" s="182"/>
-      <c r="AO17" s="183"/>
-      <c r="AP17" s="183"/>
-      <c r="AQ17" s="184"/>
-    </row>
-    <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="221">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="184"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="184"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184"/>
-      <c r="AJ18" s="182"/>
-      <c r="AK18" s="183"/>
-      <c r="AL18" s="183"/>
-      <c r="AM18" s="184"/>
-      <c r="AN18" s="182"/>
-      <c r="AO18" s="183"/>
-      <c r="AP18" s="183"/>
-      <c r="AQ18" s="184"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="155"/>
+      <c r="AJ18" s="153"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="155"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
+      <c r="AQ18" s="155"/>
     </row>
     <row r="19" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="209">
+      <c r="C19" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="190">
+      <c r="D19" s="158"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="161">
         <v>2</v>
       </c>
-      <c r="N19" s="188"/>
-      <c r="O19" s="189"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="189"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="189"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="189"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="187"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="189"/>
-      <c r="AJ19" s="187"/>
-      <c r="AK19" s="188"/>
-      <c r="AL19" s="188"/>
-      <c r="AM19" s="189"/>
-      <c r="AN19" s="187"/>
-      <c r="AO19" s="188"/>
-      <c r="AP19" s="188"/>
-      <c r="AQ19" s="189"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="159"/>
+      <c r="Z19" s="159"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="159"/>
+      <c r="AD19" s="159"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="158"/>
+      <c r="AK19" s="159"/>
+      <c r="AL19" s="159"/>
+      <c r="AM19" s="160"/>
+      <c r="AN19" s="158"/>
+      <c r="AO19" s="159"/>
+      <c r="AP19" s="159"/>
+      <c r="AQ19" s="160"/>
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="221">
+      <c r="B20" s="220"/>
+      <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="184"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="184"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="184"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="183"/>
-      <c r="AH20" s="183"/>
-      <c r="AI20" s="184"/>
-      <c r="AJ20" s="182"/>
-      <c r="AK20" s="183"/>
-      <c r="AL20" s="183"/>
-      <c r="AM20" s="184"/>
-      <c r="AN20" s="182"/>
-      <c r="AO20" s="183"/>
-      <c r="AP20" s="183"/>
-      <c r="AQ20" s="184"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="153"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="153"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="154"/>
+      <c r="AM20" s="155"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
+      <c r="AQ20" s="155"/>
     </row>
     <row r="21" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="209">
+      <c r="C21" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="191">
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="162">
         <v>2</v>
       </c>
-      <c r="Q21" s="190">
+      <c r="Q21" s="161">
         <v>2</v>
       </c>
-      <c r="R21" s="188"/>
-      <c r="S21" s="189"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="189"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="189"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="188"/>
-      <c r="AE21" s="189"/>
-      <c r="AF21" s="187"/>
-      <c r="AG21" s="188"/>
-      <c r="AH21" s="188"/>
-      <c r="AI21" s="189"/>
-      <c r="AJ21" s="187"/>
-      <c r="AK21" s="188"/>
-      <c r="AL21" s="188"/>
-      <c r="AM21" s="189"/>
-      <c r="AN21" s="187"/>
-      <c r="AO21" s="188"/>
-      <c r="AP21" s="188"/>
-      <c r="AQ21" s="189"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="158"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="159"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="158"/>
+      <c r="AC21" s="159"/>
+      <c r="AD21" s="159"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="159"/>
+      <c r="AL21" s="159"/>
+      <c r="AM21" s="160"/>
+      <c r="AN21" s="158"/>
+      <c r="AO21" s="159"/>
+      <c r="AP21" s="159"/>
+      <c r="AQ21" s="160"/>
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="223">
+      <c r="B22" s="208"/>
+      <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="184"/>
-      <c r="AJ22" s="182"/>
-      <c r="AK22" s="183"/>
-      <c r="AL22" s="183"/>
-      <c r="AM22" s="184"/>
-      <c r="AN22" s="182"/>
-      <c r="AO22" s="183"/>
-      <c r="AP22" s="183"/>
-      <c r="AQ22" s="184"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="153"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="153"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="155"/>
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="223">
+      <c r="C23" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="186">
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="157">
         <v>2</v>
       </c>
-      <c r="S23" s="184"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="184"/>
-      <c r="AJ23" s="182"/>
-      <c r="AK23" s="183"/>
-      <c r="AL23" s="183"/>
-      <c r="AM23" s="184"/>
-      <c r="AN23" s="182"/>
-      <c r="AO23" s="183"/>
-      <c r="AP23" s="183"/>
-      <c r="AQ23" s="184"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="153"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="153"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="153"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="155"/>
+      <c r="AJ23" s="153"/>
+      <c r="AK23" s="154"/>
+      <c r="AL23" s="154"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
+      <c r="AQ23" s="155"/>
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="222">
+      <c r="B24" s="225"/>
+      <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="182"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="192"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="184"/>
-      <c r="AJ24" s="182"/>
-      <c r="AK24" s="183"/>
-      <c r="AL24" s="183"/>
-      <c r="AM24" s="184"/>
-      <c r="AN24" s="182"/>
-      <c r="AO24" s="183"/>
-      <c r="AP24" s="183"/>
-      <c r="AQ24" s="184"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="154"/>
+      <c r="AH24" s="154"/>
+      <c r="AI24" s="155"/>
+      <c r="AJ24" s="153"/>
+      <c r="AK24" s="154"/>
+      <c r="AL24" s="154"/>
+      <c r="AM24" s="155"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
+      <c r="AQ24" s="155"/>
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="223">
+      <c r="C25" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="193">
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="164">
         <v>1.5</v>
       </c>
-      <c r="T25" s="185">
+      <c r="T25" s="156">
         <v>2</v>
       </c>
-      <c r="U25" s="186">
+      <c r="U25" s="157">
         <v>0.5</v>
       </c>
-      <c r="V25" s="183"/>
-      <c r="W25" s="184"/>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="184"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="184"/>
-      <c r="AJ25" s="182"/>
-      <c r="AK25" s="183"/>
-      <c r="AL25" s="183"/>
-      <c r="AM25" s="184"/>
-      <c r="AN25" s="182"/>
-      <c r="AO25" s="183"/>
-      <c r="AP25" s="183"/>
-      <c r="AQ25" s="184"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="154"/>
+      <c r="AD25" s="154"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="153"/>
+      <c r="AG25" s="154"/>
+      <c r="AH25" s="154"/>
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="153"/>
+      <c r="AK25" s="154"/>
+      <c r="AL25" s="154"/>
+      <c r="AM25" s="155"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
+      <c r="AQ25" s="155"/>
       <c r="AR25" s="78"/>
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="223">
+      <c r="B26" s="223"/>
+      <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="184"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="184"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="183"/>
-      <c r="AI26" s="184"/>
-      <c r="AJ26" s="182"/>
-      <c r="AK26" s="183"/>
-      <c r="AL26" s="183"/>
-      <c r="AM26" s="184"/>
-      <c r="AN26" s="182"/>
-      <c r="AO26" s="183"/>
-      <c r="AP26" s="183"/>
-      <c r="AQ26" s="184"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="153"/>
+      <c r="AK26" s="154"/>
+      <c r="AL26" s="154"/>
+      <c r="AM26" s="155"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
+      <c r="AQ26" s="155"/>
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="223">
+      <c r="C27" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="210">
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="179">
         <v>1.5</v>
       </c>
-      <c r="V27" s="211">
+      <c r="V27" s="180">
         <v>0.5</v>
       </c>
-      <c r="W27" s="184"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="184"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="184"/>
-      <c r="AJ27" s="182"/>
-      <c r="AK27" s="183"/>
-      <c r="AL27" s="183"/>
-      <c r="AM27" s="184"/>
-      <c r="AN27" s="182"/>
-      <c r="AO27" s="183"/>
-      <c r="AP27" s="183"/>
-      <c r="AQ27" s="184"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="154"/>
+      <c r="AD27" s="154"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="153"/>
+      <c r="AG27" s="154"/>
+      <c r="AH27" s="154"/>
+      <c r="AI27" s="155"/>
+      <c r="AJ27" s="153"/>
+      <c r="AK27" s="154"/>
+      <c r="AL27" s="154"/>
+      <c r="AM27" s="155"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
+      <c r="AQ27" s="155"/>
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="222">
+      <c r="B28" s="222"/>
+      <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="183"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="182"/>
-      <c r="AK28" s="183"/>
-      <c r="AL28" s="183"/>
-      <c r="AM28" s="184"/>
-      <c r="AN28" s="182"/>
-      <c r="AO28" s="183"/>
-      <c r="AP28" s="183"/>
-      <c r="AQ28" s="184"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="155"/>
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="223">
+      <c r="C29" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="210">
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="179">
         <v>1.5</v>
       </c>
-      <c r="W29" s="212">
+      <c r="W29" s="181">
         <v>0.5</v>
       </c>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="184"/>
-      <c r="AJ29" s="182"/>
-      <c r="AK29" s="183"/>
-      <c r="AL29" s="183"/>
-      <c r="AM29" s="184"/>
-      <c r="AN29" s="182"/>
-      <c r="AO29" s="183"/>
-      <c r="AP29" s="183"/>
-      <c r="AQ29" s="184"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="153"/>
+      <c r="AK29" s="154"/>
+      <c r="AL29" s="154"/>
+      <c r="AM29" s="155"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
+      <c r="AQ29" s="155"/>
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="223">
+      <c r="B30" s="222"/>
+      <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="182"/>
-      <c r="AK30" s="183"/>
-      <c r="AL30" s="183"/>
-      <c r="AM30" s="184"/>
-      <c r="AN30" s="182"/>
-      <c r="AO30" s="183"/>
-      <c r="AP30" s="183"/>
-      <c r="AQ30" s="184"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="153"/>
+      <c r="AK30" s="154"/>
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="155"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
+      <c r="AQ30" s="155"/>
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="222" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="223">
+      <c r="C31" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="185">
+      <c r="D31" s="153"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="156">
         <v>2</v>
       </c>
-      <c r="Y31" s="186">
+      <c r="Y31" s="157">
         <v>2</v>
       </c>
-      <c r="Z31" s="186">
+      <c r="Z31" s="157">
         <v>1</v>
       </c>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="184"/>
-      <c r="AJ31" s="182"/>
-      <c r="AK31" s="183"/>
-      <c r="AL31" s="183"/>
-      <c r="AM31" s="184"/>
-      <c r="AN31" s="182"/>
-      <c r="AO31" s="183"/>
-      <c r="AP31" s="183"/>
-      <c r="AQ31" s="184"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="153"/>
+      <c r="AK31" s="154"/>
+      <c r="AL31" s="154"/>
+      <c r="AM31" s="155"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
+      <c r="AQ31" s="155"/>
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="222">
+      <c r="B32" s="222"/>
+      <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="183"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="184"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="183"/>
-      <c r="AI32" s="184"/>
-      <c r="AJ32" s="182"/>
-      <c r="AK32" s="183"/>
-      <c r="AL32" s="183"/>
-      <c r="AM32" s="184"/>
-      <c r="AN32" s="182"/>
-      <c r="AO32" s="183"/>
-      <c r="AP32" s="183"/>
-      <c r="AQ32" s="184"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="153"/>
+      <c r="AK32" s="154"/>
+      <c r="AL32" s="154"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
+      <c r="AQ32" s="155"/>
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="223">
+      <c r="C33" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="184"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="186">
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="157">
         <v>1</v>
       </c>
-      <c r="AA33" s="193">
+      <c r="AA33" s="164">
         <v>1</v>
       </c>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="184"/>
-      <c r="AJ33" s="182"/>
-      <c r="AK33" s="183"/>
-      <c r="AL33" s="183"/>
-      <c r="AM33" s="184"/>
-      <c r="AN33" s="182"/>
-      <c r="AO33" s="183"/>
-      <c r="AP33" s="183"/>
-      <c r="AQ33" s="184"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="154"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="154"/>
+      <c r="AH33" s="154"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="153"/>
+      <c r="AK33" s="154"/>
+      <c r="AL33" s="154"/>
+      <c r="AM33" s="155"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
+      <c r="AQ33" s="155"/>
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="223">
+      <c r="B34" s="207"/>
+      <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="184"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="183"/>
-      <c r="R34" s="183"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="182"/>
-      <c r="U34" s="183"/>
-      <c r="V34" s="183"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="182"/>
-      <c r="Y34" s="183"/>
-      <c r="Z34" s="183"/>
-      <c r="AA34" s="184"/>
-      <c r="AB34" s="182"/>
-      <c r="AC34" s="183"/>
-      <c r="AD34" s="183"/>
-      <c r="AE34" s="184"/>
-      <c r="AF34" s="182"/>
-      <c r="AG34" s="183"/>
-      <c r="AH34" s="183"/>
-      <c r="AI34" s="184"/>
-      <c r="AJ34" s="182"/>
-      <c r="AK34" s="183"/>
-      <c r="AL34" s="183"/>
-      <c r="AM34" s="184"/>
-      <c r="AN34" s="182"/>
-      <c r="AO34" s="183"/>
-      <c r="AP34" s="183"/>
-      <c r="AQ34" s="184"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="154"/>
+      <c r="V34" s="154"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="154"/>
+      <c r="Z34" s="154"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="153"/>
+      <c r="AC34" s="154"/>
+      <c r="AD34" s="154"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="154"/>
+      <c r="AH34" s="154"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="153"/>
+      <c r="AK34" s="154"/>
+      <c r="AL34" s="154"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
+      <c r="AQ34" s="155"/>
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="223">
+      <c r="C35" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="183"/>
-      <c r="R35" s="183"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="182"/>
-      <c r="U35" s="183"/>
-      <c r="V35" s="183"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="182"/>
-      <c r="Y35" s="183"/>
-      <c r="Z35" s="183"/>
-      <c r="AA35" s="193">
+      <c r="D35" s="153"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="154"/>
+      <c r="V35" s="154"/>
+      <c r="W35" s="155"/>
+      <c r="X35" s="153"/>
+      <c r="Y35" s="154"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="164">
         <v>0.5</v>
       </c>
-      <c r="AB35" s="185">
+      <c r="AB35" s="156">
         <v>1.5</v>
       </c>
-      <c r="AC35" s="186">
+      <c r="AC35" s="157">
         <v>2</v>
       </c>
-      <c r="AD35" s="183"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="182"/>
-      <c r="AG35" s="183"/>
-      <c r="AH35" s="183"/>
-      <c r="AI35" s="184"/>
-      <c r="AJ35" s="182"/>
-      <c r="AK35" s="183"/>
-      <c r="AL35" s="183"/>
-      <c r="AM35" s="184"/>
-      <c r="AN35" s="182"/>
-      <c r="AO35" s="183"/>
-      <c r="AP35" s="183"/>
-      <c r="AQ35" s="184"/>
+      <c r="AD35" s="154"/>
+      <c r="AE35" s="155"/>
+      <c r="AF35" s="153"/>
+      <c r="AG35" s="154"/>
+      <c r="AH35" s="154"/>
+      <c r="AI35" s="155"/>
+      <c r="AJ35" s="153"/>
+      <c r="AK35" s="154"/>
+      <c r="AL35" s="154"/>
+      <c r="AM35" s="155"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="154"/>
+      <c r="AP35" s="154"/>
+      <c r="AQ35" s="155"/>
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="223">
+      <c r="B36" s="207"/>
+      <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="183"/>
-      <c r="R36" s="183"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="182"/>
-      <c r="U36" s="183"/>
-      <c r="V36" s="183"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="182"/>
-      <c r="Y36" s="183"/>
-      <c r="Z36" s="183"/>
-      <c r="AA36" s="184"/>
-      <c r="AB36" s="182"/>
-      <c r="AC36" s="183"/>
-      <c r="AD36" s="183"/>
-      <c r="AE36" s="184"/>
-      <c r="AF36" s="182"/>
-      <c r="AG36" s="183"/>
-      <c r="AH36" s="183"/>
-      <c r="AI36" s="184"/>
-      <c r="AJ36" s="182"/>
-      <c r="AK36" s="183"/>
-      <c r="AL36" s="183"/>
-      <c r="AM36" s="184"/>
-      <c r="AN36" s="182"/>
-      <c r="AO36" s="183"/>
-      <c r="AP36" s="183"/>
-      <c r="AQ36" s="184"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="153"/>
+      <c r="AC36" s="154"/>
+      <c r="AD36" s="154"/>
+      <c r="AE36" s="155"/>
+      <c r="AF36" s="153"/>
+      <c r="AG36" s="154"/>
+      <c r="AH36" s="154"/>
+      <c r="AI36" s="155"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="154"/>
+      <c r="AL36" s="154"/>
+      <c r="AM36" s="155"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="154"/>
+      <c r="AP36" s="154"/>
+      <c r="AQ36" s="155"/>
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="222">
+      <c r="C37" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="D37" s="182"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="182"/>
-      <c r="U37" s="183"/>
-      <c r="V37" s="183"/>
-      <c r="W37" s="184"/>
-      <c r="X37" s="182"/>
-      <c r="Y37" s="183"/>
-      <c r="Z37" s="183"/>
-      <c r="AA37" s="184"/>
-      <c r="AB37" s="182"/>
-      <c r="AC37" s="183"/>
-      <c r="AD37" s="186">
+      <c r="D37" s="153"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="155"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="155"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="155"/>
+      <c r="AB37" s="153"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="157">
         <v>2</v>
       </c>
-      <c r="AE37" s="193">
+      <c r="AE37" s="164">
         <v>2</v>
       </c>
-      <c r="AF37" s="182"/>
-      <c r="AG37" s="183"/>
-      <c r="AH37" s="183"/>
-      <c r="AI37" s="184"/>
-      <c r="AJ37" s="182"/>
-      <c r="AK37" s="183"/>
-      <c r="AL37" s="183"/>
-      <c r="AM37" s="184"/>
-      <c r="AN37" s="182"/>
-      <c r="AO37" s="183"/>
-      <c r="AP37" s="183"/>
-      <c r="AQ37" s="184"/>
+      <c r="AF37" s="153"/>
+      <c r="AG37" s="154"/>
+      <c r="AH37" s="154"/>
+      <c r="AI37" s="155"/>
+      <c r="AJ37" s="153"/>
+      <c r="AK37" s="154"/>
+      <c r="AL37" s="154"/>
+      <c r="AM37" s="155"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
+      <c r="AQ37" s="155"/>
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="221">
+      <c r="B38" s="207"/>
+      <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="184"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="183"/>
-      <c r="O38" s="184"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="183"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="182"/>
-      <c r="U38" s="183"/>
-      <c r="V38" s="183"/>
-      <c r="W38" s="184"/>
-      <c r="X38" s="182"/>
-      <c r="Y38" s="183"/>
-      <c r="Z38" s="183"/>
-      <c r="AA38" s="184"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="183"/>
-      <c r="AD38" s="183"/>
-      <c r="AE38" s="184"/>
-      <c r="AF38" s="182"/>
-      <c r="AG38" s="183"/>
-      <c r="AH38" s="183"/>
-      <c r="AI38" s="184"/>
-      <c r="AJ38" s="182"/>
-      <c r="AK38" s="183"/>
-      <c r="AL38" s="183"/>
-      <c r="AM38" s="184"/>
-      <c r="AN38" s="182"/>
-      <c r="AO38" s="183"/>
-      <c r="AP38" s="183"/>
-      <c r="AQ38" s="184"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="155"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="155"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="155"/>
+      <c r="AB38" s="153"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="155"/>
+      <c r="AF38" s="153"/>
+      <c r="AG38" s="154"/>
+      <c r="AH38" s="154"/>
+      <c r="AI38" s="155"/>
+      <c r="AJ38" s="153"/>
+      <c r="AK38" s="154"/>
+      <c r="AL38" s="154"/>
+      <c r="AM38" s="155"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="154"/>
+      <c r="AP38" s="154"/>
+      <c r="AQ38" s="155"/>
     </row>
     <row r="39" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="209">
+      <c r="C39" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
       </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="189"/>
-      <c r="P39" s="187"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="189"/>
-      <c r="T39" s="187"/>
-      <c r="U39" s="188"/>
-      <c r="V39" s="188"/>
-      <c r="W39" s="189"/>
-      <c r="X39" s="187"/>
-      <c r="Y39" s="188"/>
-      <c r="Z39" s="188"/>
-      <c r="AA39" s="189"/>
-      <c r="AB39" s="187"/>
-      <c r="AC39" s="188"/>
-      <c r="AD39" s="188"/>
-      <c r="AE39" s="189"/>
-      <c r="AF39" s="234"/>
-      <c r="AG39" s="188"/>
-      <c r="AH39" s="190">
+      <c r="D39" s="158"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="160"/>
+      <c r="T39" s="158"/>
+      <c r="U39" s="159"/>
+      <c r="V39" s="159"/>
+      <c r="W39" s="160"/>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="159"/>
+      <c r="Z39" s="159"/>
+      <c r="AA39" s="160"/>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="159"/>
+      <c r="AD39" s="159"/>
+      <c r="AE39" s="160"/>
+      <c r="AF39" s="201"/>
+      <c r="AG39" s="159"/>
+      <c r="AH39" s="161">
         <v>2</v>
       </c>
-      <c r="AI39" s="189"/>
-      <c r="AJ39" s="187"/>
-      <c r="AK39" s="188"/>
-      <c r="AL39" s="188"/>
-      <c r="AM39" s="189"/>
-      <c r="AN39" s="187"/>
-      <c r="AO39" s="188"/>
-      <c r="AP39" s="188"/>
-      <c r="AQ39" s="189"/>
+      <c r="AI39" s="160"/>
+      <c r="AJ39" s="158"/>
+      <c r="AK39" s="159"/>
+      <c r="AL39" s="159"/>
+      <c r="AM39" s="160"/>
+      <c r="AN39" s="158"/>
+      <c r="AO39" s="159"/>
+      <c r="AP39" s="159"/>
+      <c r="AQ39" s="160"/>
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="223">
+      <c r="B40" s="208"/>
+      <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D40" s="182"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="184"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="183"/>
-      <c r="R40" s="183"/>
-      <c r="S40" s="184"/>
-      <c r="T40" s="182"/>
-      <c r="U40" s="183"/>
-      <c r="V40" s="183"/>
-      <c r="W40" s="184"/>
-      <c r="X40" s="182"/>
-      <c r="Y40" s="183"/>
-      <c r="Z40" s="183"/>
-      <c r="AA40" s="184"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="183"/>
-      <c r="AD40" s="183"/>
-      <c r="AE40" s="184"/>
-      <c r="AF40" s="182"/>
-      <c r="AG40" s="183"/>
-      <c r="AH40" s="183"/>
-      <c r="AI40" s="184"/>
-      <c r="AJ40" s="182"/>
-      <c r="AK40" s="183"/>
-      <c r="AL40" s="183"/>
-      <c r="AM40" s="184"/>
-      <c r="AN40" s="182"/>
-      <c r="AO40" s="183"/>
-      <c r="AP40" s="183"/>
-      <c r="AQ40" s="184"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="155"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="154"/>
+      <c r="W40" s="155"/>
+      <c r="X40" s="153"/>
+      <c r="Y40" s="154"/>
+      <c r="Z40" s="154"/>
+      <c r="AA40" s="155"/>
+      <c r="AB40" s="153"/>
+      <c r="AC40" s="154"/>
+      <c r="AD40" s="154"/>
+      <c r="AE40" s="155"/>
+      <c r="AF40" s="153"/>
+      <c r="AG40" s="154"/>
+      <c r="AH40" s="154"/>
+      <c r="AI40" s="155"/>
+      <c r="AJ40" s="153"/>
+      <c r="AK40" s="154"/>
+      <c r="AL40" s="154"/>
+      <c r="AM40" s="155"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
+      <c r="AQ40" s="155"/>
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="223">
+      <c r="C41" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
       </c>
-      <c r="D41" s="182"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="183"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="183"/>
-      <c r="S41" s="184"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="183"/>
-      <c r="V41" s="183"/>
-      <c r="W41" s="184"/>
-      <c r="X41" s="182"/>
-      <c r="Y41" s="183"/>
-      <c r="Z41" s="183"/>
-      <c r="AA41" s="184"/>
-      <c r="AB41" s="182"/>
-      <c r="AC41" s="183"/>
-      <c r="AD41" s="183"/>
-      <c r="AE41" s="184"/>
-      <c r="AF41" s="182"/>
-      <c r="AG41" s="197"/>
-      <c r="AH41" s="197"/>
-      <c r="AI41" s="184"/>
-      <c r="AJ41" s="185">
+      <c r="D41" s="153"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="153"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154"/>
+      <c r="W41" s="155"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="154"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="155"/>
+      <c r="AB41" s="153"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="154"/>
+      <c r="AE41" s="155"/>
+      <c r="AF41" s="153"/>
+      <c r="AG41" s="168"/>
+      <c r="AH41" s="168"/>
+      <c r="AI41" s="155"/>
+      <c r="AJ41" s="156">
         <v>2</v>
       </c>
-      <c r="AK41" s="186">
+      <c r="AK41" s="157">
         <v>2</v>
       </c>
-      <c r="AL41" s="183"/>
-      <c r="AM41" s="184"/>
-      <c r="AN41" s="182"/>
-      <c r="AO41" s="183"/>
-      <c r="AP41" s="183"/>
-      <c r="AQ41" s="184"/>
+      <c r="AL41" s="154"/>
+      <c r="AM41" s="155"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
+      <c r="AQ41" s="155"/>
     </row>
     <row r="42" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="221">
+      <c r="B42" s="211"/>
+      <c r="C42" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="196"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
-      <c r="O42" s="196"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="195"/>
-      <c r="S42" s="196"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="195"/>
-      <c r="V42" s="195"/>
-      <c r="W42" s="196"/>
-      <c r="X42" s="194"/>
-      <c r="Y42" s="195"/>
-      <c r="Z42" s="195"/>
-      <c r="AA42" s="196"/>
-      <c r="AB42" s="194"/>
-      <c r="AC42" s="195"/>
-      <c r="AD42" s="195"/>
-      <c r="AE42" s="196"/>
-      <c r="AF42" s="194"/>
-      <c r="AG42" s="195"/>
-      <c r="AH42" s="195"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="195"/>
-      <c r="AL42" s="195"/>
-      <c r="AM42" s="196"/>
-      <c r="AN42" s="194"/>
-      <c r="AO42" s="195"/>
-      <c r="AP42" s="195"/>
-      <c r="AQ42" s="196"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="167"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="167"/>
+      <c r="P42" s="165"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="165"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="166"/>
+      <c r="W42" s="167"/>
+      <c r="X42" s="165"/>
+      <c r="Y42" s="166"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="167"/>
+      <c r="AB42" s="165"/>
+      <c r="AC42" s="166"/>
+      <c r="AD42" s="166"/>
+      <c r="AE42" s="167"/>
+      <c r="AF42" s="165"/>
+      <c r="AG42" s="166"/>
+      <c r="AH42" s="166"/>
+      <c r="AI42" s="167"/>
+      <c r="AJ42" s="165"/>
+      <c r="AK42" s="166"/>
+      <c r="AL42" s="166"/>
+      <c r="AM42" s="167"/>
+      <c r="AN42" s="165"/>
+      <c r="AO42" s="166"/>
+      <c r="AP42" s="166"/>
+      <c r="AQ42" s="167"/>
     </row>
     <row r="43" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="209">
+      <c r="B43" s="219" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>3.5</v>
       </c>
-      <c r="D43" s="187"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="187"/>
-      <c r="M43" s="188"/>
-      <c r="N43" s="188"/>
-      <c r="O43" s="189"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="188"/>
-      <c r="R43" s="188"/>
-      <c r="S43" s="189"/>
-      <c r="T43" s="187"/>
-      <c r="U43" s="188"/>
-      <c r="V43" s="188"/>
-      <c r="W43" s="189"/>
-      <c r="X43" s="187"/>
-      <c r="Y43" s="188"/>
-      <c r="Z43" s="188"/>
-      <c r="AA43" s="189"/>
-      <c r="AB43" s="187"/>
-      <c r="AC43" s="188"/>
-      <c r="AD43" s="188"/>
-      <c r="AE43" s="189"/>
-      <c r="AF43" s="187"/>
-      <c r="AG43" s="188"/>
-      <c r="AH43" s="188"/>
-      <c r="AI43" s="189"/>
-      <c r="AJ43" s="234"/>
-      <c r="AK43" s="235"/>
-      <c r="AL43" s="190">
+      <c r="D43" s="158"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="158"/>
+      <c r="Q43" s="159"/>
+      <c r="R43" s="159"/>
+      <c r="S43" s="160"/>
+      <c r="T43" s="158"/>
+      <c r="U43" s="159"/>
+      <c r="V43" s="159"/>
+      <c r="W43" s="160"/>
+      <c r="X43" s="158"/>
+      <c r="Y43" s="159"/>
+      <c r="Z43" s="159"/>
+      <c r="AA43" s="160"/>
+      <c r="AB43" s="158"/>
+      <c r="AC43" s="159"/>
+      <c r="AD43" s="159"/>
+      <c r="AE43" s="160"/>
+      <c r="AF43" s="158"/>
+      <c r="AG43" s="159"/>
+      <c r="AH43" s="159"/>
+      <c r="AI43" s="160"/>
+      <c r="AJ43" s="201"/>
+      <c r="AK43" s="202"/>
+      <c r="AL43" s="161">
         <v>2</v>
       </c>
-      <c r="AM43" s="237">
+      <c r="AM43" s="204">
         <v>1.5</v>
       </c>
-      <c r="AN43" s="187"/>
-      <c r="AO43" s="188"/>
-      <c r="AP43" s="188"/>
-      <c r="AQ43" s="189"/>
+      <c r="AN43" s="158"/>
+      <c r="AO43" s="159"/>
+      <c r="AP43" s="159"/>
+      <c r="AQ43" s="160"/>
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="221">
+      <c r="B44" s="208"/>
+      <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D44" s="182"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="183"/>
-      <c r="N44" s="183"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="183"/>
-      <c r="R44" s="183"/>
-      <c r="S44" s="184"/>
-      <c r="T44" s="182"/>
-      <c r="U44" s="183"/>
-      <c r="V44" s="183"/>
-      <c r="W44" s="184"/>
-      <c r="X44" s="182"/>
-      <c r="Y44" s="183"/>
-      <c r="Z44" s="183"/>
-      <c r="AA44" s="184"/>
-      <c r="AB44" s="182"/>
-      <c r="AC44" s="183"/>
-      <c r="AD44" s="183"/>
-      <c r="AE44" s="184"/>
-      <c r="AF44" s="182"/>
-      <c r="AG44" s="183"/>
-      <c r="AH44" s="183"/>
-      <c r="AI44" s="184"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="183"/>
-      <c r="AL44" s="183"/>
-      <c r="AM44" s="184"/>
-      <c r="AN44" s="182"/>
-      <c r="AO44" s="183"/>
-      <c r="AP44" s="183"/>
-      <c r="AQ44" s="184"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="155"/>
+      <c r="T44" s="153"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="154"/>
+      <c r="W44" s="155"/>
+      <c r="X44" s="153"/>
+      <c r="Y44" s="154"/>
+      <c r="Z44" s="154"/>
+      <c r="AA44" s="155"/>
+      <c r="AB44" s="153"/>
+      <c r="AC44" s="154"/>
+      <c r="AD44" s="154"/>
+      <c r="AE44" s="155"/>
+      <c r="AF44" s="153"/>
+      <c r="AG44" s="154"/>
+      <c r="AH44" s="154"/>
+      <c r="AI44" s="155"/>
+      <c r="AJ44" s="153"/>
+      <c r="AK44" s="154"/>
+      <c r="AL44" s="154"/>
+      <c r="AM44" s="155"/>
+      <c r="AN44" s="153"/>
+      <c r="AO44" s="154"/>
+      <c r="AP44" s="154"/>
+      <c r="AQ44" s="155"/>
     </row>
     <row r="45" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="209">
+      <c r="B45" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="178">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="188"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="188"/>
-      <c r="O45" s="189"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
-      <c r="S45" s="189"/>
-      <c r="T45" s="187"/>
-      <c r="U45" s="188"/>
-      <c r="V45" s="188"/>
-      <c r="W45" s="189"/>
-      <c r="X45" s="187"/>
-      <c r="Y45" s="188"/>
-      <c r="Z45" s="188"/>
-      <c r="AA45" s="189"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="188"/>
-      <c r="AD45" s="188"/>
-      <c r="AE45" s="189"/>
-      <c r="AF45" s="187"/>
-      <c r="AG45" s="188"/>
-      <c r="AH45" s="188"/>
-      <c r="AI45" s="189"/>
-      <c r="AJ45" s="187"/>
-      <c r="AK45" s="188"/>
-      <c r="AL45" s="188"/>
-      <c r="AM45" s="189"/>
-      <c r="AN45" s="191">
+      <c r="D45" s="158"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="159"/>
+      <c r="K45" s="160"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="159"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="160"/>
+      <c r="P45" s="158"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="159"/>
+      <c r="S45" s="160"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="159"/>
+      <c r="V45" s="159"/>
+      <c r="W45" s="160"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="159"/>
+      <c r="Z45" s="159"/>
+      <c r="AA45" s="160"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="159"/>
+      <c r="AD45" s="159"/>
+      <c r="AE45" s="160"/>
+      <c r="AF45" s="158"/>
+      <c r="AG45" s="159"/>
+      <c r="AH45" s="159"/>
+      <c r="AI45" s="160"/>
+      <c r="AJ45" s="158"/>
+      <c r="AK45" s="159"/>
+      <c r="AL45" s="159"/>
+      <c r="AM45" s="160"/>
+      <c r="AN45" s="162">
         <v>1</v>
       </c>
-      <c r="AO45" s="188"/>
-      <c r="AP45" s="188"/>
-      <c r="AQ45" s="189"/>
+      <c r="AO45" s="159"/>
+      <c r="AP45" s="159"/>
+      <c r="AQ45" s="160"/>
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="223">
+      <c r="B46" s="208"/>
+      <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D46" s="182"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="182"/>
-      <c r="M46" s="183"/>
-      <c r="N46" s="183"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="183"/>
-      <c r="S46" s="184"/>
-      <c r="T46" s="182"/>
-      <c r="U46" s="183"/>
-      <c r="V46" s="183"/>
-      <c r="W46" s="184"/>
-      <c r="X46" s="182"/>
-      <c r="Y46" s="183"/>
-      <c r="Z46" s="183"/>
-      <c r="AA46" s="184"/>
-      <c r="AB46" s="182"/>
-      <c r="AC46" s="183"/>
-      <c r="AD46" s="183"/>
-      <c r="AE46" s="184"/>
-      <c r="AF46" s="182"/>
-      <c r="AG46" s="183"/>
-      <c r="AH46" s="183"/>
-      <c r="AI46" s="184"/>
-      <c r="AJ46" s="182"/>
-      <c r="AK46" s="183"/>
-      <c r="AL46" s="183"/>
-      <c r="AM46" s="184"/>
-      <c r="AN46" s="182"/>
-      <c r="AO46" s="183"/>
-      <c r="AP46" s="183"/>
-      <c r="AQ46" s="184"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="155"/>
+      <c r="T46" s="153"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="154"/>
+      <c r="W46" s="155"/>
+      <c r="X46" s="153"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="153"/>
+      <c r="AC46" s="154"/>
+      <c r="AD46" s="154"/>
+      <c r="AE46" s="155"/>
+      <c r="AF46" s="153"/>
+      <c r="AG46" s="154"/>
+      <c r="AH46" s="154"/>
+      <c r="AI46" s="155"/>
+      <c r="AJ46" s="153"/>
+      <c r="AK46" s="154"/>
+      <c r="AL46" s="154"/>
+      <c r="AM46" s="155"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="154"/>
+      <c r="AP46" s="154"/>
+      <c r="AQ46" s="155"/>
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="222">
+      <c r="C47" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="184"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="184"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="183"/>
-      <c r="S47" s="184"/>
-      <c r="T47" s="182"/>
-      <c r="U47" s="183"/>
-      <c r="V47" s="183"/>
-      <c r="W47" s="184"/>
-      <c r="X47" s="182"/>
-      <c r="Y47" s="183"/>
-      <c r="Z47" s="183"/>
-      <c r="AA47" s="184"/>
-      <c r="AB47" s="182"/>
-      <c r="AC47" s="183"/>
-      <c r="AD47" s="183"/>
-      <c r="AE47" s="184"/>
-      <c r="AF47" s="182"/>
-      <c r="AG47" s="183"/>
-      <c r="AH47" s="183"/>
-      <c r="AI47" s="184"/>
-      <c r="AJ47" s="182"/>
-      <c r="AK47" s="183"/>
-      <c r="AL47" s="183"/>
-      <c r="AM47" s="184"/>
-      <c r="AN47" s="185">
+      <c r="D47" s="153"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="155"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="154"/>
+      <c r="W47" s="155"/>
+      <c r="X47" s="153"/>
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="154"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="153"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="154"/>
+      <c r="AE47" s="155"/>
+      <c r="AF47" s="153"/>
+      <c r="AG47" s="154"/>
+      <c r="AH47" s="154"/>
+      <c r="AI47" s="155"/>
+      <c r="AJ47" s="153"/>
+      <c r="AK47" s="154"/>
+      <c r="AL47" s="154"/>
+      <c r="AM47" s="155"/>
+      <c r="AN47" s="156">
         <v>0.5</v>
       </c>
-      <c r="AO47" s="197"/>
-      <c r="AP47" s="183"/>
-      <c r="AQ47" s="184"/>
+      <c r="AO47" s="168"/>
+      <c r="AP47" s="154"/>
+      <c r="AQ47" s="155"/>
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="223">
+      <c r="B48" s="208"/>
+      <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D48" s="182"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="183"/>
-      <c r="O48" s="184"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="183"/>
-      <c r="R48" s="183"/>
-      <c r="S48" s="184"/>
-      <c r="T48" s="182"/>
-      <c r="U48" s="183"/>
-      <c r="V48" s="183"/>
-      <c r="W48" s="184"/>
-      <c r="X48" s="182"/>
-      <c r="Y48" s="183"/>
-      <c r="Z48" s="183"/>
-      <c r="AA48" s="184"/>
-      <c r="AB48" s="182"/>
-      <c r="AC48" s="183"/>
-      <c r="AD48" s="183"/>
-      <c r="AE48" s="184"/>
-      <c r="AF48" s="182"/>
-      <c r="AG48" s="183"/>
-      <c r="AH48" s="183"/>
-      <c r="AI48" s="184"/>
-      <c r="AJ48" s="182"/>
-      <c r="AK48" s="183"/>
-      <c r="AL48" s="183"/>
-      <c r="AM48" s="184"/>
-      <c r="AN48" s="182"/>
-      <c r="AO48" s="183"/>
-      <c r="AP48" s="183"/>
-      <c r="AQ48" s="184"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="153"/>
+      <c r="Q48" s="154"/>
+      <c r="R48" s="154"/>
+      <c r="S48" s="155"/>
+      <c r="T48" s="153"/>
+      <c r="U48" s="154"/>
+      <c r="V48" s="154"/>
+      <c r="W48" s="155"/>
+      <c r="X48" s="153"/>
+      <c r="Y48" s="154"/>
+      <c r="Z48" s="154"/>
+      <c r="AA48" s="155"/>
+      <c r="AB48" s="153"/>
+      <c r="AC48" s="154"/>
+      <c r="AD48" s="154"/>
+      <c r="AE48" s="155"/>
+      <c r="AF48" s="153"/>
+      <c r="AG48" s="154"/>
+      <c r="AH48" s="154"/>
+      <c r="AI48" s="155"/>
+      <c r="AJ48" s="153"/>
+      <c r="AK48" s="154"/>
+      <c r="AL48" s="154"/>
+      <c r="AM48" s="155"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="154"/>
+      <c r="AP48" s="154"/>
+      <c r="AQ48" s="155"/>
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="223">
+      <c r="B49" s="207" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="198">
+      <c r="D49" s="153"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="169">
         <v>1</v>
       </c>
-      <c r="G49" s="184"/>
-      <c r="H49" s="182"/>
-      <c r="I49" s="183"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="184"/>
-      <c r="L49" s="182"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="183"/>
-      <c r="O49" s="184"/>
-      <c r="P49" s="182"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="183"/>
-      <c r="S49" s="184"/>
-      <c r="T49" s="182"/>
-      <c r="U49" s="183"/>
-      <c r="V49" s="183"/>
-      <c r="W49" s="184"/>
-      <c r="X49" s="182"/>
-      <c r="Y49" s="183"/>
-      <c r="Z49" s="183"/>
-      <c r="AA49" s="184"/>
-      <c r="AB49" s="182"/>
-      <c r="AC49" s="183"/>
-      <c r="AD49" s="183"/>
-      <c r="AE49" s="184"/>
-      <c r="AF49" s="182"/>
-      <c r="AG49" s="183"/>
-      <c r="AH49" s="183"/>
-      <c r="AI49" s="184"/>
-      <c r="AJ49" s="182"/>
-      <c r="AK49" s="183"/>
-      <c r="AL49" s="183"/>
-      <c r="AM49" s="184"/>
-      <c r="AN49" s="182"/>
-      <c r="AO49" s="183"/>
-      <c r="AP49" s="183"/>
-      <c r="AQ49" s="184"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="154"/>
+      <c r="R49" s="154"/>
+      <c r="S49" s="155"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="154"/>
+      <c r="V49" s="154"/>
+      <c r="W49" s="155"/>
+      <c r="X49" s="153"/>
+      <c r="Y49" s="154"/>
+      <c r="Z49" s="154"/>
+      <c r="AA49" s="155"/>
+      <c r="AB49" s="153"/>
+      <c r="AC49" s="154"/>
+      <c r="AD49" s="154"/>
+      <c r="AE49" s="155"/>
+      <c r="AF49" s="153"/>
+      <c r="AG49" s="154"/>
+      <c r="AH49" s="154"/>
+      <c r="AI49" s="155"/>
+      <c r="AJ49" s="153"/>
+      <c r="AK49" s="154"/>
+      <c r="AL49" s="154"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="154"/>
+      <c r="AP49" s="154"/>
+      <c r="AQ49" s="155"/>
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="222">
+      <c r="B50" s="208"/>
+      <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="199">
+      <c r="D50" s="153"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="170">
         <v>1</v>
       </c>
-      <c r="G50" s="184"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="184"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="183"/>
-      <c r="N50" s="183"/>
-      <c r="O50" s="184"/>
-      <c r="P50" s="182"/>
-      <c r="Q50" s="183"/>
-      <c r="R50" s="183"/>
-      <c r="S50" s="184"/>
-      <c r="T50" s="182"/>
-      <c r="U50" s="183"/>
-      <c r="V50" s="183"/>
-      <c r="W50" s="184"/>
-      <c r="X50" s="182"/>
-      <c r="Y50" s="183"/>
-      <c r="Z50" s="183"/>
-      <c r="AA50" s="184"/>
-      <c r="AB50" s="182"/>
-      <c r="AC50" s="183"/>
-      <c r="AD50" s="183"/>
-      <c r="AE50" s="184"/>
-      <c r="AF50" s="182"/>
-      <c r="AG50" s="183"/>
-      <c r="AH50" s="183"/>
-      <c r="AI50" s="184"/>
-      <c r="AJ50" s="182"/>
-      <c r="AK50" s="183"/>
-      <c r="AL50" s="183"/>
-      <c r="AM50" s="184"/>
-      <c r="AN50" s="182"/>
-      <c r="AO50" s="183"/>
-      <c r="AP50" s="183"/>
-      <c r="AQ50" s="184"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="155"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="155"/>
+      <c r="X50" s="153"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="155"/>
+      <c r="AB50" s="153"/>
+      <c r="AC50" s="154"/>
+      <c r="AD50" s="154"/>
+      <c r="AE50" s="155"/>
+      <c r="AF50" s="153"/>
+      <c r="AG50" s="154"/>
+      <c r="AH50" s="154"/>
+      <c r="AI50" s="155"/>
+      <c r="AJ50" s="153"/>
+      <c r="AK50" s="154"/>
+      <c r="AL50" s="154"/>
+      <c r="AM50" s="155"/>
+      <c r="AN50" s="153"/>
+      <c r="AO50" s="154"/>
+      <c r="AP50" s="154"/>
+      <c r="AQ50" s="155"/>
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="223">
+      <c r="B51" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D51" s="182"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="186">
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="157">
         <v>0.5</v>
       </c>
-      <c r="G51" s="186">
+      <c r="G51" s="157">
         <v>0.5</v>
       </c>
-      <c r="H51" s="226"/>
-      <c r="I51" s="226"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="184"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="183"/>
-      <c r="N51" s="183"/>
-      <c r="O51" s="184"/>
-      <c r="P51" s="182"/>
-      <c r="Q51" s="183"/>
-      <c r="R51" s="183"/>
-      <c r="S51" s="184"/>
-      <c r="T51" s="182"/>
-      <c r="U51" s="183"/>
-      <c r="V51" s="183"/>
-      <c r="W51" s="184"/>
-      <c r="X51" s="182"/>
-      <c r="Y51" s="183"/>
-      <c r="Z51" s="183"/>
-      <c r="AA51" s="184"/>
-      <c r="AB51" s="182"/>
-      <c r="AC51" s="183"/>
-      <c r="AD51" s="183"/>
-      <c r="AE51" s="184"/>
-      <c r="AF51" s="182"/>
-      <c r="AG51" s="183"/>
-      <c r="AH51" s="183"/>
-      <c r="AI51" s="184"/>
-      <c r="AJ51" s="182"/>
-      <c r="AK51" s="183"/>
-      <c r="AL51" s="183"/>
-      <c r="AM51" s="184"/>
-      <c r="AN51" s="182"/>
-      <c r="AO51" s="183"/>
-      <c r="AP51" s="183"/>
-      <c r="AQ51" s="184"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="155"/>
+      <c r="T51" s="153"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="155"/>
+      <c r="X51" s="153"/>
+      <c r="Y51" s="154"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="155"/>
+      <c r="AB51" s="153"/>
+      <c r="AC51" s="154"/>
+      <c r="AD51" s="154"/>
+      <c r="AE51" s="155"/>
+      <c r="AF51" s="153"/>
+      <c r="AG51" s="154"/>
+      <c r="AH51" s="154"/>
+      <c r="AI51" s="155"/>
+      <c r="AJ51" s="153"/>
+      <c r="AK51" s="154"/>
+      <c r="AL51" s="154"/>
+      <c r="AM51" s="155"/>
+      <c r="AN51" s="153"/>
+      <c r="AO51" s="154"/>
+      <c r="AP51" s="154"/>
+      <c r="AQ51" s="155"/>
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="230">
+      <c r="B52" s="208"/>
+      <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
       </c>
-      <c r="D52" s="231"/>
-      <c r="E52" s="199">
+      <c r="D52" s="198"/>
+      <c r="E52" s="170">
         <v>0.5</v>
       </c>
-      <c r="F52" s="199">
+      <c r="F52" s="170">
         <v>1</v>
       </c>
-      <c r="G52" s="184"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="184"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="183"/>
-      <c r="N52" s="183"/>
-      <c r="O52" s="184"/>
-      <c r="P52" s="182"/>
-      <c r="Q52" s="183"/>
-      <c r="R52" s="183"/>
-      <c r="S52" s="184"/>
-      <c r="T52" s="182"/>
-      <c r="U52" s="183"/>
-      <c r="V52" s="183"/>
-      <c r="W52" s="184"/>
-      <c r="X52" s="182"/>
-      <c r="Y52" s="183"/>
-      <c r="Z52" s="183"/>
-      <c r="AA52" s="184"/>
-      <c r="AB52" s="182"/>
-      <c r="AC52" s="183"/>
-      <c r="AD52" s="183"/>
-      <c r="AE52" s="184"/>
-      <c r="AF52" s="182"/>
-      <c r="AG52" s="183"/>
-      <c r="AH52" s="183"/>
-      <c r="AI52" s="184"/>
-      <c r="AJ52" s="182"/>
-      <c r="AK52" s="183"/>
-      <c r="AL52" s="183"/>
-      <c r="AM52" s="184"/>
-      <c r="AN52" s="182"/>
-      <c r="AO52" s="183"/>
-      <c r="AP52" s="183"/>
-      <c r="AQ52" s="184"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="155"/>
+      <c r="X52" s="153"/>
+      <c r="Y52" s="154"/>
+      <c r="Z52" s="154"/>
+      <c r="AA52" s="155"/>
+      <c r="AB52" s="153"/>
+      <c r="AC52" s="154"/>
+      <c r="AD52" s="154"/>
+      <c r="AE52" s="155"/>
+      <c r="AF52" s="153"/>
+      <c r="AG52" s="154"/>
+      <c r="AH52" s="154"/>
+      <c r="AI52" s="155"/>
+      <c r="AJ52" s="153"/>
+      <c r="AK52" s="154"/>
+      <c r="AL52" s="154"/>
+      <c r="AM52" s="155"/>
+      <c r="AN52" s="153"/>
+      <c r="AO52" s="154"/>
+      <c r="AP52" s="154"/>
+      <c r="AQ52" s="155"/>
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="223">
+      <c r="C53" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
       </c>
-      <c r="D53" s="182"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="184"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="186">
+      <c r="D53" s="153"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="157">
         <v>0.5</v>
       </c>
-      <c r="K53" s="184"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="183"/>
-      <c r="O53" s="184"/>
-      <c r="P53" s="182"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="183"/>
-      <c r="S53" s="184"/>
-      <c r="T53" s="182"/>
-      <c r="U53" s="183"/>
-      <c r="V53" s="183"/>
-      <c r="W53" s="184"/>
-      <c r="X53" s="182"/>
-      <c r="Y53" s="183"/>
-      <c r="Z53" s="183"/>
-      <c r="AA53" s="184"/>
-      <c r="AB53" s="182"/>
-      <c r="AC53" s="183"/>
-      <c r="AD53" s="183"/>
-      <c r="AE53" s="184"/>
-      <c r="AF53" s="182"/>
-      <c r="AG53" s="183"/>
-      <c r="AH53" s="183"/>
-      <c r="AI53" s="184"/>
-      <c r="AJ53" s="182"/>
-      <c r="AK53" s="183"/>
-      <c r="AL53" s="183"/>
-      <c r="AM53" s="184"/>
-      <c r="AN53" s="182"/>
-      <c r="AO53" s="183"/>
-      <c r="AP53" s="183"/>
-      <c r="AQ53" s="184"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154"/>
+      <c r="S53" s="155"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="154"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="153"/>
+      <c r="Y53" s="154"/>
+      <c r="Z53" s="154"/>
+      <c r="AA53" s="155"/>
+      <c r="AB53" s="153"/>
+      <c r="AC53" s="154"/>
+      <c r="AD53" s="154"/>
+      <c r="AE53" s="155"/>
+      <c r="AF53" s="153"/>
+      <c r="AG53" s="154"/>
+      <c r="AH53" s="154"/>
+      <c r="AI53" s="155"/>
+      <c r="AJ53" s="153"/>
+      <c r="AK53" s="154"/>
+      <c r="AL53" s="154"/>
+      <c r="AM53" s="155"/>
+      <c r="AN53" s="153"/>
+      <c r="AO53" s="154"/>
+      <c r="AP53" s="154"/>
+      <c r="AQ53" s="155"/>
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="223">
+      <c r="B54" s="208"/>
+      <c r="C54" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="153"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="155"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="153"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="155"/>
+      <c r="X54" s="153"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="155"/>
+      <c r="AB54" s="153"/>
+      <c r="AC54" s="154"/>
+      <c r="AD54" s="154"/>
+      <c r="AE54" s="155"/>
+      <c r="AF54" s="153"/>
+      <c r="AG54" s="154"/>
+      <c r="AH54" s="154"/>
+      <c r="AI54" s="155"/>
+      <c r="AJ54" s="153"/>
+      <c r="AK54" s="154"/>
+      <c r="AL54" s="154"/>
+      <c r="AM54" s="155"/>
+      <c r="AN54" s="153"/>
+      <c r="AO54" s="154"/>
+      <c r="AP54" s="154"/>
+      <c r="AQ54" s="155"/>
+    </row>
+    <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>5.5</v>
+      </c>
+      <c r="D55" s="153"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="157">
+        <v>1.5</v>
+      </c>
+      <c r="K55" s="157">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="154"/>
+      <c r="M55" s="163"/>
+      <c r="N55" s="157">
+        <v>2</v>
+      </c>
+      <c r="O55" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="P55" s="153"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="155"/>
+      <c r="T55" s="153"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="154"/>
+      <c r="W55" s="155"/>
+      <c r="X55" s="153"/>
+      <c r="Y55" s="154"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="155"/>
+      <c r="AB55" s="153"/>
+      <c r="AC55" s="154"/>
+      <c r="AD55" s="154"/>
+      <c r="AE55" s="155"/>
+      <c r="AF55" s="153"/>
+      <c r="AG55" s="154"/>
+      <c r="AH55" s="154"/>
+      <c r="AI55" s="155"/>
+      <c r="AJ55" s="153"/>
+      <c r="AK55" s="154"/>
+      <c r="AL55" s="154"/>
+      <c r="AM55" s="155"/>
+      <c r="AN55" s="153"/>
+      <c r="AO55" s="154"/>
+      <c r="AP55" s="154"/>
+      <c r="AQ55" s="155"/>
+    </row>
+    <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="208"/>
+      <c r="C56" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="153"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="170">
+        <v>1.5</v>
+      </c>
+      <c r="K56" s="196">
+        <v>1.5</v>
+      </c>
+      <c r="L56" s="153"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="154"/>
+      <c r="R56" s="154"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="153"/>
+      <c r="U56" s="154"/>
+      <c r="V56" s="154"/>
+      <c r="W56" s="155"/>
+      <c r="X56" s="153"/>
+      <c r="Y56" s="154"/>
+      <c r="Z56" s="154"/>
+      <c r="AA56" s="155"/>
+      <c r="AB56" s="153"/>
+      <c r="AC56" s="154"/>
+      <c r="AD56" s="154"/>
+      <c r="AE56" s="155"/>
+      <c r="AF56" s="153"/>
+      <c r="AG56" s="154"/>
+      <c r="AH56" s="154"/>
+      <c r="AI56" s="155"/>
+      <c r="AJ56" s="153"/>
+      <c r="AK56" s="154"/>
+      <c r="AL56" s="154"/>
+      <c r="AM56" s="155"/>
+      <c r="AN56" s="153"/>
+      <c r="AO56" s="154"/>
+      <c r="AP56" s="154"/>
+      <c r="AQ56" s="155"/>
+    </row>
+    <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="157">
+        <v>1</v>
+      </c>
+      <c r="P57" s="153"/>
+      <c r="Q57" s="154"/>
+      <c r="R57" s="154"/>
+      <c r="S57" s="155"/>
+      <c r="T57" s="153"/>
+      <c r="U57" s="154"/>
+      <c r="V57" s="154"/>
+      <c r="W57" s="155"/>
+      <c r="X57" s="153"/>
+      <c r="Y57" s="154"/>
+      <c r="Z57" s="154"/>
+      <c r="AA57" s="155"/>
+      <c r="AB57" s="153"/>
+      <c r="AC57" s="154"/>
+      <c r="AD57" s="154"/>
+      <c r="AE57" s="155"/>
+      <c r="AF57" s="153"/>
+      <c r="AG57" s="154"/>
+      <c r="AH57" s="154"/>
+      <c r="AI57" s="155"/>
+      <c r="AJ57" s="153"/>
+      <c r="AK57" s="154"/>
+      <c r="AL57" s="154"/>
+      <c r="AM57" s="155"/>
+      <c r="AN57" s="153"/>
+      <c r="AO57" s="154"/>
+      <c r="AP57" s="154"/>
+      <c r="AQ57" s="155"/>
+    </row>
+    <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D54" s="182"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="184"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="184"/>
-      <c r="P54" s="182"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="183"/>
-      <c r="S54" s="184"/>
-      <c r="T54" s="182"/>
-      <c r="U54" s="183"/>
-      <c r="V54" s="183"/>
-      <c r="W54" s="184"/>
-      <c r="X54" s="182"/>
-      <c r="Y54" s="183"/>
-      <c r="Z54" s="183"/>
-      <c r="AA54" s="184"/>
-      <c r="AB54" s="182"/>
-      <c r="AC54" s="183"/>
-      <c r="AD54" s="183"/>
-      <c r="AE54" s="184"/>
-      <c r="AF54" s="182"/>
-      <c r="AG54" s="183"/>
-      <c r="AH54" s="183"/>
-      <c r="AI54" s="184"/>
-      <c r="AJ54" s="182"/>
-      <c r="AK54" s="183"/>
-      <c r="AL54" s="183"/>
-      <c r="AM54" s="184"/>
-      <c r="AN54" s="182"/>
-      <c r="AO54" s="183"/>
-      <c r="AP54" s="183"/>
-      <c r="AQ54" s="184"/>
-    </row>
-    <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="223">
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="153"/>
+      <c r="Q58" s="154"/>
+      <c r="R58" s="154"/>
+      <c r="S58" s="155"/>
+      <c r="T58" s="153"/>
+      <c r="U58" s="154"/>
+      <c r="V58" s="154"/>
+      <c r="W58" s="155"/>
+      <c r="X58" s="153"/>
+      <c r="Y58" s="154"/>
+      <c r="Z58" s="154"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="153"/>
+      <c r="AC58" s="154"/>
+      <c r="AD58" s="154"/>
+      <c r="AE58" s="155"/>
+      <c r="AF58" s="153"/>
+      <c r="AG58" s="154"/>
+      <c r="AH58" s="154"/>
+      <c r="AI58" s="155"/>
+      <c r="AJ58" s="153"/>
+      <c r="AK58" s="154"/>
+      <c r="AL58" s="154"/>
+      <c r="AM58" s="155"/>
+      <c r="AN58" s="153"/>
+      <c r="AO58" s="154"/>
+      <c r="AP58" s="154"/>
+      <c r="AQ58" s="155"/>
+    </row>
+    <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="207" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>5.5</v>
-      </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="184"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="186">
-        <v>1.5</v>
-      </c>
-      <c r="K55" s="186">
-        <v>1.5</v>
-      </c>
-      <c r="L55" s="226"/>
-      <c r="M55" s="192"/>
-      <c r="N55" s="186">
+        <v>5</v>
+      </c>
+      <c r="D59" s="153"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="154"/>
+      <c r="N59" s="154"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="154"/>
+      <c r="Q59" s="154"/>
+      <c r="R59" s="154"/>
+      <c r="S59" s="200"/>
+      <c r="T59" s="199"/>
+      <c r="U59" s="154"/>
+      <c r="V59" s="154"/>
+      <c r="W59" s="193">
+        <v>1</v>
+      </c>
+      <c r="X59" s="199"/>
+      <c r="Y59" s="154"/>
+      <c r="Z59" s="154"/>
+      <c r="AA59" s="200"/>
+      <c r="AB59" s="199"/>
+      <c r="AC59" s="154"/>
+      <c r="AD59" s="154"/>
+      <c r="AE59" s="154"/>
+      <c r="AF59" s="156">
         <v>2</v>
       </c>
-      <c r="O55" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="P55" s="182"/>
-      <c r="Q55" s="183"/>
-      <c r="R55" s="183"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="182"/>
-      <c r="U55" s="183"/>
-      <c r="V55" s="183"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="182"/>
-      <c r="Y55" s="183"/>
-      <c r="Z55" s="183"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="182"/>
-      <c r="AC55" s="183"/>
-      <c r="AD55" s="183"/>
-      <c r="AE55" s="184"/>
-      <c r="AF55" s="182"/>
-      <c r="AG55" s="183"/>
-      <c r="AH55" s="183"/>
-      <c r="AI55" s="184"/>
-      <c r="AJ55" s="182"/>
-      <c r="AK55" s="183"/>
-      <c r="AL55" s="183"/>
-      <c r="AM55" s="184"/>
-      <c r="AN55" s="182"/>
-      <c r="AO55" s="183"/>
-      <c r="AP55" s="183"/>
-      <c r="AQ55" s="184"/>
-    </row>
-    <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="223">
+      <c r="AG59" s="157">
+        <v>2</v>
+      </c>
+      <c r="AH59" s="154"/>
+      <c r="AI59" s="155"/>
+      <c r="AJ59" s="153"/>
+      <c r="AK59" s="154"/>
+      <c r="AL59" s="154"/>
+      <c r="AM59" s="155"/>
+      <c r="AN59" s="153"/>
+      <c r="AO59" s="154"/>
+      <c r="AP59" s="154"/>
+      <c r="AQ59" s="155"/>
+    </row>
+    <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="208"/>
+      <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="184"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="184"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="183"/>
-      <c r="N56" s="183"/>
-      <c r="O56" s="184"/>
-      <c r="P56" s="182"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="183"/>
-      <c r="S56" s="184"/>
-      <c r="T56" s="182"/>
-      <c r="U56" s="183"/>
-      <c r="V56" s="183"/>
-      <c r="W56" s="184"/>
-      <c r="X56" s="182"/>
-      <c r="Y56" s="183"/>
-      <c r="Z56" s="183"/>
-      <c r="AA56" s="184"/>
-      <c r="AB56" s="182"/>
-      <c r="AC56" s="183"/>
-      <c r="AD56" s="183"/>
-      <c r="AE56" s="184"/>
-      <c r="AF56" s="182"/>
-      <c r="AG56" s="183"/>
-      <c r="AH56" s="183"/>
-      <c r="AI56" s="184"/>
-      <c r="AJ56" s="182"/>
-      <c r="AK56" s="183"/>
-      <c r="AL56" s="183"/>
-      <c r="AM56" s="184"/>
-      <c r="AN56" s="182"/>
-      <c r="AO56" s="183"/>
-      <c r="AP56" s="183"/>
-      <c r="AQ56" s="184"/>
-    </row>
-    <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="223">
+      <c r="D60" s="153"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="153"/>
+      <c r="Q60" s="154"/>
+      <c r="R60" s="154"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="153"/>
+      <c r="U60" s="154"/>
+      <c r="V60" s="154"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="153"/>
+      <c r="Y60" s="154"/>
+      <c r="Z60" s="154"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="153"/>
+      <c r="AC60" s="154"/>
+      <c r="AD60" s="154"/>
+      <c r="AE60" s="155"/>
+      <c r="AF60" s="153"/>
+      <c r="AG60" s="154"/>
+      <c r="AH60" s="154"/>
+      <c r="AI60" s="155"/>
+      <c r="AJ60" s="153"/>
+      <c r="AK60" s="154"/>
+      <c r="AL60" s="154"/>
+      <c r="AM60" s="155"/>
+      <c r="AN60" s="153"/>
+      <c r="AO60" s="154"/>
+      <c r="AP60" s="154"/>
+      <c r="AQ60" s="155"/>
+    </row>
+    <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="208" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1.5</v>
+      </c>
+      <c r="D61" s="153"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="153"/>
+      <c r="Q61" s="154"/>
+      <c r="R61" s="154"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="153"/>
+      <c r="U61" s="154"/>
+      <c r="V61" s="154"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="153"/>
+      <c r="Y61" s="154"/>
+      <c r="Z61" s="154"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="153"/>
+      <c r="AC61" s="154"/>
+      <c r="AD61" s="154"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="154"/>
+      <c r="AG61" s="154"/>
+      <c r="AH61" s="154"/>
+      <c r="AI61" s="157">
+        <v>1.5</v>
+      </c>
+      <c r="AJ61" s="153"/>
+      <c r="AK61" s="154"/>
+      <c r="AL61" s="154"/>
+      <c r="AM61" s="155"/>
+      <c r="AN61" s="153"/>
+      <c r="AO61" s="154"/>
+      <c r="AP61" s="154"/>
+      <c r="AQ61" s="155"/>
+    </row>
+    <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="208"/>
+      <c r="C62" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="153"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="154"/>
+      <c r="N62" s="154"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
+      <c r="S62" s="155"/>
+      <c r="T62" s="153"/>
+      <c r="U62" s="154"/>
+      <c r="V62" s="154"/>
+      <c r="W62" s="155"/>
+      <c r="X62" s="153"/>
+      <c r="Y62" s="154"/>
+      <c r="Z62" s="154"/>
+      <c r="AA62" s="155"/>
+      <c r="AB62" s="153"/>
+      <c r="AC62" s="154"/>
+      <c r="AD62" s="154"/>
+      <c r="AE62" s="155"/>
+      <c r="AF62" s="153"/>
+      <c r="AG62" s="154"/>
+      <c r="AH62" s="154"/>
+      <c r="AI62" s="155"/>
+      <c r="AJ62" s="153"/>
+      <c r="AK62" s="154"/>
+      <c r="AL62" s="154"/>
+      <c r="AM62" s="155"/>
+      <c r="AN62" s="153"/>
+      <c r="AO62" s="154"/>
+      <c r="AP62" s="154"/>
+      <c r="AQ62" s="155"/>
+    </row>
+    <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="208" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="153"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="155"/>
+      <c r="P63" s="153"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="155"/>
+      <c r="T63" s="153"/>
+      <c r="U63" s="154"/>
+      <c r="V63" s="154"/>
+      <c r="W63" s="155"/>
+      <c r="X63" s="153"/>
+      <c r="Y63" s="154"/>
+      <c r="Z63" s="154"/>
+      <c r="AA63" s="155"/>
+      <c r="AB63" s="153"/>
+      <c r="AC63" s="154"/>
+      <c r="AD63" s="154"/>
+      <c r="AE63" s="155"/>
+      <c r="AF63" s="153"/>
+      <c r="AG63" s="154"/>
+      <c r="AH63" s="154"/>
+      <c r="AI63" s="155"/>
+      <c r="AJ63" s="154"/>
+      <c r="AK63" s="154"/>
+      <c r="AL63" s="168"/>
+      <c r="AM63" s="154"/>
+      <c r="AN63" s="153"/>
+      <c r="AO63" s="154"/>
+      <c r="AP63" s="157">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="208"/>
+      <c r="C64" s="191">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="153"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="154"/>
+      <c r="O64" s="155"/>
+      <c r="P64" s="153"/>
+      <c r="Q64" s="154"/>
+      <c r="R64" s="154"/>
+      <c r="S64" s="155"/>
+      <c r="T64" s="153"/>
+      <c r="U64" s="154"/>
+      <c r="V64" s="154"/>
+      <c r="W64" s="155"/>
+      <c r="X64" s="153"/>
+      <c r="Y64" s="154"/>
+      <c r="Z64" s="154"/>
+      <c r="AA64" s="155"/>
+      <c r="AB64" s="153"/>
+      <c r="AC64" s="154"/>
+      <c r="AD64" s="154"/>
+      <c r="AE64" s="155"/>
+      <c r="AF64" s="153"/>
+      <c r="AG64" s="154"/>
+      <c r="AH64" s="154"/>
+      <c r="AI64" s="155"/>
+      <c r="AJ64" s="153"/>
+      <c r="AK64" s="154"/>
+      <c r="AL64" s="154"/>
+      <c r="AM64" s="155"/>
+      <c r="AN64" s="153"/>
+      <c r="AO64" s="154"/>
+      <c r="AP64" s="154"/>
+      <c r="AQ64" s="155"/>
+    </row>
+    <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>1.5</v>
+      </c>
+      <c r="D65" s="153"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="155"/>
+      <c r="P65" s="153"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="155"/>
+      <c r="T65" s="153"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="154"/>
+      <c r="W65" s="155"/>
+      <c r="X65" s="153"/>
+      <c r="Y65" s="154"/>
+      <c r="Z65" s="154"/>
+      <c r="AA65" s="155"/>
+      <c r="AB65" s="153"/>
+      <c r="AC65" s="154"/>
+      <c r="AD65" s="154"/>
+      <c r="AE65" s="155"/>
+      <c r="AF65" s="153"/>
+      <c r="AG65" s="154"/>
+      <c r="AH65" s="154"/>
+      <c r="AI65" s="155"/>
+      <c r="AJ65" s="153"/>
+      <c r="AK65" s="154"/>
+      <c r="AL65" s="154"/>
+      <c r="AM65" s="203"/>
+      <c r="AN65" s="156">
+        <v>0.5</v>
+      </c>
+      <c r="AO65" s="157">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="154"/>
+      <c r="AQ65" s="155"/>
+    </row>
+    <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="208"/>
+      <c r="C66" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="153"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="155"/>
+      <c r="P66" s="153"/>
+      <c r="Q66" s="154"/>
+      <c r="R66" s="154"/>
+      <c r="S66" s="155"/>
+      <c r="T66" s="153"/>
+      <c r="U66" s="154"/>
+      <c r="V66" s="154"/>
+      <c r="W66" s="155"/>
+      <c r="X66" s="153"/>
+      <c r="Y66" s="154"/>
+      <c r="Z66" s="154"/>
+      <c r="AA66" s="155"/>
+      <c r="AB66" s="153"/>
+      <c r="AC66" s="154"/>
+      <c r="AD66" s="154"/>
+      <c r="AE66" s="155"/>
+      <c r="AF66" s="153"/>
+      <c r="AG66" s="154"/>
+      <c r="AH66" s="154"/>
+      <c r="AI66" s="155"/>
+      <c r="AJ66" s="153"/>
+      <c r="AK66" s="154"/>
+      <c r="AL66" s="154"/>
+      <c r="AM66" s="155"/>
+      <c r="AN66" s="153"/>
+      <c r="AO66" s="154"/>
+      <c r="AP66" s="154"/>
+      <c r="AQ66" s="155"/>
+    </row>
+    <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="207" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>5</v>
+      </c>
+      <c r="D67" s="153"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="153"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="153"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="P67" s="153"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="T67" s="153"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="154"/>
+      <c r="W67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="X67" s="153"/>
+      <c r="Y67" s="154"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="AB67" s="153"/>
+      <c r="AC67" s="154"/>
+      <c r="AD67" s="154"/>
+      <c r="AE67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="AF67" s="153"/>
+      <c r="AG67" s="154"/>
+      <c r="AH67" s="154"/>
+      <c r="AI67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="AJ67" s="153"/>
+      <c r="AK67" s="154"/>
+      <c r="AL67" s="154"/>
+      <c r="AM67" s="164">
+        <v>0.5</v>
+      </c>
+      <c r="AN67" s="153"/>
+      <c r="AO67" s="154"/>
+      <c r="AP67" s="154"/>
+      <c r="AQ67" s="164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="208"/>
+      <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D57" s="182"/>
-      <c r="E57" s="183"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="184"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="183"/>
-      <c r="J57" s="183"/>
-      <c r="K57" s="184"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="183"/>
-      <c r="N57" s="183"/>
-      <c r="O57" s="186">
+      <c r="D68" s="153"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="153"/>
+      <c r="I68" s="154"/>
+      <c r="J68" s="154"/>
+      <c r="K68" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="153"/>
+      <c r="M68" s="154"/>
+      <c r="N68" s="154"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="153"/>
+      <c r="Q68" s="154"/>
+      <c r="R68" s="154"/>
+      <c r="S68" s="155"/>
+      <c r="T68" s="153"/>
+      <c r="U68" s="154"/>
+      <c r="V68" s="154"/>
+      <c r="W68" s="155"/>
+      <c r="X68" s="153"/>
+      <c r="Y68" s="154"/>
+      <c r="Z68" s="154"/>
+      <c r="AA68" s="155"/>
+      <c r="AB68" s="153"/>
+      <c r="AC68" s="154"/>
+      <c r="AD68" s="154"/>
+      <c r="AE68" s="155"/>
+      <c r="AF68" s="153"/>
+      <c r="AG68" s="154"/>
+      <c r="AH68" s="154"/>
+      <c r="AI68" s="155"/>
+      <c r="AJ68" s="153"/>
+      <c r="AK68" s="154"/>
+      <c r="AL68" s="154"/>
+      <c r="AM68" s="155"/>
+      <c r="AN68" s="153"/>
+      <c r="AO68" s="154"/>
+      <c r="AP68" s="154"/>
+      <c r="AQ68" s="155"/>
+    </row>
+    <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="208" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="192">
+        <f>SUM(Table_1[#This Row])</f>
+        <v>3</v>
+      </c>
+      <c r="D69" s="153"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="154"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="153"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="153"/>
+      <c r="M69" s="154"/>
+      <c r="N69" s="154"/>
+      <c r="O69" s="155"/>
+      <c r="P69" s="153"/>
+      <c r="Q69" s="154"/>
+      <c r="R69" s="154"/>
+      <c r="S69" s="155"/>
+      <c r="T69" s="153"/>
+      <c r="U69" s="154"/>
+      <c r="V69" s="154"/>
+      <c r="W69" s="155"/>
+      <c r="X69" s="153"/>
+      <c r="Y69" s="154"/>
+      <c r="Z69" s="154"/>
+      <c r="AA69" s="155"/>
+      <c r="AB69" s="153"/>
+      <c r="AC69" s="154"/>
+      <c r="AD69" s="154"/>
+      <c r="AE69" s="155"/>
+      <c r="AF69" s="153"/>
+      <c r="AG69" s="154"/>
+      <c r="AH69" s="154"/>
+      <c r="AI69" s="155"/>
+      <c r="AJ69" s="153"/>
+      <c r="AK69" s="154"/>
+      <c r="AL69" s="154"/>
+      <c r="AM69" s="155"/>
+      <c r="AN69" s="168"/>
+      <c r="AO69" s="157">
         <v>1</v>
       </c>
-      <c r="P57" s="182"/>
-      <c r="Q57" s="183"/>
-      <c r="R57" s="183"/>
-      <c r="S57" s="184"/>
-      <c r="T57" s="182"/>
-      <c r="U57" s="183"/>
-      <c r="V57" s="183"/>
-      <c r="W57" s="184"/>
-      <c r="X57" s="182"/>
-      <c r="Y57" s="183"/>
-      <c r="Z57" s="183"/>
-      <c r="AA57" s="184"/>
-      <c r="AB57" s="182"/>
-      <c r="AC57" s="183"/>
-      <c r="AD57" s="183"/>
-      <c r="AE57" s="184"/>
-      <c r="AF57" s="182"/>
-      <c r="AG57" s="183"/>
-      <c r="AH57" s="183"/>
-      <c r="AI57" s="184"/>
-      <c r="AJ57" s="182"/>
-      <c r="AK57" s="183"/>
-      <c r="AL57" s="183"/>
-      <c r="AM57" s="184"/>
-      <c r="AN57" s="182"/>
-      <c r="AO57" s="183"/>
-      <c r="AP57" s="183"/>
-      <c r="AQ57" s="184"/>
-    </row>
-    <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="223">
+      <c r="AP69" s="157">
+        <v>1</v>
+      </c>
+      <c r="AQ69" s="164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="208"/>
+      <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
       </c>
-      <c r="D58" s="182"/>
-      <c r="E58" s="183"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="182"/>
-      <c r="I58" s="183"/>
-      <c r="J58" s="183"/>
-      <c r="K58" s="184"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="183"/>
-      <c r="N58" s="183"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="182"/>
-      <c r="Q58" s="183"/>
-      <c r="R58" s="183"/>
-      <c r="S58" s="184"/>
-      <c r="T58" s="182"/>
-      <c r="U58" s="183"/>
-      <c r="V58" s="183"/>
-      <c r="W58" s="184"/>
-      <c r="X58" s="182"/>
-      <c r="Y58" s="183"/>
-      <c r="Z58" s="183"/>
-      <c r="AA58" s="184"/>
-      <c r="AB58" s="182"/>
-      <c r="AC58" s="183"/>
-      <c r="AD58" s="183"/>
-      <c r="AE58" s="184"/>
-      <c r="AF58" s="182"/>
-      <c r="AG58" s="183"/>
-      <c r="AH58" s="183"/>
-      <c r="AI58" s="184"/>
-      <c r="AJ58" s="182"/>
-      <c r="AK58" s="183"/>
-      <c r="AL58" s="183"/>
-      <c r="AM58" s="184"/>
-      <c r="AN58" s="182"/>
-      <c r="AO58" s="183"/>
-      <c r="AP58" s="183"/>
-      <c r="AQ58" s="184"/>
-    </row>
-    <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>5</v>
-      </c>
-      <c r="D59" s="182"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="184"/>
-      <c r="H59" s="182"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="183"/>
-      <c r="K59" s="184"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="183"/>
-      <c r="N59" s="183"/>
-      <c r="O59" s="184"/>
-      <c r="P59" s="226"/>
-      <c r="Q59" s="226"/>
-      <c r="R59" s="226"/>
-      <c r="S59" s="233"/>
-      <c r="T59" s="232"/>
-      <c r="U59" s="226"/>
-      <c r="V59" s="226"/>
-      <c r="W59" s="224">
-        <v>1</v>
-      </c>
-      <c r="X59" s="232"/>
-      <c r="Y59" s="226"/>
-      <c r="Z59" s="226"/>
-      <c r="AA59" s="233"/>
-      <c r="AB59" s="232"/>
-      <c r="AC59" s="226"/>
-      <c r="AD59" s="226"/>
-      <c r="AE59" s="226"/>
-      <c r="AF59" s="185">
-        <v>2</v>
-      </c>
-      <c r="AG59" s="186">
-        <v>2</v>
-      </c>
-      <c r="AH59" s="183"/>
-      <c r="AI59" s="184"/>
-      <c r="AJ59" s="182"/>
-      <c r="AK59" s="183"/>
-      <c r="AL59" s="183"/>
-      <c r="AM59" s="184"/>
-      <c r="AN59" s="182"/>
-      <c r="AO59" s="183"/>
-      <c r="AP59" s="183"/>
-      <c r="AQ59" s="184"/>
-    </row>
-    <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="182"/>
-      <c r="E60" s="183"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="182"/>
-      <c r="I60" s="183"/>
-      <c r="J60" s="183"/>
-      <c r="K60" s="184"/>
-      <c r="L60" s="182"/>
-      <c r="M60" s="183"/>
-      <c r="N60" s="183"/>
-      <c r="O60" s="184"/>
-      <c r="P60" s="182"/>
-      <c r="Q60" s="183"/>
-      <c r="R60" s="183"/>
-      <c r="S60" s="184"/>
-      <c r="T60" s="182"/>
-      <c r="U60" s="183"/>
-      <c r="V60" s="183"/>
-      <c r="W60" s="184"/>
-      <c r="X60" s="182"/>
-      <c r="Y60" s="183"/>
-      <c r="Z60" s="183"/>
-      <c r="AA60" s="184"/>
-      <c r="AB60" s="182"/>
-      <c r="AC60" s="183"/>
-      <c r="AD60" s="183"/>
-      <c r="AE60" s="184"/>
-      <c r="AF60" s="182"/>
-      <c r="AG60" s="183"/>
-      <c r="AH60" s="183"/>
-      <c r="AI60" s="184"/>
-      <c r="AJ60" s="182"/>
-      <c r="AK60" s="183"/>
-      <c r="AL60" s="183"/>
-      <c r="AM60" s="184"/>
-      <c r="AN60" s="182"/>
-      <c r="AO60" s="183"/>
-      <c r="AP60" s="183"/>
-      <c r="AQ60" s="184"/>
-    </row>
-    <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1.5</v>
-      </c>
-      <c r="D61" s="182"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="184"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="183"/>
-      <c r="J61" s="183"/>
-      <c r="K61" s="184"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="183"/>
-      <c r="N61" s="183"/>
-      <c r="O61" s="184"/>
-      <c r="P61" s="182"/>
-      <c r="Q61" s="183"/>
-      <c r="R61" s="183"/>
-      <c r="S61" s="184"/>
-      <c r="T61" s="182"/>
-      <c r="U61" s="183"/>
-      <c r="V61" s="183"/>
-      <c r="W61" s="184"/>
-      <c r="X61" s="182"/>
-      <c r="Y61" s="183"/>
-      <c r="Z61" s="183"/>
-      <c r="AA61" s="184"/>
-      <c r="AB61" s="182"/>
-      <c r="AC61" s="183"/>
-      <c r="AD61" s="183"/>
-      <c r="AE61" s="184"/>
-      <c r="AF61" s="226"/>
-      <c r="AG61" s="226"/>
-      <c r="AH61" s="226"/>
-      <c r="AI61" s="186">
-        <v>1.5</v>
-      </c>
-      <c r="AJ61" s="182"/>
-      <c r="AK61" s="183"/>
-      <c r="AL61" s="183"/>
-      <c r="AM61" s="184"/>
-      <c r="AN61" s="182"/>
-      <c r="AO61" s="183"/>
-      <c r="AP61" s="183"/>
-      <c r="AQ61" s="184"/>
-    </row>
-    <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="183"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="184"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="183"/>
-      <c r="J62" s="183"/>
-      <c r="K62" s="184"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="183"/>
-      <c r="N62" s="183"/>
-      <c r="O62" s="184"/>
-      <c r="P62" s="182"/>
-      <c r="Q62" s="183"/>
-      <c r="R62" s="183"/>
-      <c r="S62" s="184"/>
-      <c r="T62" s="182"/>
-      <c r="U62" s="183"/>
-      <c r="V62" s="183"/>
-      <c r="W62" s="184"/>
-      <c r="X62" s="182"/>
-      <c r="Y62" s="183"/>
-      <c r="Z62" s="183"/>
-      <c r="AA62" s="184"/>
-      <c r="AB62" s="182"/>
-      <c r="AC62" s="183"/>
-      <c r="AD62" s="183"/>
-      <c r="AE62" s="184"/>
-      <c r="AF62" s="182"/>
-      <c r="AG62" s="183"/>
-      <c r="AH62" s="183"/>
-      <c r="AI62" s="184"/>
-      <c r="AJ62" s="182"/>
-      <c r="AK62" s="183"/>
-      <c r="AL62" s="183"/>
-      <c r="AM62" s="184"/>
-      <c r="AN62" s="182"/>
-      <c r="AO62" s="183"/>
-      <c r="AP62" s="183"/>
-      <c r="AQ62" s="184"/>
-    </row>
-    <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1.5</v>
-      </c>
-      <c r="D63" s="182"/>
-      <c r="E63" s="183"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="182"/>
-      <c r="I63" s="183"/>
-      <c r="J63" s="183"/>
-      <c r="K63" s="184"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="183"/>
-      <c r="N63" s="183"/>
-      <c r="O63" s="184"/>
-      <c r="P63" s="182"/>
-      <c r="Q63" s="183"/>
-      <c r="R63" s="183"/>
-      <c r="S63" s="184"/>
-      <c r="T63" s="182"/>
-      <c r="U63" s="183"/>
-      <c r="V63" s="183"/>
-      <c r="W63" s="184"/>
-      <c r="X63" s="182"/>
-      <c r="Y63" s="183"/>
-      <c r="Z63" s="183"/>
-      <c r="AA63" s="184"/>
-      <c r="AB63" s="182"/>
-      <c r="AC63" s="183"/>
-      <c r="AD63" s="183"/>
-      <c r="AE63" s="184"/>
-      <c r="AF63" s="182"/>
-      <c r="AG63" s="183"/>
-      <c r="AH63" s="183"/>
-      <c r="AI63" s="184"/>
-      <c r="AJ63" s="226"/>
-      <c r="AK63" s="226"/>
-      <c r="AL63" s="197"/>
-      <c r="AM63" s="226"/>
-      <c r="AN63" s="182"/>
-      <c r="AO63" s="183"/>
-      <c r="AP63" s="186">
-        <v>1</v>
-      </c>
-      <c r="AQ63" s="193">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="222">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="182"/>
-      <c r="E64" s="183"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="183"/>
-      <c r="J64" s="183"/>
-      <c r="K64" s="184"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="183"/>
-      <c r="N64" s="183"/>
-      <c r="O64" s="184"/>
-      <c r="P64" s="182"/>
-      <c r="Q64" s="183"/>
-      <c r="R64" s="183"/>
-      <c r="S64" s="184"/>
-      <c r="T64" s="182"/>
-      <c r="U64" s="183"/>
-      <c r="V64" s="183"/>
-      <c r="W64" s="184"/>
-      <c r="X64" s="182"/>
-      <c r="Y64" s="183"/>
-      <c r="Z64" s="183"/>
-      <c r="AA64" s="184"/>
-      <c r="AB64" s="182"/>
-      <c r="AC64" s="183"/>
-      <c r="AD64" s="183"/>
-      <c r="AE64" s="184"/>
-      <c r="AF64" s="182"/>
-      <c r="AG64" s="183"/>
-      <c r="AH64" s="183"/>
-      <c r="AI64" s="184"/>
-      <c r="AJ64" s="182"/>
-      <c r="AK64" s="183"/>
-      <c r="AL64" s="183"/>
-      <c r="AM64" s="184"/>
-      <c r="AN64" s="182"/>
-      <c r="AO64" s="183"/>
-      <c r="AP64" s="183"/>
-      <c r="AQ64" s="184"/>
-    </row>
-    <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>1.5</v>
-      </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="184"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="183"/>
-      <c r="J65" s="183"/>
-      <c r="K65" s="184"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="183"/>
-      <c r="N65" s="183"/>
-      <c r="O65" s="184"/>
-      <c r="P65" s="182"/>
-      <c r="Q65" s="183"/>
-      <c r="R65" s="183"/>
-      <c r="S65" s="184"/>
-      <c r="T65" s="182"/>
-      <c r="U65" s="183"/>
-      <c r="V65" s="183"/>
-      <c r="W65" s="184"/>
-      <c r="X65" s="182"/>
-      <c r="Y65" s="183"/>
-      <c r="Z65" s="183"/>
-      <c r="AA65" s="184"/>
-      <c r="AB65" s="182"/>
-      <c r="AC65" s="183"/>
-      <c r="AD65" s="183"/>
-      <c r="AE65" s="184"/>
-      <c r="AF65" s="182"/>
-      <c r="AG65" s="183"/>
-      <c r="AH65" s="183"/>
-      <c r="AI65" s="184"/>
-      <c r="AJ65" s="182"/>
-      <c r="AK65" s="183"/>
-      <c r="AL65" s="183"/>
-      <c r="AM65" s="236"/>
-      <c r="AN65" s="185">
-        <v>0.5</v>
-      </c>
-      <c r="AO65" s="186">
-        <v>1</v>
-      </c>
-      <c r="AP65" s="183"/>
-      <c r="AQ65" s="184"/>
-    </row>
-    <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="182"/>
-      <c r="E66" s="183"/>
-      <c r="F66" s="183"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="183"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="183"/>
-      <c r="N66" s="183"/>
-      <c r="O66" s="184"/>
-      <c r="P66" s="182"/>
-      <c r="Q66" s="183"/>
-      <c r="R66" s="183"/>
-      <c r="S66" s="184"/>
-      <c r="T66" s="182"/>
-      <c r="U66" s="183"/>
-      <c r="V66" s="183"/>
-      <c r="W66" s="184"/>
-      <c r="X66" s="182"/>
-      <c r="Y66" s="183"/>
-      <c r="Z66" s="183"/>
-      <c r="AA66" s="184"/>
-      <c r="AB66" s="182"/>
-      <c r="AC66" s="183"/>
-      <c r="AD66" s="183"/>
-      <c r="AE66" s="184"/>
-      <c r="AF66" s="182"/>
-      <c r="AG66" s="183"/>
-      <c r="AH66" s="183"/>
-      <c r="AI66" s="184"/>
-      <c r="AJ66" s="182"/>
-      <c r="AK66" s="183"/>
-      <c r="AL66" s="183"/>
-      <c r="AM66" s="184"/>
-      <c r="AN66" s="182"/>
-      <c r="AO66" s="183"/>
-      <c r="AP66" s="183"/>
-      <c r="AQ66" s="184"/>
-    </row>
-    <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>5</v>
-      </c>
-      <c r="D67" s="182"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="H67" s="182"/>
-      <c r="I67" s="183"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="L67" s="182"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="183"/>
-      <c r="O67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="P67" s="182"/>
-      <c r="Q67" s="183"/>
-      <c r="R67" s="183"/>
-      <c r="S67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="T67" s="182"/>
-      <c r="U67" s="183"/>
-      <c r="V67" s="183"/>
-      <c r="W67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="X67" s="182"/>
-      <c r="Y67" s="183"/>
-      <c r="Z67" s="183"/>
-      <c r="AA67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="AB67" s="182"/>
-      <c r="AC67" s="183"/>
-      <c r="AD67" s="183"/>
-      <c r="AE67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="AF67" s="182"/>
-      <c r="AG67" s="183"/>
-      <c r="AH67" s="183"/>
-      <c r="AI67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="AJ67" s="182"/>
-      <c r="AK67" s="183"/>
-      <c r="AL67" s="183"/>
-      <c r="AM67" s="193">
-        <v>0.5</v>
-      </c>
-      <c r="AN67" s="182"/>
-      <c r="AO67" s="183"/>
-      <c r="AP67" s="183"/>
-      <c r="AQ67" s="193">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="222">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="182"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="182"/>
-      <c r="I68" s="183"/>
-      <c r="J68" s="183"/>
-      <c r="K68" s="184"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="183"/>
-      <c r="N68" s="183"/>
-      <c r="O68" s="184"/>
-      <c r="P68" s="182"/>
-      <c r="Q68" s="183"/>
-      <c r="R68" s="183"/>
-      <c r="S68" s="184"/>
-      <c r="T68" s="182"/>
-      <c r="U68" s="183"/>
-      <c r="V68" s="183"/>
-      <c r="W68" s="184"/>
-      <c r="X68" s="182"/>
-      <c r="Y68" s="183"/>
-      <c r="Z68" s="183"/>
-      <c r="AA68" s="184"/>
-      <c r="AB68" s="182"/>
-      <c r="AC68" s="183"/>
-      <c r="AD68" s="183"/>
-      <c r="AE68" s="184"/>
-      <c r="AF68" s="182"/>
-      <c r="AG68" s="183"/>
-      <c r="AH68" s="183"/>
-      <c r="AI68" s="184"/>
-      <c r="AJ68" s="182"/>
-      <c r="AK68" s="183"/>
-      <c r="AL68" s="183"/>
-      <c r="AM68" s="184"/>
-      <c r="AN68" s="182"/>
-      <c r="AO68" s="183"/>
-      <c r="AP68" s="183"/>
-      <c r="AQ68" s="184"/>
-    </row>
-    <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>3</v>
-      </c>
-      <c r="D69" s="182"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="184"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="183"/>
-      <c r="J69" s="183"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="182"/>
-      <c r="M69" s="183"/>
-      <c r="N69" s="183"/>
-      <c r="O69" s="184"/>
-      <c r="P69" s="182"/>
-      <c r="Q69" s="183"/>
-      <c r="R69" s="183"/>
-      <c r="S69" s="184"/>
-      <c r="T69" s="182"/>
-      <c r="U69" s="183"/>
-      <c r="V69" s="183"/>
-      <c r="W69" s="184"/>
-      <c r="X69" s="182"/>
-      <c r="Y69" s="183"/>
-      <c r="Z69" s="183"/>
-      <c r="AA69" s="184"/>
-      <c r="AB69" s="182"/>
-      <c r="AC69" s="183"/>
-      <c r="AD69" s="183"/>
-      <c r="AE69" s="184"/>
-      <c r="AF69" s="182"/>
-      <c r="AG69" s="183"/>
-      <c r="AH69" s="183"/>
-      <c r="AI69" s="184"/>
-      <c r="AJ69" s="182"/>
-      <c r="AK69" s="183"/>
-      <c r="AL69" s="183"/>
-      <c r="AM69" s="184"/>
-      <c r="AN69" s="197"/>
-      <c r="AO69" s="186">
-        <v>1</v>
-      </c>
-      <c r="AP69" s="186">
-        <v>1</v>
-      </c>
-      <c r="AQ69" s="193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="223">
-        <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="182"/>
-      <c r="E70" s="183"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="184"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="183"/>
-      <c r="K70" s="184"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="183"/>
-      <c r="N70" s="183"/>
-      <c r="O70" s="184"/>
-      <c r="P70" s="182"/>
-      <c r="Q70" s="183"/>
-      <c r="R70" s="183"/>
-      <c r="S70" s="184"/>
-      <c r="T70" s="182"/>
-      <c r="U70" s="183"/>
-      <c r="V70" s="183"/>
-      <c r="W70" s="184"/>
-      <c r="X70" s="182"/>
-      <c r="Y70" s="183"/>
-      <c r="Z70" s="183"/>
-      <c r="AA70" s="184"/>
-      <c r="AB70" s="182"/>
-      <c r="AC70" s="183"/>
-      <c r="AD70" s="183"/>
-      <c r="AE70" s="184"/>
-      <c r="AF70" s="182"/>
-      <c r="AG70" s="183"/>
-      <c r="AH70" s="183"/>
-      <c r="AI70" s="184"/>
-      <c r="AJ70" s="182"/>
-      <c r="AK70" s="183"/>
-      <c r="AL70" s="183"/>
-      <c r="AM70" s="184"/>
-      <c r="AN70" s="182"/>
-      <c r="AO70" s="183"/>
-      <c r="AP70" s="183"/>
-      <c r="AQ70" s="184"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="153"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="155"/>
+      <c r="T70" s="153"/>
+      <c r="U70" s="154"/>
+      <c r="V70" s="154"/>
+      <c r="W70" s="155"/>
+      <c r="X70" s="153"/>
+      <c r="Y70" s="154"/>
+      <c r="Z70" s="154"/>
+      <c r="AA70" s="155"/>
+      <c r="AB70" s="153"/>
+      <c r="AC70" s="154"/>
+      <c r="AD70" s="154"/>
+      <c r="AE70" s="155"/>
+      <c r="AF70" s="153"/>
+      <c r="AG70" s="154"/>
+      <c r="AH70" s="154"/>
+      <c r="AI70" s="155"/>
+      <c r="AJ70" s="153"/>
+      <c r="AK70" s="154"/>
+      <c r="AL70" s="154"/>
+      <c r="AM70" s="155"/>
+      <c r="AN70" s="153"/>
+      <c r="AO70" s="154"/>
+      <c r="AP70" s="154"/>
+      <c r="AQ70" s="155"/>
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="223">
+      <c r="C71" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D71" s="182"/>
-      <c r="E71" s="183"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="193">
+      <c r="D71" s="153"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="164">
         <v>1</v>
       </c>
-      <c r="H71" s="182"/>
-      <c r="I71" s="183"/>
-      <c r="J71" s="183"/>
-      <c r="K71" s="184"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="183"/>
-      <c r="N71" s="183"/>
-      <c r="O71" s="184"/>
-      <c r="P71" s="182"/>
-      <c r="Q71" s="183"/>
-      <c r="R71" s="183"/>
-      <c r="S71" s="184"/>
-      <c r="T71" s="182"/>
-      <c r="U71" s="183"/>
-      <c r="V71" s="183"/>
-      <c r="W71" s="184"/>
-      <c r="X71" s="182"/>
-      <c r="Y71" s="183"/>
-      <c r="Z71" s="183"/>
-      <c r="AA71" s="184"/>
-      <c r="AB71" s="182"/>
-      <c r="AC71" s="183"/>
-      <c r="AD71" s="183"/>
-      <c r="AE71" s="184"/>
-      <c r="AF71" s="182"/>
-      <c r="AG71" s="183"/>
-      <c r="AH71" s="183"/>
-      <c r="AI71" s="184"/>
-      <c r="AJ71" s="182"/>
-      <c r="AK71" s="183"/>
-      <c r="AL71" s="183"/>
-      <c r="AM71" s="184"/>
-      <c r="AN71" s="182"/>
-      <c r="AO71" s="183"/>
-      <c r="AP71" s="183"/>
-      <c r="AQ71" s="184"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="154"/>
+      <c r="N71" s="154"/>
+      <c r="O71" s="155"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="154"/>
+      <c r="R71" s="154"/>
+      <c r="S71" s="155"/>
+      <c r="T71" s="153"/>
+      <c r="U71" s="154"/>
+      <c r="V71" s="154"/>
+      <c r="W71" s="155"/>
+      <c r="X71" s="153"/>
+      <c r="Y71" s="154"/>
+      <c r="Z71" s="154"/>
+      <c r="AA71" s="155"/>
+      <c r="AB71" s="153"/>
+      <c r="AC71" s="154"/>
+      <c r="AD71" s="154"/>
+      <c r="AE71" s="155"/>
+      <c r="AF71" s="153"/>
+      <c r="AG71" s="154"/>
+      <c r="AH71" s="154"/>
+      <c r="AI71" s="155"/>
+      <c r="AJ71" s="153"/>
+      <c r="AK71" s="154"/>
+      <c r="AL71" s="154"/>
+      <c r="AM71" s="155"/>
+      <c r="AN71" s="153"/>
+      <c r="AO71" s="154"/>
+      <c r="AP71" s="154"/>
+      <c r="AQ71" s="155"/>
     </row>
     <row r="72" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="221">
+      <c r="B72" s="211"/>
+      <c r="C72" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
       </c>
-      <c r="D72" s="194"/>
-      <c r="E72" s="195"/>
-      <c r="F72" s="195"/>
-      <c r="G72" s="228">
+      <c r="D72" s="165"/>
+      <c r="E72" s="166"/>
+      <c r="F72" s="166"/>
+      <c r="G72" s="195">
         <v>1</v>
       </c>
-      <c r="H72" s="194"/>
-      <c r="I72" s="195"/>
-      <c r="J72" s="195"/>
-      <c r="K72" s="196"/>
-      <c r="L72" s="194"/>
-      <c r="M72" s="195"/>
-      <c r="N72" s="195"/>
-      <c r="O72" s="196"/>
-      <c r="P72" s="194"/>
-      <c r="Q72" s="195"/>
-      <c r="R72" s="195"/>
-      <c r="S72" s="196"/>
-      <c r="T72" s="194"/>
-      <c r="U72" s="195"/>
-      <c r="V72" s="195"/>
-      <c r="W72" s="196"/>
-      <c r="X72" s="194"/>
-      <c r="Y72" s="195"/>
-      <c r="Z72" s="195"/>
-      <c r="AA72" s="196"/>
-      <c r="AB72" s="194"/>
-      <c r="AC72" s="195"/>
-      <c r="AD72" s="195"/>
-      <c r="AE72" s="196"/>
-      <c r="AF72" s="194"/>
-      <c r="AG72" s="195"/>
-      <c r="AH72" s="195"/>
-      <c r="AI72" s="196"/>
-      <c r="AJ72" s="194"/>
-      <c r="AK72" s="195"/>
-      <c r="AL72" s="195"/>
-      <c r="AM72" s="196"/>
-      <c r="AN72" s="194"/>
-      <c r="AO72" s="195"/>
-      <c r="AP72" s="195"/>
-      <c r="AQ72" s="196"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="166"/>
+      <c r="N72" s="166"/>
+      <c r="O72" s="167"/>
+      <c r="P72" s="165"/>
+      <c r="Q72" s="166"/>
+      <c r="R72" s="166"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="165"/>
+      <c r="U72" s="166"/>
+      <c r="V72" s="166"/>
+      <c r="W72" s="167"/>
+      <c r="X72" s="165"/>
+      <c r="Y72" s="166"/>
+      <c r="Z72" s="166"/>
+      <c r="AA72" s="167"/>
+      <c r="AB72" s="165"/>
+      <c r="AC72" s="166"/>
+      <c r="AD72" s="166"/>
+      <c r="AE72" s="167"/>
+      <c r="AF72" s="165"/>
+      <c r="AG72" s="166"/>
+      <c r="AH72" s="166"/>
+      <c r="AI72" s="167"/>
+      <c r="AJ72" s="165"/>
+      <c r="AK72" s="166"/>
+      <c r="AL72" s="166"/>
+      <c r="AM72" s="167"/>
+      <c r="AN72" s="165"/>
+      <c r="AO72" s="166"/>
+      <c r="AP72" s="166"/>
+      <c r="AQ72" s="167"/>
     </row>
     <row r="73" spans="1:43" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="131">
+      <c r="C73" s="107">
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="208">
-        <f t="shared" ref="D73" si="0">SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
+      <c r="D73" s="210">
+        <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="208"/>
-      <c r="F73" s="208"/>
-      <c r="G73" s="208"/>
-      <c r="H73" s="208">
-        <f t="shared" ref="H73" si="1">SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
+      <c r="E73" s="210"/>
+      <c r="F73" s="210"/>
+      <c r="G73" s="210"/>
+      <c r="H73" s="210">
+        <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="208"/>
-      <c r="J73" s="208"/>
-      <c r="K73" s="208"/>
-      <c r="L73" s="208">
-        <f t="shared" ref="L73" si="2">SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
+      <c r="I73" s="210"/>
+      <c r="J73" s="210"/>
+      <c r="K73" s="210"/>
+      <c r="L73" s="210">
+        <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="208"/>
-      <c r="N73" s="208"/>
-      <c r="O73" s="208"/>
-      <c r="P73" s="208">
-        <f t="shared" ref="P73" si="3">SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
+      <c r="M73" s="210"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210">
+        <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="208"/>
-      <c r="S73" s="208"/>
-      <c r="T73" s="208">
+      <c r="Q73" s="210"/>
+      <c r="R73" s="210"/>
+      <c r="S73" s="210"/>
+      <c r="T73" s="210">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="208"/>
-      <c r="V73" s="208"/>
-      <c r="W73" s="208"/>
-      <c r="X73" s="208">
-        <f t="shared" ref="X73" si="4">SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
+      <c r="U73" s="210"/>
+      <c r="V73" s="210"/>
+      <c r="W73" s="210"/>
+      <c r="X73" s="210">
+        <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="208"/>
-      <c r="Z73" s="208"/>
-      <c r="AA73" s="208"/>
-      <c r="AB73" s="208">
-        <f t="shared" ref="AB73" si="5">SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
+      <c r="Y73" s="210"/>
+      <c r="Z73" s="210"/>
+      <c r="AA73" s="210"/>
+      <c r="AB73" s="210">
+        <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="208"/>
-      <c r="AD73" s="208"/>
-      <c r="AE73" s="208"/>
-      <c r="AF73" s="208">
-        <f t="shared" ref="AF73" si="6">SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
+      <c r="AC73" s="210"/>
+      <c r="AD73" s="210"/>
+      <c r="AE73" s="210"/>
+      <c r="AF73" s="210">
+        <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="208"/>
-      <c r="AH73" s="208"/>
-      <c r="AI73" s="208"/>
-      <c r="AJ73" s="208">
-        <f t="shared" ref="AJ73" si="7">SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
+      <c r="AG73" s="210"/>
+      <c r="AH73" s="210"/>
+      <c r="AI73" s="210"/>
+      <c r="AJ73" s="210">
+        <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="208"/>
-      <c r="AL73" s="208"/>
-      <c r="AM73" s="208"/>
-      <c r="AN73" s="208">
-        <f t="shared" ref="AN73" si="8">SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
+      <c r="AK73" s="210"/>
+      <c r="AL73" s="210"/>
+      <c r="AM73" s="210"/>
+      <c r="AN73" s="210">
+        <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="208"/>
-      <c r="AP73" s="208"/>
-      <c r="AQ73" s="208"/>
+      <c r="AO73" s="210"/>
+      <c r="AP73" s="210"/>
+      <c r="AQ73" s="210"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="225">
+      <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D74" s="227">
+        <v>16.5</v>
+      </c>
+      <c r="D74" s="209">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="227">
+      <c r="E74" s="209"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
+        <v>8</v>
+      </c>
+      <c r="I74" s="209"/>
+      <c r="J74" s="209"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="209">
+        <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="227"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="227">
-        <f t="shared" ref="L74" si="9">SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
+      <c r="M74" s="209"/>
+      <c r="N74" s="209"/>
+      <c r="O74" s="209"/>
+      <c r="P74" s="209">
+        <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>0</v>
       </c>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="227"/>
-      <c r="P74" s="227">
-        <f t="shared" ref="P74" si="10">SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
+      <c r="Q74" s="209"/>
+      <c r="R74" s="209"/>
+      <c r="S74" s="209"/>
+      <c r="T74" s="209">
+        <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>0</v>
       </c>
-      <c r="Q74" s="227"/>
-      <c r="R74" s="227"/>
-      <c r="S74" s="227"/>
-      <c r="T74" s="227">
-        <f t="shared" ref="T74" si="11">SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
+      <c r="U74" s="209"/>
+      <c r="V74" s="209"/>
+      <c r="W74" s="209"/>
+      <c r="X74" s="209">
+        <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>0</v>
       </c>
-      <c r="U74" s="227"/>
-      <c r="V74" s="227"/>
-      <c r="W74" s="227"/>
-      <c r="X74" s="227">
-        <f t="shared" ref="X74" si="12">SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
+      <c r="Y74" s="209"/>
+      <c r="Z74" s="209"/>
+      <c r="AA74" s="209"/>
+      <c r="AB74" s="209">
+        <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>0</v>
       </c>
-      <c r="Y74" s="227"/>
-      <c r="Z74" s="227"/>
-      <c r="AA74" s="227"/>
-      <c r="AB74" s="227">
-        <f t="shared" ref="AB74" si="13">SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
+      <c r="AC74" s="209"/>
+      <c r="AD74" s="209"/>
+      <c r="AE74" s="209"/>
+      <c r="AF74" s="209">
+        <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="227"/>
-      <c r="AD74" s="227"/>
-      <c r="AE74" s="227"/>
-      <c r="AF74" s="227">
-        <f t="shared" ref="AF74" si="14">SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
+      <c r="AG74" s="209"/>
+      <c r="AH74" s="209"/>
+      <c r="AI74" s="209"/>
+      <c r="AJ74" s="209">
+        <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="227"/>
-      <c r="AH74" s="227"/>
-      <c r="AI74" s="227"/>
-      <c r="AJ74" s="227">
-        <f t="shared" ref="AJ74" si="15">SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
+      <c r="AK74" s="209"/>
+      <c r="AL74" s="209"/>
+      <c r="AM74" s="209"/>
+      <c r="AN74" s="209">
+        <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="227"/>
-      <c r="AL74" s="227"/>
-      <c r="AM74" s="227"/>
-      <c r="AN74" s="227">
-        <f t="shared" ref="AN74" si="16">SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
-        <v>0</v>
-      </c>
-      <c r="AO74" s="227"/>
-      <c r="AP74" s="227"/>
-      <c r="AQ74" s="227"/>
+      <c r="AO74" s="209"/>
+      <c r="AP74" s="209"/>
+      <c r="AQ74" s="209"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
-      <c r="D75" s="200" t="s">
+      <c r="D75" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="201" t="s">
+      <c r="E75" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="203" t="s">
+      <c r="G75" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="201" t="s">
+      <c r="H75" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="204"/>
-      <c r="K75" s="201" t="s">
+      <c r="J75" s="174"/>
+      <c r="K75" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="M75" s="205"/>
-      <c r="Q75" s="206" t="s">
+      <c r="M75" s="175"/>
+      <c r="Q75" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="R75" s="207"/>
-      <c r="S75" s="207"/>
-      <c r="T75" s="207"/>
-      <c r="U75" s="207"/>
-      <c r="V75" s="207"/>
-      <c r="W75" s="207"/>
-      <c r="X75" s="207"/>
-      <c r="Y75" s="207"/>
-      <c r="Z75" s="207"/>
-      <c r="AA75" s="207"/>
-      <c r="AB75" s="207"/>
-      <c r="AC75" s="207"/>
-      <c r="AD75" s="207"/>
-      <c r="AE75" s="207"/>
-      <c r="AF75" s="207"/>
-      <c r="AG75" s="207"/>
-      <c r="AH75" s="207"/>
-      <c r="AI75" s="207"/>
-      <c r="AJ75" s="207"/>
-      <c r="AK75" s="207"/>
-      <c r="AL75" s="207"/>
-      <c r="AM75" s="207"/>
-      <c r="AN75" s="207"/>
-      <c r="AO75" s="207"/>
-      <c r="AP75" s="207"/>
-      <c r="AQ75" s="207"/>
+      <c r="R75" s="177"/>
+      <c r="S75" s="177"/>
+      <c r="T75" s="177"/>
+      <c r="U75" s="177"/>
+      <c r="V75" s="177"/>
+      <c r="W75" s="177"/>
+      <c r="X75" s="177"/>
+      <c r="Y75" s="177"/>
+      <c r="Z75" s="177"/>
+      <c r="AA75" s="177"/>
+      <c r="AB75" s="177"/>
+      <c r="AC75" s="177"/>
+      <c r="AD75" s="177"/>
+      <c r="AE75" s="177"/>
+      <c r="AF75" s="177"/>
+      <c r="AG75" s="177"/>
+      <c r="AH75" s="177"/>
+      <c r="AI75" s="177"/>
+      <c r="AJ75" s="177"/>
+      <c r="AK75" s="177"/>
+      <c r="AL75" s="177"/>
+      <c r="AM75" s="177"/>
+      <c r="AN75" s="177"/>
+      <c r="AO75" s="177"/>
+      <c r="AP75" s="177"/>
+      <c r="AQ75" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -7133,7 +7211,7 @@
       <formula>LEFT(D$1, 3)&lt;&gt;"Tag"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:U24 W24:AQ24 E52:AQ52 J75 D49:E49 G49:AQ49 D3:AQ23 D25:AQ48 D50:AQ51 D53:AQ54 D56:AQ72 N55:AQ55 D55:L55">
+  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ54 D55:L55 N55:AQ55 D56:AQ72 J75">
     <cfRule type="containsText" dxfId="4" priority="46" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(D3))))</formula>
     </cfRule>
@@ -7172,66 +7250,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="95" t="s">
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="95" t="s">
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="95" t="s">
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="95" t="s">
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="95" t="s">
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="95" t="s">
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="95" t="s">
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="95" t="s">
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="95" t="s">
+      <c r="AK1" s="232"/>
+      <c r="AL1" s="232"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="97"/>
+      <c r="AO1" s="232"/>
+      <c r="AP1" s="232"/>
+      <c r="AQ1" s="233"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7239,78 +7317,78 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="234">
         <v>45356</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="92">
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="234">
         <v>45357</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="92">
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="234">
         <v>45358</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="92">
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="234">
         <v>45359</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="92">
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="234">
         <v>45363</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="92">
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="234">
         <v>45364</v>
       </c>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="92">
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="234">
         <v>45365</v>
       </c>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="92">
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="234">
         <v>45366</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="92">
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="234">
         <v>45370</v>
       </c>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="92">
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="234">
         <v>45371</v>
       </c>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="94"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="235"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="208" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="87" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="58"/>
@@ -7355,11 +7433,11 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="93"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="88" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="65"/>
@@ -7404,21 +7482,21 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="227" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="90" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="89" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="50"/>
@@ -7459,14 +7537,14 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="97" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="51"/>
@@ -7510,17 +7588,17 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="229" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D7" s="49"/>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="90" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="52"/>
@@ -7563,15 +7641,15 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="109"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
       <c r="D8" s="54"/>
-      <c r="E8" s="121">
+      <c r="E8" s="98">
         <v>1</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="98" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="56"/>
@@ -7616,7 +7694,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="207" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7626,7 +7704,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="41"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="91" t="s">
         <v>66</v>
       </c>
       <c r="I9" s="40"/>
@@ -7667,7 +7745,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="87"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7714,7 +7792,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="207" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12">
@@ -7724,7 +7802,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="32"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="115">
+      <c r="H11" s="92">
         <v>1</v>
       </c>
       <c r="I11" s="32"/>
@@ -7765,7 +7843,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="87"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7812,7 +7890,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="207" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12">
@@ -7823,7 +7901,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="15"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="117">
+      <c r="I13" s="94">
         <v>1</v>
       </c>
       <c r="J13" s="14"/>
@@ -7863,7 +7941,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="87"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -7910,7 +7988,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="207" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="12">
@@ -7921,7 +7999,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="15"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="123">
+      <c r="I15" s="100">
         <v>1</v>
       </c>
       <c r="J15" s="32"/>
@@ -7961,7 +8039,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="87"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8008,7 +8086,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="207" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8022,7 +8100,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="115">
+      <c r="L17" s="92">
         <v>2</v>
       </c>
       <c r="M17" s="32"/>
@@ -8059,7 +8137,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8108,7 +8186,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8123,7 +8201,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="10"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="124">
+      <c r="M19" s="101">
         <v>2</v>
       </c>
       <c r="N19" s="35"/>
@@ -8159,7 +8237,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="93"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8208,7 +8286,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="228" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="7">
@@ -8226,10 +8304,10 @@
       <c r="M21" s="35"/>
       <c r="N21" s="9"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="125">
+      <c r="P21" s="102">
         <v>2</v>
       </c>
-      <c r="Q21" s="124">
+      <c r="Q21" s="101">
         <v>2</v>
       </c>
       <c r="R21" s="9"/>
@@ -8261,7 +8339,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8308,7 +8386,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="224" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="12">
@@ -8328,7 +8406,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="117">
+      <c r="R23" s="94">
         <v>2</v>
       </c>
       <c r="S23" s="15"/>
@@ -8359,7 +8437,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8405,7 +8483,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="222" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="12">
@@ -8426,13 +8504,13 @@
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="118" t="s">
+      <c r="S25" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="T25" s="115">
+      <c r="T25" s="92">
         <v>2</v>
       </c>
-      <c r="U25" s="117" t="s">
+      <c r="U25" s="94" t="s">
         <v>66</v>
       </c>
       <c r="V25" s="32"/>
@@ -8460,7 +8538,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="102"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8507,7 +8585,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="222" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="12">
@@ -8530,10 +8608,10 @@
       <c r="R27" s="14"/>
       <c r="S27" s="15"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="117" t="s">
+      <c r="U27" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="V27" s="117" t="s">
+      <c r="V27" s="94" t="s">
         <v>66</v>
       </c>
       <c r="W27" s="15"/>
@@ -8560,7 +8638,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="101"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8607,7 +8685,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="222" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="12">
@@ -8631,10 +8709,10 @@
       <c r="S29" s="15"/>
       <c r="T29" s="13"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="117" t="s">
+      <c r="V29" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="W29" s="118" t="s">
+      <c r="W29" s="95" t="s">
         <v>66</v>
       </c>
       <c r="X29" s="13"/>
@@ -8660,7 +8738,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="101"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8707,7 +8785,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="222" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="12">
@@ -8733,13 +8811,13 @@
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="15"/>
-      <c r="X31" s="115">
+      <c r="X31" s="92">
         <v>2</v>
       </c>
-      <c r="Y31" s="117">
+      <c r="Y31" s="94">
         <v>2</v>
       </c>
-      <c r="Z31" s="117">
+      <c r="Z31" s="94">
         <v>1</v>
       </c>
       <c r="AA31" s="15"/>
@@ -8762,7 +8840,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="101"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8809,7 +8887,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="218" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="12">
@@ -8837,10 +8915,10 @@
       <c r="W33" s="15"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="14"/>
-      <c r="Z33" s="117">
+      <c r="Z33" s="94">
         <v>1</v>
       </c>
-      <c r="AA33" s="118">
+      <c r="AA33" s="95">
         <v>1</v>
       </c>
       <c r="AB33" s="31"/>
@@ -8862,7 +8940,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -8909,7 +8987,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="218" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="12">
@@ -8939,10 +9017,10 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="115">
+      <c r="AB35" s="92">
         <v>2</v>
       </c>
-      <c r="AC35" s="117">
+      <c r="AC35" s="94">
         <v>2</v>
       </c>
       <c r="AD35" s="14"/>
@@ -8962,7 +9040,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="87"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9009,7 +9087,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="218" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="12">
@@ -9041,10 +9119,10 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="117">
+      <c r="AD37" s="94">
         <v>2</v>
       </c>
-      <c r="AE37" s="118">
+      <c r="AE37" s="95">
         <v>2</v>
       </c>
       <c r="AF37" s="31"/>
@@ -9062,7 +9140,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9111,7 +9189,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7">
@@ -9145,7 +9223,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="10"/>
-      <c r="AF39" s="126">
+      <c r="AF39" s="103">
         <v>2</v>
       </c>
       <c r="AG39" s="35"/>
@@ -9162,7 +9240,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9209,7 +9287,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9244,10 +9322,10 @@
       <c r="AD41" s="14"/>
       <c r="AE41" s="15"/>
       <c r="AF41" s="31"/>
-      <c r="AG41" s="117">
+      <c r="AG41" s="94">
         <v>2</v>
       </c>
-      <c r="AH41" s="117">
+      <c r="AH41" s="94">
         <v>2</v>
       </c>
       <c r="AI41" s="33"/>
@@ -9262,7 +9340,7 @@
     </row>
     <row r="42" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="91"/>
+      <c r="B42" s="211"/>
       <c r="C42" s="17">
         <v>0</v>
       </c>
@@ -9311,7 +9389,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="219" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9349,10 +9427,10 @@
       <c r="AG43" s="9"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="10"/>
-      <c r="AJ43" s="126">
+      <c r="AJ43" s="103">
         <v>2</v>
       </c>
-      <c r="AK43" s="127">
+      <c r="AK43" s="104">
         <v>2</v>
       </c>
       <c r="AL43" s="9"/>
@@ -9364,7 +9442,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="88"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9413,7 +9491,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="219" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9455,7 +9533,7 @@
       <c r="AK45" s="9"/>
       <c r="AL45" s="9"/>
       <c r="AM45" s="10"/>
-      <c r="AN45" s="126">
+      <c r="AN45" s="103">
         <v>1</v>
       </c>
       <c r="AO45" s="9"/>
@@ -9464,7 +9542,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9511,7 +9589,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="12">
@@ -9553,16 +9631,16 @@
       <c r="AK47" s="32"/>
       <c r="AL47" s="32"/>
       <c r="AM47" s="33"/>
-      <c r="AN47" s="115" t="s">
+      <c r="AN47" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="AO47" s="129"/>
+      <c r="AO47" s="106"/>
       <c r="AP47" s="32"/>
       <c r="AQ47" s="33"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="88"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9609,7 +9687,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="207" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="12">
@@ -9617,7 +9695,7 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="116">
+      <c r="F49" s="93">
         <v>1</v>
       </c>
       <c r="G49" s="33"/>
@@ -9660,13 +9738,13 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="88"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="122">
+      <c r="F50" s="99">
         <v>1</v>
       </c>
       <c r="G50" s="33"/>
@@ -9709,7 +9787,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="207" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9717,10 +9795,10 @@
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="117" t="s">
+      <c r="F51" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="118" t="s">
+      <c r="G51" s="95" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="31" t="s">
@@ -9766,15 +9844,14 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="88"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
-      <c r="D52" s="130"/>
-      <c r="E52" s="122" t="s">
+      <c r="E52" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="122">
+      <c r="F52" s="99">
         <v>1</v>
       </c>
       <c r="G52" s="33"/>
@@ -9817,7 +9894,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -9829,7 +9906,7 @@
       <c r="G53" s="33"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="117" t="s">
+      <c r="J53" s="94" t="s">
         <v>66</v>
       </c>
       <c r="K53" s="33"/>
@@ -9868,7 +9945,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="88"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -9915,7 +9992,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="207" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -9974,7 +10051,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10021,7 +10098,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="208" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10072,7 +10149,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10119,7 +10196,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="207" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10200,7 +10277,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="88"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10247,7 +10324,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="208" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10304,7 +10381,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="88"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10351,7 +10428,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="208" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10395,7 +10472,7 @@
       <c r="AK63" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AL63" s="129" t="s">
+      <c r="AL63" s="106" t="s">
         <v>54</v>
       </c>
       <c r="AM63" s="33" t="s">
@@ -10408,7 +10485,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="88"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10455,7 +10532,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="208" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10496,7 +10573,7 @@
       <c r="AJ65" s="13"/>
       <c r="AK65" s="14"/>
       <c r="AL65" s="14"/>
-      <c r="AM65" s="118">
+      <c r="AM65" s="95">
         <v>1</v>
       </c>
       <c r="AN65" s="31"/>
@@ -10506,7 +10583,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10553,77 +10630,77 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="131">
+      <c r="C67" s="107">
         <f>SUM(D67:AQ67)</f>
         <v>4</v>
       </c>
-      <c r="D67" s="132"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="134"/>
-      <c r="G67" s="135" t="s">
+      <c r="D67" s="108"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="H67" s="132"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="135" t="s">
+      <c r="H67" s="108"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="L67" s="132"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="136">
+      <c r="L67" s="108"/>
+      <c r="M67" s="109"/>
+      <c r="N67" s="109"/>
+      <c r="O67" s="112">
         <v>0.5</v>
       </c>
-      <c r="P67" s="132"/>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="136">
+      <c r="P67" s="108"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="109"/>
+      <c r="S67" s="112">
         <v>0.5</v>
       </c>
-      <c r="T67" s="132"/>
-      <c r="U67" s="133"/>
-      <c r="V67" s="133"/>
-      <c r="W67" s="136">
+      <c r="T67" s="108"/>
+      <c r="U67" s="109"/>
+      <c r="V67" s="109"/>
+      <c r="W67" s="112">
         <v>0.5</v>
       </c>
-      <c r="X67" s="137"/>
-      <c r="Y67" s="134"/>
-      <c r="Z67" s="134"/>
-      <c r="AA67" s="136">
+      <c r="X67" s="113"/>
+      <c r="Y67" s="110"/>
+      <c r="Z67" s="110"/>
+      <c r="AA67" s="112">
         <v>0.5</v>
       </c>
-      <c r="AB67" s="137"/>
-      <c r="AC67" s="134"/>
-      <c r="AD67" s="134"/>
-      <c r="AE67" s="136">
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="110"/>
+      <c r="AD67" s="110"/>
+      <c r="AE67" s="112">
         <v>0.5</v>
       </c>
-      <c r="AF67" s="137"/>
-      <c r="AG67" s="134"/>
-      <c r="AH67" s="134"/>
-      <c r="AI67" s="136">
+      <c r="AF67" s="113"/>
+      <c r="AG67" s="110"/>
+      <c r="AH67" s="110"/>
+      <c r="AI67" s="112">
         <v>0.5</v>
       </c>
-      <c r="AJ67" s="137"/>
-      <c r="AK67" s="134"/>
-      <c r="AL67" s="134"/>
-      <c r="AM67" s="136">
+      <c r="AJ67" s="113"/>
+      <c r="AK67" s="110"/>
+      <c r="AL67" s="110"/>
+      <c r="AM67" s="112">
         <v>0.5</v>
       </c>
-      <c r="AN67" s="137"/>
-      <c r="AO67" s="134"/>
-      <c r="AP67" s="134"/>
-      <c r="AQ67" s="136">
+      <c r="AN67" s="113"/>
+      <c r="AO67" s="110"/>
+      <c r="AP67" s="110"/>
+      <c r="AQ67" s="112">
         <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="88"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10670,7 +10747,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="208" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="12">
@@ -10718,14 +10795,14 @@
       <c r="AO69" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AP69" s="117" t="s">
+      <c r="AP69" s="94" t="s">
         <v>54</v>
       </c>
       <c r="AQ69" s="15"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="88"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10772,7 +10849,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="12">
@@ -10781,7 +10858,7 @@
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="128">
+      <c r="G71" s="105">
         <v>1</v>
       </c>
       <c r="H71" s="31"/>
@@ -10823,7 +10900,7 @@
     </row>
     <row r="72" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="91"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="17">
         <v>0</v>
       </c>
@@ -10868,75 +10945,75 @@
       <c r="AP72" s="19"/>
       <c r="AQ72" s="20"/>
     </row>
-    <row r="73" spans="1:43" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="90">
+      <c r="D73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90">
+      <c r="E73" s="237"/>
+      <c r="F73" s="237"/>
+      <c r="G73" s="237"/>
+      <c r="H73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90">
+      <c r="I73" s="237"/>
+      <c r="J73" s="237"/>
+      <c r="K73" s="237"/>
+      <c r="L73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90">
+      <c r="M73" s="237"/>
+      <c r="N73" s="237"/>
+      <c r="O73" s="237"/>
+      <c r="P73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90">
+      <c r="Q73" s="237"/>
+      <c r="R73" s="237"/>
+      <c r="S73" s="237"/>
+      <c r="T73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="90"/>
-      <c r="X73" s="90">
+      <c r="U73" s="237"/>
+      <c r="V73" s="237"/>
+      <c r="W73" s="237"/>
+      <c r="X73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="90"/>
-      <c r="Z73" s="90"/>
-      <c r="AA73" s="90"/>
-      <c r="AB73" s="90">
+      <c r="Y73" s="237"/>
+      <c r="Z73" s="237"/>
+      <c r="AA73" s="237"/>
+      <c r="AB73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="90"/>
-      <c r="AD73" s="90"/>
-      <c r="AE73" s="90"/>
-      <c r="AF73" s="90">
+      <c r="AC73" s="237"/>
+      <c r="AD73" s="237"/>
+      <c r="AE73" s="237"/>
+      <c r="AF73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="90"/>
-      <c r="AH73" s="90"/>
-      <c r="AI73" s="90"/>
-      <c r="AJ73" s="90">
+      <c r="AG73" s="237"/>
+      <c r="AH73" s="237"/>
+      <c r="AI73" s="237"/>
+      <c r="AJ73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="90"/>
-      <c r="AL73" s="90"/>
-      <c r="AM73" s="90"/>
-      <c r="AN73" s="90">
+      <c r="AK73" s="237"/>
+      <c r="AL73" s="237"/>
+      <c r="AM73" s="237"/>
+      <c r="AN73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="90"/>
-      <c r="AP73" s="90"/>
-      <c r="AQ73" s="90"/>
-    </row>
-    <row r="74" spans="1:43" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO73" s="237"/>
+      <c r="AP73" s="237"/>
+      <c r="AQ73" s="237"/>
+    </row>
+    <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>11</v>
       </c>
@@ -10944,66 +11021,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="238">
         <v>0</v>
       </c>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89">
+      <c r="E74" s="238"/>
+      <c r="F74" s="238"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="238">
         <v>0</v>
       </c>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="89">
+      <c r="I74" s="238"/>
+      <c r="J74" s="238"/>
+      <c r="K74" s="238"/>
+      <c r="L74" s="238">
         <v>0</v>
       </c>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89">
+      <c r="M74" s="238"/>
+      <c r="N74" s="238"/>
+      <c r="O74" s="238"/>
+      <c r="P74" s="238">
         <v>0</v>
       </c>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89">
+      <c r="Q74" s="238"/>
+      <c r="R74" s="238"/>
+      <c r="S74" s="238"/>
+      <c r="T74" s="238">
         <v>0</v>
       </c>
-      <c r="U74" s="89"/>
-      <c r="V74" s="89"/>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89">
+      <c r="U74" s="238"/>
+      <c r="V74" s="238"/>
+      <c r="W74" s="238"/>
+      <c r="X74" s="238">
         <v>0</v>
       </c>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="89"/>
-      <c r="AB74" s="89">
+      <c r="Y74" s="238"/>
+      <c r="Z74" s="238"/>
+      <c r="AA74" s="238"/>
+      <c r="AB74" s="238">
         <v>0</v>
       </c>
-      <c r="AC74" s="89"/>
-      <c r="AD74" s="89"/>
-      <c r="AE74" s="89"/>
-      <c r="AF74" s="89">
+      <c r="AC74" s="238"/>
+      <c r="AD74" s="238"/>
+      <c r="AE74" s="238"/>
+      <c r="AF74" s="238">
         <v>0</v>
       </c>
-      <c r="AG74" s="89"/>
-      <c r="AH74" s="89"/>
-      <c r="AI74" s="89"/>
-      <c r="AJ74" s="89">
+      <c r="AG74" s="238"/>
+      <c r="AH74" s="238"/>
+      <c r="AI74" s="238"/>
+      <c r="AJ74" s="238">
         <v>0</v>
       </c>
-      <c r="AK74" s="89"/>
-      <c r="AL74" s="89"/>
-      <c r="AM74" s="89"/>
-      <c r="AN74" s="89">
+      <c r="AK74" s="238"/>
+      <c r="AL74" s="238"/>
+      <c r="AM74" s="238"/>
+      <c r="AN74" s="238">
         <v>0</v>
       </c>
-      <c r="AO74" s="89"/>
-      <c r="AP74" s="89"/>
-      <c r="AQ74" s="89"/>
+      <c r="AO74" s="238"/>
+      <c r="AP74" s="238"/>
+      <c r="AQ74" s="238"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11080,11 +11157,6 @@
     <mergeCell ref="D73:G73"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
@@ -11092,11 +11164,11 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
@@ -11104,11 +11176,11 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -11116,6 +11188,11 @@
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
@@ -11138,7 +11215,7 @@
       <formula>LEFT(D$1, 3)&lt;&gt;"Tag"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 E52:AQ52 D53:AQ72 J75 D50:AQ51 D49:E49 G49:AQ49 D25:AQ48">
+  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ72 J75">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(D3))))</formula>
     </cfRule>

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD39AE40-D7BC-4C6A-9BAF-9A0C648EC451}"/>
+  <xr:revisionPtr revIDLastSave="718" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723281E2-AD3E-4B3B-B3B3-3983AA05A7B8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplan!$A$1:$AQ$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3123,10 +3124,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4082,7 +4083,7 @@
       <c r="B18" s="207"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="153"/>
       <c r="E18" s="154"/>
@@ -4092,7 +4093,9 @@
       <c r="I18" s="154"/>
       <c r="J18" s="154"/>
       <c r="K18" s="155"/>
-      <c r="L18" s="153"/>
+      <c r="L18" s="206">
+        <v>2</v>
+      </c>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="155"/>
@@ -4184,7 +4187,7 @@
       <c r="B20" s="220"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="153"/>
       <c r="E20" s="154"/>
@@ -4195,7 +4198,9 @@
       <c r="J20" s="154"/>
       <c r="K20" s="155"/>
       <c r="L20" s="153"/>
-      <c r="M20" s="154"/>
+      <c r="M20" s="170">
+        <v>1.5</v>
+      </c>
       <c r="N20" s="154"/>
       <c r="O20" s="155"/>
       <c r="P20" s="153"/>
@@ -5086,12 +5091,14 @@
       <c r="AB37" s="153"/>
       <c r="AC37" s="154"/>
       <c r="AD37" s="157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="164">
         <v>2</v>
       </c>
-      <c r="AF37" s="153"/>
+      <c r="AF37" s="156">
+        <v>1</v>
+      </c>
       <c r="AG37" s="154"/>
       <c r="AH37" s="154"/>
       <c r="AI37" s="155"/>
@@ -5211,7 +5218,7 @@
       <c r="B40" s="208"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="153"/>
       <c r="E40" s="154"/>
@@ -5223,7 +5230,9 @@
       <c r="K40" s="155"/>
       <c r="L40" s="153"/>
       <c r="M40" s="154"/>
-      <c r="N40" s="154"/>
+      <c r="N40" s="170">
+        <v>2</v>
+      </c>
       <c r="O40" s="155"/>
       <c r="P40" s="153"/>
       <c r="Q40" s="154"/>
@@ -6035,7 +6044,7 @@
       <c r="B56" s="208"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D56" s="153"/>
       <c r="E56" s="154"/>
@@ -6050,9 +6059,13 @@
         <v>1.5</v>
       </c>
       <c r="L56" s="153"/>
-      <c r="M56" s="154"/>
+      <c r="M56" s="170">
+        <v>0.5</v>
+      </c>
       <c r="N56" s="154"/>
-      <c r="O56" s="155"/>
+      <c r="O56" s="196">
+        <v>1</v>
+      </c>
       <c r="P56" s="153"/>
       <c r="Q56" s="154"/>
       <c r="R56" s="154"/>
@@ -6139,7 +6152,7 @@
       <c r="B58" s="208"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="153"/>
       <c r="E58" s="154"/>
@@ -6150,7 +6163,9 @@
       <c r="J58" s="154"/>
       <c r="K58" s="155"/>
       <c r="L58" s="153"/>
-      <c r="M58" s="154"/>
+      <c r="M58" s="170">
+        <v>0.5</v>
+      </c>
       <c r="N58" s="154"/>
       <c r="O58" s="155"/>
       <c r="P58" s="153"/>
@@ -6189,7 +6204,7 @@
       </c>
       <c r="C59" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="153"/>
       <c r="E59" s="154"/>
@@ -6222,7 +6237,7 @@
       <c r="AD59" s="154"/>
       <c r="AE59" s="154"/>
       <c r="AF59" s="156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="157">
         <v>2</v>
@@ -6665,7 +6680,7 @@
       <c r="B68" s="208"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6682,7 +6697,9 @@
       <c r="L68" s="153"/>
       <c r="M68" s="154"/>
       <c r="N68" s="154"/>
-      <c r="O68" s="155"/>
+      <c r="O68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="P68" s="153"/>
       <c r="Q68" s="154"/>
       <c r="R68" s="154"/>
@@ -6823,7 +6840,7 @@
       </c>
       <c r="C71" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="153"/>
       <c r="E71" s="154"/>
@@ -6853,7 +6870,9 @@
       <c r="AA71" s="155"/>
       <c r="AB71" s="153"/>
       <c r="AC71" s="154"/>
-      <c r="AD71" s="154"/>
+      <c r="AD71" s="157">
+        <v>1</v>
+      </c>
       <c r="AE71" s="155"/>
       <c r="AF71" s="153"/>
       <c r="AG71" s="154"/>
@@ -7004,7 +7023,7 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="D74" s="209">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
@@ -7022,7 +7041,7 @@
       <c r="K74" s="209"/>
       <c r="L74" s="209">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M74" s="209"/>
       <c r="N74" s="209"/>

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="718" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723281E2-AD3E-4B3B-B3B3-3983AA05A7B8}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5B9311-776E-4F4C-8734-24925F015DD4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplan!$A$1:$AQ$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1704,42 +1703,50 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1752,33 +1759,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3124,10 +3123,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3144,66 +3143,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="215" t="s">
+      <c r="D1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="215" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="215" t="s">
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="215" t="s">
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="215" t="s">
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="215" t="s">
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="215" t="s">
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="215" t="s">
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="215" t="s">
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="215" t="s">
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="216"/>
-      <c r="AP1" s="216"/>
-      <c r="AQ1" s="217"/>
+      <c r="AO1" s="218"/>
+      <c r="AP1" s="218"/>
+      <c r="AQ1" s="219"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3211,80 +3210,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="212">
+      <c r="D2" s="220">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="212">
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="220">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="212">
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="220">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="212">
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="220">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="212">
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="220">
         <v>45363</v>
       </c>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212">
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="220">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="212">
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="220">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="212">
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="220">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="212">
+      <c r="AG2" s="221"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
+      <c r="AJ2" s="220">
         <v>45370</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="213"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="212">
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
+      <c r="AM2" s="222"/>
+      <c r="AN2" s="220">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="213"/>
-      <c r="AP2" s="213"/>
-      <c r="AQ2" s="214"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="222"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="178">
@@ -3336,7 +3335,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3402,7 +3401,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="207" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="191">
@@ -3458,7 +3457,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3512,7 +3511,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="214" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="191">
@@ -3566,7 +3565,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3620,7 +3619,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="228" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="178">
@@ -3672,7 +3671,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3722,7 +3721,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="209" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="192">
@@ -3774,7 +3773,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3824,7 +3823,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="209" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="191">
@@ -3876,7 +3875,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3926,7 +3925,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="209" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="192">
@@ -3978,7 +3977,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4028,7 +4027,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="209" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="192">
@@ -4080,7 +4079,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4132,7 +4131,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="224" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4184,7 +4183,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4236,7 +4235,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="213" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="178">
@@ -4290,10 +4289,10 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="153"/>
       <c r="E22" s="154"/>
@@ -4307,9 +4306,15 @@
       <c r="M22" s="154"/>
       <c r="N22" s="154"/>
       <c r="O22" s="155"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
+      <c r="P22" s="206">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="170">
+        <v>2</v>
+      </c>
+      <c r="R22" s="170">
+        <v>1</v>
+      </c>
       <c r="S22" s="155"/>
       <c r="T22" s="153"/>
       <c r="U22" s="154"/>
@@ -4338,7 +4343,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="226" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="192">
@@ -4390,10 +4395,10 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="153"/>
       <c r="E24" s="154"/>
@@ -4409,7 +4414,9 @@
       <c r="O24" s="155"/>
       <c r="P24" s="153"/>
       <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
+      <c r="R24" s="170">
+        <v>1</v>
+      </c>
       <c r="S24" s="155"/>
       <c r="T24" s="153"/>
       <c r="U24" s="154"/>
@@ -4438,7 +4445,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="216" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="192">
@@ -4495,10 +4502,10 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="153"/>
       <c r="E26" s="154"/>
@@ -4515,7 +4522,9 @@
       <c r="P26" s="153"/>
       <c r="Q26" s="154"/>
       <c r="R26" s="154"/>
-      <c r="S26" s="155"/>
+      <c r="S26" s="196">
+        <v>1</v>
+      </c>
       <c r="T26" s="153"/>
       <c r="U26" s="154"/>
       <c r="V26" s="154"/>
@@ -4543,7 +4552,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="216" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="192">
@@ -4597,7 +4606,7 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4645,7 +4654,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="216" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="192">
@@ -4699,7 +4708,7 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4747,7 +4756,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="216" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="192">
@@ -4803,7 +4812,7 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4851,7 +4860,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="208" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="192">
@@ -4905,7 +4914,7 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4953,7 +4962,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="208" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="192">
@@ -5009,7 +5018,7 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5057,7 +5066,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="208" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="191">
@@ -5113,7 +5122,7 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5163,7 +5172,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="212" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="178">
@@ -5215,7 +5224,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5265,7 +5274,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5369,7 +5378,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="212" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="178">
@@ -5423,7 +5432,7 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5473,7 +5482,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="212" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="178">
@@ -5525,7 +5534,7 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5573,7 +5582,7 @@
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="209" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="191">
@@ -5625,7 +5634,7 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5673,7 +5682,7 @@
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="192">
@@ -5725,7 +5734,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5775,7 +5784,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="209" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="192">
@@ -5829,7 +5838,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5881,7 +5890,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5933,7 +5942,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -5983,7 +5992,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="209" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="192">
@@ -6041,7 +6050,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6097,7 +6106,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="210" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="192">
@@ -6149,7 +6158,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6199,7 +6208,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="209" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="192">
@@ -6255,10 +6264,10 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D60" s="153"/>
       <c r="E60" s="154"/>
@@ -6275,7 +6284,9 @@
       <c r="P60" s="153"/>
       <c r="Q60" s="154"/>
       <c r="R60" s="154"/>
-      <c r="S60" s="155"/>
+      <c r="S60" s="196">
+        <v>0.5</v>
+      </c>
       <c r="T60" s="153"/>
       <c r="U60" s="154"/>
       <c r="V60" s="154"/>
@@ -6303,7 +6314,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="210" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="192">
@@ -6355,7 +6366,7 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6403,7 +6414,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="210" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="192">
@@ -6457,7 +6468,7 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6505,7 +6516,7 @@
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="210" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="192">
@@ -6559,7 +6570,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6607,7 +6618,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="192">
@@ -6677,10 +6688,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6703,7 +6714,9 @@
       <c r="P68" s="153"/>
       <c r="Q68" s="154"/>
       <c r="R68" s="154"/>
-      <c r="S68" s="155"/>
+      <c r="S68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="T68" s="153"/>
       <c r="U68" s="154"/>
       <c r="V68" s="154"/>
@@ -6731,7 +6744,7 @@
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="210" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="192">
@@ -6787,7 +6800,7 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6835,7 +6848,7 @@
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="192">
@@ -6945,76 +6958,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="210">
+      <c r="D73" s="229">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="210"/>
-      <c r="F73" s="210"/>
-      <c r="G73" s="210"/>
-      <c r="H73" s="210">
+      <c r="E73" s="229"/>
+      <c r="F73" s="229"/>
+      <c r="G73" s="229"/>
+      <c r="H73" s="229">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="210"/>
-      <c r="J73" s="210"/>
-      <c r="K73" s="210"/>
-      <c r="L73" s="210">
+      <c r="I73" s="229"/>
+      <c r="J73" s="229"/>
+      <c r="K73" s="229"/>
+      <c r="L73" s="229">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
-      <c r="P73" s="210">
+      <c r="M73" s="229"/>
+      <c r="N73" s="229"/>
+      <c r="O73" s="229"/>
+      <c r="P73" s="229">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="210"/>
-      <c r="R73" s="210"/>
-      <c r="S73" s="210"/>
-      <c r="T73" s="210">
+      <c r="Q73" s="229"/>
+      <c r="R73" s="229"/>
+      <c r="S73" s="229"/>
+      <c r="T73" s="229">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="210"/>
-      <c r="V73" s="210"/>
-      <c r="W73" s="210"/>
-      <c r="X73" s="210">
+      <c r="U73" s="229"/>
+      <c r="V73" s="229"/>
+      <c r="W73" s="229"/>
+      <c r="X73" s="229">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="210"/>
-      <c r="Z73" s="210"/>
-      <c r="AA73" s="210"/>
-      <c r="AB73" s="210">
+      <c r="Y73" s="229"/>
+      <c r="Z73" s="229"/>
+      <c r="AA73" s="229"/>
+      <c r="AB73" s="229">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="210"/>
-      <c r="AD73" s="210"/>
-      <c r="AE73" s="210"/>
-      <c r="AF73" s="210">
+      <c r="AC73" s="229"/>
+      <c r="AD73" s="229"/>
+      <c r="AE73" s="229"/>
+      <c r="AF73" s="229">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="210"/>
-      <c r="AH73" s="210"/>
-      <c r="AI73" s="210"/>
-      <c r="AJ73" s="210">
+      <c r="AG73" s="229"/>
+      <c r="AH73" s="229"/>
+      <c r="AI73" s="229"/>
+      <c r="AJ73" s="229">
         <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="210"/>
-      <c r="AL73" s="210"/>
-      <c r="AM73" s="210"/>
-      <c r="AN73" s="210">
+      <c r="AK73" s="229"/>
+      <c r="AL73" s="229"/>
+      <c r="AM73" s="229"/>
+      <c r="AN73" s="229">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="210"/>
-      <c r="AP73" s="210"/>
-      <c r="AQ73" s="210"/>
+      <c r="AO73" s="229"/>
+      <c r="AP73" s="229"/>
+      <c r="AQ73" s="229"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7023,78 +7036,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>24.5</v>
-      </c>
-      <c r="D74" s="209">
+        <v>32.5</v>
+      </c>
+      <c r="D74" s="230">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="209"/>
-      <c r="F74" s="209"/>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209">
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="209"/>
-      <c r="J74" s="209"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="209">
+      <c r="I74" s="230"/>
+      <c r="J74" s="230"/>
+      <c r="K74" s="230"/>
+      <c r="L74" s="230">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="209"/>
-      <c r="N74" s="209"/>
-      <c r="O74" s="209"/>
-      <c r="P74" s="209">
+      <c r="M74" s="230"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
+      <c r="P74" s="230">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="209"/>
-      <c r="R74" s="209"/>
-      <c r="S74" s="209"/>
-      <c r="T74" s="209">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="230"/>
+      <c r="R74" s="230"/>
+      <c r="S74" s="230"/>
+      <c r="T74" s="230">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>0</v>
       </c>
-      <c r="U74" s="209"/>
-      <c r="V74" s="209"/>
-      <c r="W74" s="209"/>
-      <c r="X74" s="209">
+      <c r="U74" s="230"/>
+      <c r="V74" s="230"/>
+      <c r="W74" s="230"/>
+      <c r="X74" s="230">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>0</v>
       </c>
-      <c r="Y74" s="209"/>
-      <c r="Z74" s="209"/>
-      <c r="AA74" s="209"/>
-      <c r="AB74" s="209">
+      <c r="Y74" s="230"/>
+      <c r="Z74" s="230"/>
+      <c r="AA74" s="230"/>
+      <c r="AB74" s="230">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="209"/>
-      <c r="AD74" s="209"/>
-      <c r="AE74" s="209"/>
-      <c r="AF74" s="209">
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="230"/>
+      <c r="AE74" s="230"/>
+      <c r="AF74" s="230">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="209"/>
-      <c r="AH74" s="209"/>
-      <c r="AI74" s="209"/>
-      <c r="AJ74" s="209">
+      <c r="AG74" s="230"/>
+      <c r="AH74" s="230"/>
+      <c r="AI74" s="230"/>
+      <c r="AJ74" s="230">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="209"/>
-      <c r="AL74" s="209"/>
-      <c r="AM74" s="209"/>
-      <c r="AN74" s="209">
+      <c r="AK74" s="230"/>
+      <c r="AL74" s="230"/>
+      <c r="AM74" s="230"/>
+      <c r="AN74" s="230">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AO74" s="209"/>
-      <c r="AP74" s="209"/>
-      <c r="AQ74" s="209"/>
+      <c r="AO74" s="230"/>
+      <c r="AP74" s="230"/>
+      <c r="AQ74" s="230"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7148,20 +7161,51 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7178,51 +7222,20 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7269,66 +7282,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="231" t="s">
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="231" t="s">
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="231" t="s">
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="231" t="s">
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="231" t="s">
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="231" t="s">
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="231" t="s">
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="231" t="s">
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="231" t="s">
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="232"/>
-      <c r="AP1" s="232"/>
-      <c r="AQ1" s="233"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="237"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7336,72 +7349,72 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="234">
+      <c r="D2" s="233">
         <v>45356</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="234">
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="233">
         <v>45357</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="234">
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="233">
         <v>45358</v>
       </c>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="234">
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="233">
         <v>45359</v>
       </c>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="234">
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="233">
         <v>45363</v>
       </c>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="234">
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="233">
         <v>45364</v>
       </c>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="234">
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="233">
         <v>45365</v>
       </c>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="234">
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="233">
         <v>45366</v>
       </c>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="234">
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="234"/>
+      <c r="AJ2" s="233">
         <v>45370</v>
       </c>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="234">
+      <c r="AK2" s="223"/>
+      <c r="AL2" s="223"/>
+      <c r="AM2" s="234"/>
+      <c r="AN2" s="233">
         <v>45371</v>
       </c>
-      <c r="AO2" s="220"/>
-      <c r="AP2" s="220"/>
-      <c r="AQ2" s="235"/>
+      <c r="AO2" s="223"/>
+      <c r="AP2" s="223"/>
+      <c r="AQ2" s="234"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7452,7 +7465,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7501,7 +7514,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="207" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12">
@@ -7556,7 +7569,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7607,7 +7620,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="214" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7660,7 +7673,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7713,7 +7726,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="209" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7764,7 +7777,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7811,7 +7824,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="209" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12">
@@ -7862,7 +7875,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7909,7 +7922,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="209" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12">
@@ -7960,7 +7973,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8007,7 +8020,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="209" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="12">
@@ -8058,7 +8071,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8105,7 +8118,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="209" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8156,7 +8169,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8205,7 +8218,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="224" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8256,7 +8269,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8305,7 +8318,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="213" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="7">
@@ -8358,7 +8371,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8405,7 +8418,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="226" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="12">
@@ -8456,7 +8469,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8502,7 +8515,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="216" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="12">
@@ -8557,7 +8570,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8604,7 +8617,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="216" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="12">
@@ -8657,7 +8670,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8704,7 +8717,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="216" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="12">
@@ -8757,7 +8770,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8804,7 +8817,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="216" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="12">
@@ -8859,7 +8872,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8906,7 +8919,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="12">
@@ -8959,7 +8972,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9006,7 +9019,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="208" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="12">
@@ -9059,7 +9072,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9106,7 +9119,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="208" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="12">
@@ -9159,7 +9172,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9208,7 +9221,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="212" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7">
@@ -9259,7 +9272,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9306,7 +9319,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9408,7 +9421,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="212" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9461,7 +9474,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9510,7 +9523,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="212" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9561,7 +9574,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9608,7 +9621,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="209" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="12">
@@ -9659,7 +9672,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9706,7 +9719,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="209" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="12">
@@ -9757,7 +9770,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9806,7 +9819,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="209" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9863,7 +9876,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -9913,7 +9926,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -9964,7 +9977,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10011,7 +10024,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="209" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10070,7 +10083,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10117,7 +10130,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="210" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10168,7 +10181,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10215,7 +10228,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="209" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10296,7 +10309,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10343,7 +10356,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="210" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10400,7 +10413,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10447,7 +10460,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="210" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10504,7 +10517,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10551,7 +10564,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="210" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10602,7 +10615,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10649,7 +10662,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10719,7 +10732,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10766,7 +10779,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="210" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="12">
@@ -10821,7 +10834,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10868,7 +10881,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="12">
@@ -10971,66 +10984,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="237">
+      <c r="D73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="237"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="237"/>
-      <c r="H73" s="237">
+      <c r="E73" s="232"/>
+      <c r="F73" s="232"/>
+      <c r="G73" s="232"/>
+      <c r="H73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="237"/>
-      <c r="J73" s="237"/>
-      <c r="K73" s="237"/>
-      <c r="L73" s="237">
+      <c r="I73" s="232"/>
+      <c r="J73" s="232"/>
+      <c r="K73" s="232"/>
+      <c r="L73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="237"/>
-      <c r="N73" s="237"/>
-      <c r="O73" s="237"/>
-      <c r="P73" s="237">
+      <c r="M73" s="232"/>
+      <c r="N73" s="232"/>
+      <c r="O73" s="232"/>
+      <c r="P73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="237"/>
-      <c r="R73" s="237"/>
-      <c r="S73" s="237"/>
-      <c r="T73" s="237">
+      <c r="Q73" s="232"/>
+      <c r="R73" s="232"/>
+      <c r="S73" s="232"/>
+      <c r="T73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="237"/>
-      <c r="V73" s="237"/>
-      <c r="W73" s="237"/>
-      <c r="X73" s="237">
+      <c r="U73" s="232"/>
+      <c r="V73" s="232"/>
+      <c r="W73" s="232"/>
+      <c r="X73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="237"/>
-      <c r="Z73" s="237"/>
-      <c r="AA73" s="237"/>
-      <c r="AB73" s="237">
+      <c r="Y73" s="232"/>
+      <c r="Z73" s="232"/>
+      <c r="AA73" s="232"/>
+      <c r="AB73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="237"/>
-      <c r="AD73" s="237"/>
-      <c r="AE73" s="237"/>
-      <c r="AF73" s="237">
+      <c r="AC73" s="232"/>
+      <c r="AD73" s="232"/>
+      <c r="AE73" s="232"/>
+      <c r="AF73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="237"/>
-      <c r="AH73" s="237"/>
-      <c r="AI73" s="237"/>
-      <c r="AJ73" s="237">
+      <c r="AG73" s="232"/>
+      <c r="AH73" s="232"/>
+      <c r="AI73" s="232"/>
+      <c r="AJ73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="237"/>
-      <c r="AL73" s="237"/>
-      <c r="AM73" s="237"/>
-      <c r="AN73" s="237">
+      <c r="AK73" s="232"/>
+      <c r="AL73" s="232"/>
+      <c r="AM73" s="232"/>
+      <c r="AN73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="237"/>
-      <c r="AP73" s="237"/>
-      <c r="AQ73" s="237"/>
+      <c r="AO73" s="232"/>
+      <c r="AP73" s="232"/>
+      <c r="AQ73" s="232"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11040,66 +11053,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="238">
+      <c r="D74" s="231">
         <v>0</v>
       </c>
-      <c r="E74" s="238"/>
-      <c r="F74" s="238"/>
-      <c r="G74" s="238"/>
-      <c r="H74" s="238">
+      <c r="E74" s="231"/>
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="231">
         <v>0</v>
       </c>
-      <c r="I74" s="238"/>
-      <c r="J74" s="238"/>
-      <c r="K74" s="238"/>
-      <c r="L74" s="238">
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="231">
         <v>0</v>
       </c>
-      <c r="M74" s="238"/>
-      <c r="N74" s="238"/>
-      <c r="O74" s="238"/>
-      <c r="P74" s="238">
+      <c r="M74" s="231"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231">
         <v>0</v>
       </c>
-      <c r="Q74" s="238"/>
-      <c r="R74" s="238"/>
-      <c r="S74" s="238"/>
-      <c r="T74" s="238">
+      <c r="Q74" s="231"/>
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="231">
         <v>0</v>
       </c>
-      <c r="U74" s="238"/>
-      <c r="V74" s="238"/>
-      <c r="W74" s="238"/>
-      <c r="X74" s="238">
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231">
         <v>0</v>
       </c>
-      <c r="Y74" s="238"/>
-      <c r="Z74" s="238"/>
-      <c r="AA74" s="238"/>
-      <c r="AB74" s="238">
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="231"/>
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231">
         <v>0</v>
       </c>
-      <c r="AC74" s="238"/>
-      <c r="AD74" s="238"/>
-      <c r="AE74" s="238"/>
-      <c r="AF74" s="238">
+      <c r="AC74" s="231"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="231"/>
+      <c r="AF74" s="231">
         <v>0</v>
       </c>
-      <c r="AG74" s="238"/>
-      <c r="AH74" s="238"/>
-      <c r="AI74" s="238"/>
-      <c r="AJ74" s="238">
+      <c r="AG74" s="231"/>
+      <c r="AH74" s="231"/>
+      <c r="AI74" s="231"/>
+      <c r="AJ74" s="231">
         <v>0</v>
       </c>
-      <c r="AK74" s="238"/>
-      <c r="AL74" s="238"/>
-      <c r="AM74" s="238"/>
-      <c r="AN74" s="238">
+      <c r="AK74" s="231"/>
+      <c r="AL74" s="231"/>
+      <c r="AM74" s="231"/>
+      <c r="AN74" s="231">
         <v>0</v>
       </c>
-      <c r="AO74" s="238"/>
-      <c r="AP74" s="238"/>
-      <c r="AQ74" s="238"/>
+      <c r="AO74" s="231"/>
+      <c r="AP74" s="231"/>
+      <c r="AQ74" s="231"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11153,6 +11166,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
     <mergeCell ref="AN74:AQ74"/>
     <mergeCell ref="AN73:AQ73"/>
     <mergeCell ref="D74:G74"/>
@@ -11169,65 +11241,6 @@
     <mergeCell ref="X73:AA73"/>
     <mergeCell ref="AB73:AE73"/>
     <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5B9311-776E-4F4C-8734-24925F015DD4}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC5C3AB-D124-4972-8E6A-95E179F498FC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,50 +1703,42 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1759,25 +1751,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,10 +3123,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:B22"/>
+      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3143,66 +3143,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="217" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="217" t="s">
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="217" t="s">
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="217" t="s">
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="217" t="s">
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="217" t="s">
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="217" t="s">
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="217" t="s">
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="217" t="s">
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="219"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="217"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3210,80 +3210,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="212">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="220">
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="212">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="220">
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="212">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="220">
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="212">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="220">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="212">
         <v>45363</v>
       </c>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="220">
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="220">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="212">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="220">
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="213"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="212">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="221"/>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="220">
+      <c r="AG2" s="213"/>
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="212">
         <v>45370</v>
       </c>
-      <c r="AK2" s="221"/>
-      <c r="AL2" s="221"/>
-      <c r="AM2" s="222"/>
-      <c r="AN2" s="220">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="213"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="212">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="221"/>
-      <c r="AP2" s="221"/>
-      <c r="AQ2" s="222"/>
+      <c r="AO2" s="213"/>
+      <c r="AP2" s="213"/>
+      <c r="AQ2" s="214"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="208" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="178">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="223"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="227" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="191">
@@ -3457,7 +3457,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="207"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="229" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="191">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="215"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3619,7 +3619,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="226" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="178">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="209"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="207" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="192">
@@ -3773,7 +3773,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="209"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="207" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="191">
@@ -3875,7 +3875,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="209"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="207" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="192">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="209"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="207" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="192">
@@ -4079,7 +4079,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="209"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4131,7 +4131,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4183,7 +4183,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="223"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4235,7 +4235,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="228" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="178">
@@ -4289,10 +4289,10 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="210"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D22" s="153"/>
       <c r="E22" s="154"/>
@@ -4316,7 +4316,9 @@
         <v>1</v>
       </c>
       <c r="S22" s="155"/>
-      <c r="T22" s="153"/>
+      <c r="T22" s="206">
+        <v>0.5</v>
+      </c>
       <c r="U22" s="154"/>
       <c r="V22" s="154"/>
       <c r="W22" s="155"/>
@@ -4343,7 +4345,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="224" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="192">
@@ -4395,7 +4397,7 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="227"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4445,7 +4447,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="222" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="192">
@@ -4502,10 +4504,10 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D26" s="153"/>
       <c r="E26" s="154"/>
@@ -4525,10 +4527,18 @@
       <c r="S26" s="196">
         <v>1</v>
       </c>
-      <c r="T26" s="153"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="155"/>
+      <c r="T26" s="206">
+        <v>1.5</v>
+      </c>
+      <c r="U26" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="170">
+        <v>1.5</v>
+      </c>
+      <c r="W26" s="196">
+        <v>1</v>
+      </c>
       <c r="X26" s="153"/>
       <c r="Y26" s="154"/>
       <c r="Z26" s="154"/>
@@ -4552,7 +4562,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="222" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="192">
@@ -4606,10 +4616,10 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="216"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="153"/>
       <c r="E28" s="154"/>
@@ -4628,7 +4638,9 @@
       <c r="R28" s="154"/>
       <c r="S28" s="155"/>
       <c r="T28" s="153"/>
-      <c r="U28" s="154"/>
+      <c r="U28" s="170">
+        <v>1</v>
+      </c>
       <c r="V28" s="154"/>
       <c r="W28" s="155"/>
       <c r="X28" s="153"/>
@@ -4654,7 +4666,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="192">
@@ -4708,10 +4720,10 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="216"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="153"/>
       <c r="E30" s="154"/>
@@ -4730,7 +4742,9 @@
       <c r="R30" s="154"/>
       <c r="S30" s="155"/>
       <c r="T30" s="153"/>
-      <c r="U30" s="154"/>
+      <c r="U30" s="170">
+        <v>1</v>
+      </c>
       <c r="V30" s="154"/>
       <c r="W30" s="155"/>
       <c r="X30" s="153"/>
@@ -4756,7 +4770,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="192">
@@ -4812,7 +4826,7 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="216"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4860,7 +4874,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="218" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="192">
@@ -4914,7 +4928,7 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -4962,7 +4976,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="218" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="192">
@@ -5018,7 +5032,7 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5066,7 +5080,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="218" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="191">
@@ -5122,7 +5136,7 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="209"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5172,7 +5186,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="178">
@@ -5224,7 +5238,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5274,7 +5288,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5378,7 +5392,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="212" t="s">
+      <c r="B43" s="219" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="178">
@@ -5432,7 +5446,7 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="210"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5482,7 +5496,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="212" t="s">
+      <c r="B45" s="219" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="178">
@@ -5534,7 +5548,7 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="210"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5582,7 +5596,7 @@
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="191">
@@ -5634,7 +5648,7 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="210"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5682,7 +5696,7 @@
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="209" t="s">
+      <c r="B49" s="207" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="192">
@@ -5734,7 +5748,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="210"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5784,7 +5798,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="209" t="s">
+      <c r="B51" s="207" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="192">
@@ -5838,7 +5852,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="210"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5890,7 +5904,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="209" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5942,7 +5956,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -5992,7 +6006,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="192">
@@ -6050,7 +6064,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6106,7 +6120,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="208" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="192">
@@ -6158,7 +6172,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="210"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6208,7 +6222,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="207" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="192">
@@ -6264,10 +6278,10 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="210"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D60" s="153"/>
       <c r="E60" s="154"/>
@@ -6289,8 +6303,12 @@
       </c>
       <c r="T60" s="153"/>
       <c r="U60" s="154"/>
-      <c r="V60" s="154"/>
-      <c r="W60" s="155"/>
+      <c r="V60" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="W60" s="196">
+        <v>1</v>
+      </c>
       <c r="X60" s="153"/>
       <c r="Y60" s="154"/>
       <c r="Z60" s="154"/>
@@ -6314,7 +6332,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="208" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="192">
@@ -6366,7 +6384,7 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="210"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6414,7 +6432,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="208" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="192">
@@ -6468,7 +6486,7 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="210"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6516,7 +6534,7 @@
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="208" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="192">
@@ -6570,7 +6588,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6618,7 +6636,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="207" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="192">
@@ -6688,10 +6706,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="210"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6720,7 +6738,9 @@
       <c r="T68" s="153"/>
       <c r="U68" s="154"/>
       <c r="V68" s="154"/>
-      <c r="W68" s="155"/>
+      <c r="W68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="X68" s="153"/>
       <c r="Y68" s="154"/>
       <c r="Z68" s="154"/>
@@ -6744,7 +6764,7 @@
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="208" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="192">
@@ -6800,7 +6820,7 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="210"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6848,7 +6868,7 @@
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="192">
@@ -6958,76 +6978,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="229">
+      <c r="D73" s="210">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="229"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229">
+      <c r="E73" s="210"/>
+      <c r="F73" s="210"/>
+      <c r="G73" s="210"/>
+      <c r="H73" s="210">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="229"/>
-      <c r="J73" s="229"/>
-      <c r="K73" s="229"/>
-      <c r="L73" s="229">
+      <c r="I73" s="210"/>
+      <c r="J73" s="210"/>
+      <c r="K73" s="210"/>
+      <c r="L73" s="210">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="229"/>
-      <c r="N73" s="229"/>
-      <c r="O73" s="229"/>
-      <c r="P73" s="229">
+      <c r="M73" s="210"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="229"/>
-      <c r="R73" s="229"/>
-      <c r="S73" s="229"/>
-      <c r="T73" s="229">
+      <c r="Q73" s="210"/>
+      <c r="R73" s="210"/>
+      <c r="S73" s="210"/>
+      <c r="T73" s="210">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="229"/>
-      <c r="V73" s="229"/>
-      <c r="W73" s="229"/>
-      <c r="X73" s="229">
+      <c r="U73" s="210"/>
+      <c r="V73" s="210"/>
+      <c r="W73" s="210"/>
+      <c r="X73" s="210">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="229"/>
-      <c r="Z73" s="229"/>
-      <c r="AA73" s="229"/>
-      <c r="AB73" s="229">
+      <c r="Y73" s="210"/>
+      <c r="Z73" s="210"/>
+      <c r="AA73" s="210"/>
+      <c r="AB73" s="210">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="229"/>
-      <c r="AD73" s="229"/>
-      <c r="AE73" s="229"/>
-      <c r="AF73" s="229">
+      <c r="AC73" s="210"/>
+      <c r="AD73" s="210"/>
+      <c r="AE73" s="210"/>
+      <c r="AF73" s="210">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="229"/>
-      <c r="AH73" s="229"/>
-      <c r="AI73" s="229"/>
-      <c r="AJ73" s="229">
+      <c r="AG73" s="210"/>
+      <c r="AH73" s="210"/>
+      <c r="AI73" s="210"/>
+      <c r="AJ73" s="210">
         <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="229"/>
-      <c r="AL73" s="229"/>
-      <c r="AM73" s="229"/>
-      <c r="AN73" s="229">
+      <c r="AK73" s="210"/>
+      <c r="AL73" s="210"/>
+      <c r="AM73" s="210"/>
+      <c r="AN73" s="210">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="229"/>
-      <c r="AP73" s="229"/>
-      <c r="AQ73" s="229"/>
+      <c r="AO73" s="210"/>
+      <c r="AP73" s="210"/>
+      <c r="AQ73" s="210"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7036,78 +7056,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>32.5</v>
-      </c>
-      <c r="D74" s="230">
+        <v>41.5</v>
+      </c>
+      <c r="D74" s="209">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="230"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230">
+      <c r="E74" s="209"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="230"/>
-      <c r="J74" s="230"/>
-      <c r="K74" s="230"/>
-      <c r="L74" s="230">
+      <c r="I74" s="209"/>
+      <c r="J74" s="209"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="209">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="230"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230">
+      <c r="M74" s="209"/>
+      <c r="N74" s="209"/>
+      <c r="O74" s="209"/>
+      <c r="P74" s="209">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>8</v>
       </c>
-      <c r="Q74" s="230"/>
-      <c r="R74" s="230"/>
-      <c r="S74" s="230"/>
-      <c r="T74" s="230">
+      <c r="Q74" s="209"/>
+      <c r="R74" s="209"/>
+      <c r="S74" s="209"/>
+      <c r="T74" s="209">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="230"/>
-      <c r="V74" s="230"/>
-      <c r="W74" s="230"/>
-      <c r="X74" s="230">
+        <v>9</v>
+      </c>
+      <c r="U74" s="209"/>
+      <c r="V74" s="209"/>
+      <c r="W74" s="209"/>
+      <c r="X74" s="209">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>0</v>
       </c>
-      <c r="Y74" s="230"/>
-      <c r="Z74" s="230"/>
-      <c r="AA74" s="230"/>
-      <c r="AB74" s="230">
+      <c r="Y74" s="209"/>
+      <c r="Z74" s="209"/>
+      <c r="AA74" s="209"/>
+      <c r="AB74" s="209">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="230"/>
-      <c r="AD74" s="230"/>
-      <c r="AE74" s="230"/>
-      <c r="AF74" s="230">
+      <c r="AC74" s="209"/>
+      <c r="AD74" s="209"/>
+      <c r="AE74" s="209"/>
+      <c r="AF74" s="209">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="230"/>
-      <c r="AH74" s="230"/>
-      <c r="AI74" s="230"/>
-      <c r="AJ74" s="230">
+      <c r="AG74" s="209"/>
+      <c r="AH74" s="209"/>
+      <c r="AI74" s="209"/>
+      <c r="AJ74" s="209">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="230"/>
-      <c r="AL74" s="230"/>
-      <c r="AM74" s="230"/>
-      <c r="AN74" s="230">
+      <c r="AK74" s="209"/>
+      <c r="AL74" s="209"/>
+      <c r="AM74" s="209"/>
+      <c r="AN74" s="209">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AO74" s="230"/>
-      <c r="AP74" s="230"/>
-      <c r="AQ74" s="230"/>
+      <c r="AO74" s="209"/>
+      <c r="AP74" s="209"/>
+      <c r="AQ74" s="209"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7161,51 +7181,20 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7222,20 +7211,51 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7282,66 +7302,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="238" t="s">
+      <c r="D1" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="235" t="s">
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="235" t="s">
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="235" t="s">
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="235" t="s">
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="235" t="s">
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="235" t="s">
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="235" t="s">
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="235" t="s">
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="235" t="s">
+      <c r="AK1" s="232"/>
+      <c r="AL1" s="232"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="237"/>
+      <c r="AO1" s="232"/>
+      <c r="AP1" s="232"/>
+      <c r="AQ1" s="233"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7349,72 +7369,72 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="233">
+      <c r="D2" s="234">
         <v>45356</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="233">
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="234">
         <v>45357</v>
       </c>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="233">
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="234">
         <v>45358</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="233">
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="234">
         <v>45359</v>
       </c>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="233">
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="234">
         <v>45363</v>
       </c>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="233">
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="234">
         <v>45364</v>
       </c>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="233">
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="234">
         <v>45365</v>
       </c>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="233">
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="234">
         <v>45366</v>
       </c>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="234"/>
-      <c r="AJ2" s="233">
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="234">
         <v>45370</v>
       </c>
-      <c r="AK2" s="223"/>
-      <c r="AL2" s="223"/>
-      <c r="AM2" s="234"/>
-      <c r="AN2" s="233">
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="234">
         <v>45371</v>
       </c>
-      <c r="AO2" s="223"/>
-      <c r="AP2" s="223"/>
-      <c r="AQ2" s="234"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="235"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="208" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7465,7 +7485,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="223"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7514,7 +7534,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="227" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12">
@@ -7569,7 +7589,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="207"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7620,7 +7640,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="229" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7673,7 +7693,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="215"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7726,7 +7746,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="207" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7777,7 +7797,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="209"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7824,7 +7844,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="207" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12">
@@ -7875,7 +7895,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="209"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7922,7 +7942,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="207" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12">
@@ -7973,7 +7993,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="209"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8020,7 +8040,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="207" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="12">
@@ -8071,7 +8091,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="209"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8118,7 +8138,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="207" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8169,7 +8189,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="209"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8218,7 +8238,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8269,7 +8289,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="223"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8318,7 +8338,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="228" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="7">
@@ -8371,7 +8391,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="210"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8418,7 +8438,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="224" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="12">
@@ -8469,7 +8489,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="227"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8515,7 +8535,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="222" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="12">
@@ -8570,7 +8590,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8617,7 +8637,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="222" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="12">
@@ -8670,7 +8690,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="216"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8717,7 +8737,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="12">
@@ -8770,7 +8790,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="216"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8817,7 +8837,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="12">
@@ -8872,7 +8892,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="216"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8919,7 +8939,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="218" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="12">
@@ -8972,7 +8992,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9019,7 +9039,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="218" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="12">
@@ -9072,7 +9092,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9119,7 +9139,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="218" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="12">
@@ -9172,7 +9192,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="209"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9221,7 +9241,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7">
@@ -9272,7 +9292,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9319,7 +9339,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9421,7 +9441,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="212" t="s">
+      <c r="B43" s="219" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9474,7 +9494,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="210"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9523,7 +9543,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="212" t="s">
+      <c r="B45" s="219" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9574,7 +9594,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="210"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9621,7 +9641,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="12">
@@ -9672,7 +9692,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="210"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9719,7 +9739,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="209" t="s">
+      <c r="B49" s="207" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="12">
@@ -9770,7 +9790,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="210"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9819,7 +9839,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="209" t="s">
+      <c r="B51" s="207" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9876,7 +9896,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="210"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -9926,7 +9946,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="209" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -9977,7 +9997,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10024,7 +10044,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="207" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10083,7 +10103,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10130,7 +10150,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="208" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10181,7 +10201,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="210"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10228,7 +10248,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="207" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10309,7 +10329,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="210"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10356,7 +10376,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="208" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10413,7 +10433,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="210"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10460,7 +10480,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="208" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10517,7 +10537,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="210"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10564,7 +10584,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="208" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10615,7 +10635,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10662,7 +10682,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="207" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10732,7 +10752,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="210"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10779,7 +10799,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="208" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="12">
@@ -10834,7 +10854,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="210"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10881,7 +10901,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="12">
@@ -10984,66 +11004,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="232">
+      <c r="D73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="232"/>
-      <c r="H73" s="232">
+      <c r="E73" s="237"/>
+      <c r="F73" s="237"/>
+      <c r="G73" s="237"/>
+      <c r="H73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="232"/>
-      <c r="J73" s="232"/>
-      <c r="K73" s="232"/>
-      <c r="L73" s="232">
+      <c r="I73" s="237"/>
+      <c r="J73" s="237"/>
+      <c r="K73" s="237"/>
+      <c r="L73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="232"/>
-      <c r="N73" s="232"/>
-      <c r="O73" s="232"/>
-      <c r="P73" s="232">
+      <c r="M73" s="237"/>
+      <c r="N73" s="237"/>
+      <c r="O73" s="237"/>
+      <c r="P73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="232"/>
-      <c r="R73" s="232"/>
-      <c r="S73" s="232"/>
-      <c r="T73" s="232">
+      <c r="Q73" s="237"/>
+      <c r="R73" s="237"/>
+      <c r="S73" s="237"/>
+      <c r="T73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="232"/>
-      <c r="V73" s="232"/>
-      <c r="W73" s="232"/>
-      <c r="X73" s="232">
+      <c r="U73" s="237"/>
+      <c r="V73" s="237"/>
+      <c r="W73" s="237"/>
+      <c r="X73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="232"/>
-      <c r="Z73" s="232"/>
-      <c r="AA73" s="232"/>
-      <c r="AB73" s="232">
+      <c r="Y73" s="237"/>
+      <c r="Z73" s="237"/>
+      <c r="AA73" s="237"/>
+      <c r="AB73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="232"/>
-      <c r="AD73" s="232"/>
-      <c r="AE73" s="232"/>
-      <c r="AF73" s="232">
+      <c r="AC73" s="237"/>
+      <c r="AD73" s="237"/>
+      <c r="AE73" s="237"/>
+      <c r="AF73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="232"/>
-      <c r="AH73" s="232"/>
-      <c r="AI73" s="232"/>
-      <c r="AJ73" s="232">
+      <c r="AG73" s="237"/>
+      <c r="AH73" s="237"/>
+      <c r="AI73" s="237"/>
+      <c r="AJ73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="232"/>
-      <c r="AL73" s="232"/>
-      <c r="AM73" s="232"/>
-      <c r="AN73" s="232">
+      <c r="AK73" s="237"/>
+      <c r="AL73" s="237"/>
+      <c r="AM73" s="237"/>
+      <c r="AN73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="232"/>
-      <c r="AP73" s="232"/>
-      <c r="AQ73" s="232"/>
+      <c r="AO73" s="237"/>
+      <c r="AP73" s="237"/>
+      <c r="AQ73" s="237"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11053,66 +11073,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="231">
+      <c r="D74" s="238">
         <v>0</v>
       </c>
-      <c r="E74" s="231"/>
-      <c r="F74" s="231"/>
-      <c r="G74" s="231"/>
-      <c r="H74" s="231">
+      <c r="E74" s="238"/>
+      <c r="F74" s="238"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="238">
         <v>0</v>
       </c>
-      <c r="I74" s="231"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="231"/>
-      <c r="L74" s="231">
+      <c r="I74" s="238"/>
+      <c r="J74" s="238"/>
+      <c r="K74" s="238"/>
+      <c r="L74" s="238">
         <v>0</v>
       </c>
-      <c r="M74" s="231"/>
-      <c r="N74" s="231"/>
-      <c r="O74" s="231"/>
-      <c r="P74" s="231">
+      <c r="M74" s="238"/>
+      <c r="N74" s="238"/>
+      <c r="O74" s="238"/>
+      <c r="P74" s="238">
         <v>0</v>
       </c>
-      <c r="Q74" s="231"/>
-      <c r="R74" s="231"/>
-      <c r="S74" s="231"/>
-      <c r="T74" s="231">
+      <c r="Q74" s="238"/>
+      <c r="R74" s="238"/>
+      <c r="S74" s="238"/>
+      <c r="T74" s="238">
         <v>0</v>
       </c>
-      <c r="U74" s="231"/>
-      <c r="V74" s="231"/>
-      <c r="W74" s="231"/>
-      <c r="X74" s="231">
+      <c r="U74" s="238"/>
+      <c r="V74" s="238"/>
+      <c r="W74" s="238"/>
+      <c r="X74" s="238">
         <v>0</v>
       </c>
-      <c r="Y74" s="231"/>
-      <c r="Z74" s="231"/>
-      <c r="AA74" s="231"/>
-      <c r="AB74" s="231">
+      <c r="Y74" s="238"/>
+      <c r="Z74" s="238"/>
+      <c r="AA74" s="238"/>
+      <c r="AB74" s="238">
         <v>0</v>
       </c>
-      <c r="AC74" s="231"/>
-      <c r="AD74" s="231"/>
-      <c r="AE74" s="231"/>
-      <c r="AF74" s="231">
+      <c r="AC74" s="238"/>
+      <c r="AD74" s="238"/>
+      <c r="AE74" s="238"/>
+      <c r="AF74" s="238">
         <v>0</v>
       </c>
-      <c r="AG74" s="231"/>
-      <c r="AH74" s="231"/>
-      <c r="AI74" s="231"/>
-      <c r="AJ74" s="231">
+      <c r="AG74" s="238"/>
+      <c r="AH74" s="238"/>
+      <c r="AI74" s="238"/>
+      <c r="AJ74" s="238">
         <v>0</v>
       </c>
-      <c r="AK74" s="231"/>
-      <c r="AL74" s="231"/>
-      <c r="AM74" s="231"/>
-      <c r="AN74" s="231">
+      <c r="AK74" s="238"/>
+      <c r="AL74" s="238"/>
+      <c r="AM74" s="238"/>
+      <c r="AN74" s="238">
         <v>0</v>
       </c>
-      <c r="AO74" s="231"/>
-      <c r="AP74" s="231"/>
-      <c r="AQ74" s="231"/>
+      <c r="AO74" s="238"/>
+      <c r="AP74" s="238"/>
+      <c r="AQ74" s="238"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11166,6 +11186,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
@@ -11182,65 +11261,6 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AF73:AI73"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="753" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC5C3AB-D124-4972-8E6A-95E179F498FC}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F4AE03-AF92-47EE-A57E-4BDCD44A6979}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,42 +1703,50 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1751,33 +1759,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3126,7 +3126,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
+      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3143,66 +3143,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="215" t="s">
+      <c r="D1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="215" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="215" t="s">
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="215" t="s">
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="215" t="s">
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="215" t="s">
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="215" t="s">
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="215" t="s">
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="215" t="s">
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="215" t="s">
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="216"/>
-      <c r="AP1" s="216"/>
-      <c r="AQ1" s="217"/>
+      <c r="AO1" s="218"/>
+      <c r="AP1" s="218"/>
+      <c r="AQ1" s="219"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3210,80 +3210,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="212">
+      <c r="D2" s="220">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="212">
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="220">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="212">
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="220">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="212">
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="220">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="212">
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="220">
         <v>45363</v>
       </c>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212">
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="220">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="212">
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="220">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="212">
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="220">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="212">
+      <c r="AG2" s="221"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
+      <c r="AJ2" s="220">
         <v>45370</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="213"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="212">
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
+      <c r="AM2" s="222"/>
+      <c r="AN2" s="220">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="213"/>
-      <c r="AP2" s="213"/>
-      <c r="AQ2" s="214"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="222"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="178">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="207" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="191">
@@ -3457,7 +3457,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="214" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="191">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3619,7 +3619,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="228" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="178">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="209" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="192">
@@ -3773,7 +3773,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="209" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="191">
@@ -3875,7 +3875,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="209" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="192">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="209" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="192">
@@ -4079,7 +4079,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4131,7 +4131,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="224" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4183,7 +4183,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4235,7 +4235,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="213" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="178">
@@ -4289,7 +4289,7 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="226" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="192">
@@ -4397,10 +4397,10 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="153"/>
       <c r="E24" s="154"/>
@@ -4425,7 +4425,9 @@
       <c r="V24" s="163"/>
       <c r="W24" s="155"/>
       <c r="X24" s="153"/>
-      <c r="Y24" s="154"/>
+      <c r="Y24" s="170">
+        <v>1</v>
+      </c>
       <c r="Z24" s="154"/>
       <c r="AA24" s="155"/>
       <c r="AB24" s="153"/>
@@ -4447,7 +4449,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="216" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="192">
@@ -4504,7 +4506,7 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4562,7 +4564,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="216" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="192">
@@ -4616,7 +4618,7 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4666,7 +4668,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="216" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="192">
@@ -4720,7 +4722,7 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4770,7 +4772,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="216" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="192">
@@ -4826,10 +4828,10 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="153"/>
       <c r="E32" s="154"/>
@@ -4851,8 +4853,12 @@
       <c r="U32" s="154"/>
       <c r="V32" s="154"/>
       <c r="W32" s="155"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="154"/>
+      <c r="X32" s="206">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="170">
+        <v>1</v>
+      </c>
       <c r="Z32" s="154"/>
       <c r="AA32" s="155"/>
       <c r="AB32" s="153"/>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="208" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="192">
@@ -4928,10 +4934,10 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="153"/>
       <c r="E34" s="154"/>
@@ -4955,7 +4961,9 @@
       <c r="W34" s="155"/>
       <c r="X34" s="153"/>
       <c r="Y34" s="154"/>
-      <c r="Z34" s="154"/>
+      <c r="Z34" s="170">
+        <v>2</v>
+      </c>
       <c r="AA34" s="155"/>
       <c r="AB34" s="153"/>
       <c r="AC34" s="154"/>
@@ -4976,7 +4984,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="208" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="192">
@@ -5032,10 +5040,10 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D36" s="153"/>
       <c r="E36" s="154"/>
@@ -5060,7 +5068,9 @@
       <c r="X36" s="153"/>
       <c r="Y36" s="154"/>
       <c r="Z36" s="154"/>
-      <c r="AA36" s="155"/>
+      <c r="AA36" s="196">
+        <v>2.5</v>
+      </c>
       <c r="AB36" s="153"/>
       <c r="AC36" s="154"/>
       <c r="AD36" s="154"/>
@@ -5080,7 +5090,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="208" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="191">
@@ -5136,7 +5146,7 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5186,7 +5196,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="212" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="178">
@@ -5238,7 +5248,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5288,7 +5298,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5392,7 +5402,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="212" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="178">
@@ -5446,7 +5456,7 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5496,7 +5506,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="212" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="178">
@@ -5548,7 +5558,7 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5596,7 +5606,7 @@
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="209" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="191">
@@ -5648,7 +5658,7 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5696,7 +5706,7 @@
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="192">
@@ -5748,7 +5758,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5798,7 +5808,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="209" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="192">
@@ -5852,7 +5862,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5904,7 +5914,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5956,7 +5966,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6006,7 +6016,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="209" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="192">
@@ -6064,7 +6074,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6120,7 +6130,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="210" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="192">
@@ -6172,7 +6182,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6222,7 +6232,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="209" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="192">
@@ -6278,7 +6288,7 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -6332,7 +6342,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="210" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="192">
@@ -6384,7 +6394,7 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6432,7 +6442,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="210" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="192">
@@ -6486,7 +6496,7 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6534,7 +6544,7 @@
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="210" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="192">
@@ -6588,7 +6598,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6636,7 +6646,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="192">
@@ -6706,10 +6716,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6744,7 +6754,9 @@
       <c r="X68" s="153"/>
       <c r="Y68" s="154"/>
       <c r="Z68" s="154"/>
-      <c r="AA68" s="155"/>
+      <c r="AA68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AB68" s="153"/>
       <c r="AC68" s="154"/>
       <c r="AD68" s="154"/>
@@ -6764,7 +6776,7 @@
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="210" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="192">
@@ -6820,7 +6832,7 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6868,7 +6880,7 @@
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="192">
@@ -6978,76 +6990,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="210">
+      <c r="D73" s="229">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="210"/>
-      <c r="F73" s="210"/>
-      <c r="G73" s="210"/>
-      <c r="H73" s="210">
+      <c r="E73" s="229"/>
+      <c r="F73" s="229"/>
+      <c r="G73" s="229"/>
+      <c r="H73" s="229">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="210"/>
-      <c r="J73" s="210"/>
-      <c r="K73" s="210"/>
-      <c r="L73" s="210">
+      <c r="I73" s="229"/>
+      <c r="J73" s="229"/>
+      <c r="K73" s="229"/>
+      <c r="L73" s="229">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
-      <c r="P73" s="210">
+      <c r="M73" s="229"/>
+      <c r="N73" s="229"/>
+      <c r="O73" s="229"/>
+      <c r="P73" s="229">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="210"/>
-      <c r="R73" s="210"/>
-      <c r="S73" s="210"/>
-      <c r="T73" s="210">
+      <c r="Q73" s="229"/>
+      <c r="R73" s="229"/>
+      <c r="S73" s="229"/>
+      <c r="T73" s="229">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="210"/>
-      <c r="V73" s="210"/>
-      <c r="W73" s="210"/>
-      <c r="X73" s="210">
+      <c r="U73" s="229"/>
+      <c r="V73" s="229"/>
+      <c r="W73" s="229"/>
+      <c r="X73" s="229">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="210"/>
-      <c r="Z73" s="210"/>
-      <c r="AA73" s="210"/>
-      <c r="AB73" s="210">
+      <c r="Y73" s="229"/>
+      <c r="Z73" s="229"/>
+      <c r="AA73" s="229"/>
+      <c r="AB73" s="229">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="210"/>
-      <c r="AD73" s="210"/>
-      <c r="AE73" s="210"/>
-      <c r="AF73" s="210">
+      <c r="AC73" s="229"/>
+      <c r="AD73" s="229"/>
+      <c r="AE73" s="229"/>
+      <c r="AF73" s="229">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="210"/>
-      <c r="AH73" s="210"/>
-      <c r="AI73" s="210"/>
-      <c r="AJ73" s="210">
+      <c r="AG73" s="229"/>
+      <c r="AH73" s="229"/>
+      <c r="AI73" s="229"/>
+      <c r="AJ73" s="229">
         <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="210"/>
-      <c r="AL73" s="210"/>
-      <c r="AM73" s="210"/>
-      <c r="AN73" s="210">
+      <c r="AK73" s="229"/>
+      <c r="AL73" s="229"/>
+      <c r="AM73" s="229"/>
+      <c r="AN73" s="229">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="210"/>
-      <c r="AP73" s="210"/>
-      <c r="AQ73" s="210"/>
+      <c r="AO73" s="229"/>
+      <c r="AP73" s="229"/>
+      <c r="AQ73" s="229"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7056,78 +7068,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>41.5</v>
-      </c>
-      <c r="D74" s="209">
+        <v>50.5</v>
+      </c>
+      <c r="D74" s="230">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="209"/>
-      <c r="F74" s="209"/>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209">
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="209"/>
-      <c r="J74" s="209"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="209">
+      <c r="I74" s="230"/>
+      <c r="J74" s="230"/>
+      <c r="K74" s="230"/>
+      <c r="L74" s="230">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="209"/>
-      <c r="N74" s="209"/>
-      <c r="O74" s="209"/>
-      <c r="P74" s="209">
+      <c r="M74" s="230"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
+      <c r="P74" s="230">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>8</v>
       </c>
-      <c r="Q74" s="209"/>
-      <c r="R74" s="209"/>
-      <c r="S74" s="209"/>
-      <c r="T74" s="209">
+      <c r="Q74" s="230"/>
+      <c r="R74" s="230"/>
+      <c r="S74" s="230"/>
+      <c r="T74" s="230">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>9</v>
       </c>
-      <c r="U74" s="209"/>
-      <c r="V74" s="209"/>
-      <c r="W74" s="209"/>
-      <c r="X74" s="209">
+      <c r="U74" s="230"/>
+      <c r="V74" s="230"/>
+      <c r="W74" s="230"/>
+      <c r="X74" s="230">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="209"/>
-      <c r="Z74" s="209"/>
-      <c r="AA74" s="209"/>
-      <c r="AB74" s="209">
+        <v>9</v>
+      </c>
+      <c r="Y74" s="230"/>
+      <c r="Z74" s="230"/>
+      <c r="AA74" s="230"/>
+      <c r="AB74" s="230">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="209"/>
-      <c r="AD74" s="209"/>
-      <c r="AE74" s="209"/>
-      <c r="AF74" s="209">
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="230"/>
+      <c r="AE74" s="230"/>
+      <c r="AF74" s="230">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="209"/>
-      <c r="AH74" s="209"/>
-      <c r="AI74" s="209"/>
-      <c r="AJ74" s="209">
+      <c r="AG74" s="230"/>
+      <c r="AH74" s="230"/>
+      <c r="AI74" s="230"/>
+      <c r="AJ74" s="230">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="209"/>
-      <c r="AL74" s="209"/>
-      <c r="AM74" s="209"/>
-      <c r="AN74" s="209">
+      <c r="AK74" s="230"/>
+      <c r="AL74" s="230"/>
+      <c r="AM74" s="230"/>
+      <c r="AN74" s="230">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AO74" s="209"/>
-      <c r="AP74" s="209"/>
-      <c r="AQ74" s="209"/>
+      <c r="AO74" s="230"/>
+      <c r="AP74" s="230"/>
+      <c r="AQ74" s="230"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7181,20 +7193,51 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7211,51 +7254,20 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7284,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629A963A-F587-476A-96F3-2418A450BC77}">
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ67" sqref="AM67:AQ67"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7302,66 +7314,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="231" t="s">
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="231" t="s">
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="231" t="s">
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="231" t="s">
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="231" t="s">
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="231" t="s">
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="231" t="s">
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="231" t="s">
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="231" t="s">
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="232"/>
-      <c r="AP1" s="232"/>
-      <c r="AQ1" s="233"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="237"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7369,72 +7381,72 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="234">
+      <c r="D2" s="233">
         <v>45356</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="234">
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="233">
         <v>45357</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="234">
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="233">
         <v>45358</v>
       </c>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="234">
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="233">
         <v>45359</v>
       </c>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="234">
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="233">
         <v>45363</v>
       </c>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="234">
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="233">
         <v>45364</v>
       </c>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="234">
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="233">
         <v>45365</v>
       </c>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="234">
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="233">
         <v>45366</v>
       </c>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="234">
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="234"/>
+      <c r="AJ2" s="233">
         <v>45370</v>
       </c>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="234">
+      <c r="AK2" s="223"/>
+      <c r="AL2" s="223"/>
+      <c r="AM2" s="234"/>
+      <c r="AN2" s="233">
         <v>45371</v>
       </c>
-      <c r="AO2" s="220"/>
-      <c r="AP2" s="220"/>
-      <c r="AQ2" s="235"/>
+      <c r="AO2" s="223"/>
+      <c r="AP2" s="223"/>
+      <c r="AQ2" s="234"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7485,7 +7497,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7534,7 +7546,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="207" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12">
@@ -7589,7 +7601,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7640,7 +7652,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="214" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7693,7 +7705,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7746,7 +7758,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="209" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7797,7 +7809,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7844,7 +7856,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="209" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12">
@@ -7895,7 +7907,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7942,7 +7954,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="209" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12">
@@ -7993,7 +8005,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8040,7 +8052,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="209" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="12">
@@ -8091,7 +8103,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8138,7 +8150,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="209" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8189,7 +8201,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8238,7 +8250,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="224" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8289,7 +8301,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8338,7 +8350,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="213" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="7">
@@ -8391,7 +8403,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8438,7 +8450,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="226" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="12">
@@ -8489,7 +8501,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8535,7 +8547,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="216" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="12">
@@ -8590,7 +8602,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8637,7 +8649,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="216" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="12">
@@ -8690,7 +8702,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8737,7 +8749,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="216" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="12">
@@ -8790,7 +8802,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8837,7 +8849,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="216" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="12">
@@ -8892,7 +8904,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8939,7 +8951,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="12">
@@ -8992,7 +9004,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9039,7 +9051,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="208" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="12">
@@ -9092,7 +9104,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9139,7 +9151,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="208" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="12">
@@ -9192,7 +9204,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9241,7 +9253,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="212" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7">
@@ -9292,7 +9304,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9339,7 +9351,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9441,7 +9453,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="212" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9494,7 +9506,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9543,7 +9555,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="212" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9594,7 +9606,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9641,7 +9653,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="209" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="12">
@@ -9692,7 +9704,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9739,7 +9751,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="209" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="12">
@@ -9790,7 +9802,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9839,7 +9851,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="209" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9896,7 +9908,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -9946,7 +9958,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -9997,7 +10009,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10044,7 +10056,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="209" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10103,7 +10115,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10150,7 +10162,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="210" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10201,7 +10213,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10248,7 +10260,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="209" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10329,7 +10341,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10376,7 +10388,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="210" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10433,7 +10445,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10480,7 +10492,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="210" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10537,7 +10549,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10584,7 +10596,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="210" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10635,7 +10647,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10682,7 +10694,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10752,7 +10764,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10799,7 +10811,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="210" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="12">
@@ -10854,7 +10866,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10901,7 +10913,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="12">
@@ -11004,66 +11016,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="237">
+      <c r="D73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="237"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="237"/>
-      <c r="H73" s="237">
+      <c r="E73" s="232"/>
+      <c r="F73" s="232"/>
+      <c r="G73" s="232"/>
+      <c r="H73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="237"/>
-      <c r="J73" s="237"/>
-      <c r="K73" s="237"/>
-      <c r="L73" s="237">
+      <c r="I73" s="232"/>
+      <c r="J73" s="232"/>
+      <c r="K73" s="232"/>
+      <c r="L73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="237"/>
-      <c r="N73" s="237"/>
-      <c r="O73" s="237"/>
-      <c r="P73" s="237">
+      <c r="M73" s="232"/>
+      <c r="N73" s="232"/>
+      <c r="O73" s="232"/>
+      <c r="P73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="237"/>
-      <c r="R73" s="237"/>
-      <c r="S73" s="237"/>
-      <c r="T73" s="237">
+      <c r="Q73" s="232"/>
+      <c r="R73" s="232"/>
+      <c r="S73" s="232"/>
+      <c r="T73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="237"/>
-      <c r="V73" s="237"/>
-      <c r="W73" s="237"/>
-      <c r="X73" s="237">
+      <c r="U73" s="232"/>
+      <c r="V73" s="232"/>
+      <c r="W73" s="232"/>
+      <c r="X73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="237"/>
-      <c r="Z73" s="237"/>
-      <c r="AA73" s="237"/>
-      <c r="AB73" s="237">
+      <c r="Y73" s="232"/>
+      <c r="Z73" s="232"/>
+      <c r="AA73" s="232"/>
+      <c r="AB73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="237"/>
-      <c r="AD73" s="237"/>
-      <c r="AE73" s="237"/>
-      <c r="AF73" s="237">
+      <c r="AC73" s="232"/>
+      <c r="AD73" s="232"/>
+      <c r="AE73" s="232"/>
+      <c r="AF73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="237"/>
-      <c r="AH73" s="237"/>
-      <c r="AI73" s="237"/>
-      <c r="AJ73" s="237">
+      <c r="AG73" s="232"/>
+      <c r="AH73" s="232"/>
+      <c r="AI73" s="232"/>
+      <c r="AJ73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="237"/>
-      <c r="AL73" s="237"/>
-      <c r="AM73" s="237"/>
-      <c r="AN73" s="237">
+      <c r="AK73" s="232"/>
+      <c r="AL73" s="232"/>
+      <c r="AM73" s="232"/>
+      <c r="AN73" s="232">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="237"/>
-      <c r="AP73" s="237"/>
-      <c r="AQ73" s="237"/>
+      <c r="AO73" s="232"/>
+      <c r="AP73" s="232"/>
+      <c r="AQ73" s="232"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11073,66 +11085,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="238">
+      <c r="D74" s="231">
         <v>0</v>
       </c>
-      <c r="E74" s="238"/>
-      <c r="F74" s="238"/>
-      <c r="G74" s="238"/>
-      <c r="H74" s="238">
+      <c r="E74" s="231"/>
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="231">
         <v>0</v>
       </c>
-      <c r="I74" s="238"/>
-      <c r="J74" s="238"/>
-      <c r="K74" s="238"/>
-      <c r="L74" s="238">
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="231">
         <v>0</v>
       </c>
-      <c r="M74" s="238"/>
-      <c r="N74" s="238"/>
-      <c r="O74" s="238"/>
-      <c r="P74" s="238">
+      <c r="M74" s="231"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231">
         <v>0</v>
       </c>
-      <c r="Q74" s="238"/>
-      <c r="R74" s="238"/>
-      <c r="S74" s="238"/>
-      <c r="T74" s="238">
+      <c r="Q74" s="231"/>
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="231">
         <v>0</v>
       </c>
-      <c r="U74" s="238"/>
-      <c r="V74" s="238"/>
-      <c r="W74" s="238"/>
-      <c r="X74" s="238">
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231">
         <v>0</v>
       </c>
-      <c r="Y74" s="238"/>
-      <c r="Z74" s="238"/>
-      <c r="AA74" s="238"/>
-      <c r="AB74" s="238">
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="231"/>
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231">
         <v>0</v>
       </c>
-      <c r="AC74" s="238"/>
-      <c r="AD74" s="238"/>
-      <c r="AE74" s="238"/>
-      <c r="AF74" s="238">
+      <c r="AC74" s="231"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="231"/>
+      <c r="AF74" s="231">
         <v>0</v>
       </c>
-      <c r="AG74" s="238"/>
-      <c r="AH74" s="238"/>
-      <c r="AI74" s="238"/>
-      <c r="AJ74" s="238">
+      <c r="AG74" s="231"/>
+      <c r="AH74" s="231"/>
+      <c r="AI74" s="231"/>
+      <c r="AJ74" s="231">
         <v>0</v>
       </c>
-      <c r="AK74" s="238"/>
-      <c r="AL74" s="238"/>
-      <c r="AM74" s="238"/>
-      <c r="AN74" s="238">
+      <c r="AK74" s="231"/>
+      <c r="AL74" s="231"/>
+      <c r="AM74" s="231"/>
+      <c r="AN74" s="231">
         <v>0</v>
       </c>
-      <c r="AO74" s="238"/>
-      <c r="AP74" s="238"/>
-      <c r="AQ74" s="238"/>
+      <c r="AO74" s="231"/>
+      <c r="AP74" s="231"/>
+      <c r="AQ74" s="231"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11186,6 +11198,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
     <mergeCell ref="AN74:AQ74"/>
     <mergeCell ref="AN73:AQ73"/>
     <mergeCell ref="D74:G74"/>
@@ -11202,65 +11273,6 @@
     <mergeCell ref="X73:AA73"/>
     <mergeCell ref="AB73:AE73"/>
     <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="766" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F4AE03-AF92-47EE-A57E-4BDCD44A6979}"/>
+  <xr:revisionPtr revIDLastSave="783" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4956391-C8C0-4F92-84D2-611F12D271C6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,50 +1703,42 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1759,25 +1751,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,10 +3126,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3143,66 +3146,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="217" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="217" t="s">
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="217" t="s">
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="217" t="s">
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="217" t="s">
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="217" t="s">
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="217" t="s">
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="217" t="s">
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="217" t="s">
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="219"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="217"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3210,80 +3213,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="212">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="220">
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="212">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="220">
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="212">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="220">
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="212">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="220">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="212">
         <v>45363</v>
       </c>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="220">
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="220">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="212">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="220">
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="213"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="212">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="221"/>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="220">
+      <c r="AG2" s="213"/>
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="212">
         <v>45370</v>
       </c>
-      <c r="AK2" s="221"/>
-      <c r="AL2" s="221"/>
-      <c r="AM2" s="222"/>
-      <c r="AN2" s="220">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="213"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="212">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="221"/>
-      <c r="AP2" s="221"/>
-      <c r="AQ2" s="222"/>
+      <c r="AO2" s="213"/>
+      <c r="AP2" s="213"/>
+      <c r="AQ2" s="214"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="208" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="178">
@@ -3335,7 +3338,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="223"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3401,7 +3404,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="227" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="191">
@@ -3457,7 +3460,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="207"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3511,7 +3514,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="229" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="191">
@@ -3565,7 +3568,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="215"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3619,7 +3622,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="226" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="178">
@@ -3671,7 +3674,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="209"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="207" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="192">
@@ -3773,7 +3776,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="209"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="207" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="191">
@@ -3875,7 +3878,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="209"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="207" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="192">
@@ -3977,7 +3980,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="209"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="207" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="192">
@@ -4079,7 +4082,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="209"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4131,7 +4134,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4183,7 +4186,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="223"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4235,7 +4238,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="228" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="178">
@@ -4289,7 +4292,7 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="210"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="224" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="192">
@@ -4397,7 +4400,7 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="227"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="222" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="192">
@@ -4506,7 +4509,7 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4564,7 +4567,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="222" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="192">
@@ -4618,7 +4621,7 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="216"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4668,7 +4671,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="192">
@@ -4722,7 +4725,7 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="216"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="192">
@@ -4828,7 +4831,7 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="216"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>3</v>
@@ -4880,7 +4883,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="218" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="192">
@@ -4934,7 +4937,7 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="218" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="192">
@@ -5040,7 +5043,7 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -5090,7 +5093,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="218" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="191">
@@ -5146,10 +5149,10 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="209"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="153"/>
       <c r="E38" s="154"/>
@@ -5175,8 +5178,12 @@
       <c r="Y38" s="154"/>
       <c r="Z38" s="154"/>
       <c r="AA38" s="155"/>
-      <c r="AB38" s="153"/>
-      <c r="AC38" s="154"/>
+      <c r="AB38" s="206">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="170">
+        <v>2</v>
+      </c>
       <c r="AD38" s="154"/>
       <c r="AE38" s="155"/>
       <c r="AF38" s="153"/>
@@ -5196,7 +5203,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="178">
@@ -5248,7 +5255,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5298,7 +5305,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5402,7 +5409,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="212" t="s">
+      <c r="B43" s="219" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="178">
@@ -5456,7 +5463,7 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="210"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5506,7 +5513,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="212" t="s">
+      <c r="B45" s="219" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="178">
@@ -5558,7 +5565,7 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="210"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5606,7 +5613,7 @@
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="191">
@@ -5658,7 +5665,7 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="210"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5706,7 +5713,7 @@
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="209" t="s">
+      <c r="B49" s="207" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="192">
@@ -5758,7 +5765,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="210"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5808,7 +5815,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="209" t="s">
+      <c r="B51" s="207" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="192">
@@ -5862,7 +5869,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="210"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5914,7 +5921,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="209" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5966,7 +5973,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6016,7 +6023,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="192">
@@ -6074,7 +6081,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6130,7 +6137,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="208" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="192">
@@ -6182,7 +6189,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="210"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6232,7 +6239,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="207" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="192">
@@ -6288,10 +6295,10 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="210"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="D60" s="153"/>
       <c r="E60" s="154"/>
@@ -6325,8 +6332,12 @@
       <c r="AA60" s="155"/>
       <c r="AB60" s="153"/>
       <c r="AC60" s="154"/>
-      <c r="AD60" s="154"/>
-      <c r="AE60" s="155"/>
+      <c r="AD60" s="170">
+        <v>2</v>
+      </c>
+      <c r="AE60" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AF60" s="153"/>
       <c r="AG60" s="154"/>
       <c r="AH60" s="154"/>
@@ -6342,7 +6353,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="208" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="192">
@@ -6394,7 +6405,7 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="210"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6442,7 +6453,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="208" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="192">
@@ -6496,7 +6507,7 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="210"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6544,7 +6555,7 @@
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="208" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="192">
@@ -6598,7 +6609,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6646,7 +6657,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="207" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="192">
@@ -6716,10 +6727,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="210"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6760,7 +6771,9 @@
       <c r="AB68" s="153"/>
       <c r="AC68" s="154"/>
       <c r="AD68" s="154"/>
-      <c r="AE68" s="155"/>
+      <c r="AE68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AF68" s="153"/>
       <c r="AG68" s="154"/>
       <c r="AH68" s="154"/>
@@ -6776,7 +6789,7 @@
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="208" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="192">
@@ -6832,7 +6845,7 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="210"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6880,7 +6893,7 @@
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="192">
@@ -6915,10 +6928,10 @@
       <c r="AA71" s="155"/>
       <c r="AB71" s="153"/>
       <c r="AC71" s="154"/>
-      <c r="AD71" s="157">
+      <c r="AD71" s="239"/>
+      <c r="AE71" s="164">
         <v>1</v>
       </c>
-      <c r="AE71" s="155"/>
       <c r="AF71" s="153"/>
       <c r="AG71" s="154"/>
       <c r="AH71" s="154"/>
@@ -6937,7 +6950,7 @@
       <c r="B72" s="211"/>
       <c r="C72" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="165"/>
       <c r="E72" s="166"/>
@@ -6968,7 +6981,9 @@
       <c r="AB72" s="165"/>
       <c r="AC72" s="166"/>
       <c r="AD72" s="166"/>
-      <c r="AE72" s="167"/>
+      <c r="AE72" s="195">
+        <v>1</v>
+      </c>
       <c r="AF72" s="165"/>
       <c r="AG72" s="166"/>
       <c r="AH72" s="166"/>
@@ -6990,76 +7005,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="229">
+      <c r="D73" s="210">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="229"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229">
+      <c r="E73" s="210"/>
+      <c r="F73" s="210"/>
+      <c r="G73" s="210"/>
+      <c r="H73" s="210">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="229"/>
-      <c r="J73" s="229"/>
-      <c r="K73" s="229"/>
-      <c r="L73" s="229">
+      <c r="I73" s="210"/>
+      <c r="J73" s="210"/>
+      <c r="K73" s="210"/>
+      <c r="L73" s="210">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="229"/>
-      <c r="N73" s="229"/>
-      <c r="O73" s="229"/>
-      <c r="P73" s="229">
+      <c r="M73" s="210"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="229"/>
-      <c r="R73" s="229"/>
-      <c r="S73" s="229"/>
-      <c r="T73" s="229">
+      <c r="Q73" s="210"/>
+      <c r="R73" s="210"/>
+      <c r="S73" s="210"/>
+      <c r="T73" s="210">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="229"/>
-      <c r="V73" s="229"/>
-      <c r="W73" s="229"/>
-      <c r="X73" s="229">
+      <c r="U73" s="210"/>
+      <c r="V73" s="210"/>
+      <c r="W73" s="210"/>
+      <c r="X73" s="210">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="229"/>
-      <c r="Z73" s="229"/>
-      <c r="AA73" s="229"/>
-      <c r="AB73" s="229">
+      <c r="Y73" s="210"/>
+      <c r="Z73" s="210"/>
+      <c r="AA73" s="210"/>
+      <c r="AB73" s="210">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="229"/>
-      <c r="AD73" s="229"/>
-      <c r="AE73" s="229"/>
-      <c r="AF73" s="229">
+      <c r="AC73" s="210"/>
+      <c r="AD73" s="210"/>
+      <c r="AE73" s="210"/>
+      <c r="AF73" s="210">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="229"/>
-      <c r="AH73" s="229"/>
-      <c r="AI73" s="229"/>
-      <c r="AJ73" s="229">
+      <c r="AG73" s="210"/>
+      <c r="AH73" s="210"/>
+      <c r="AI73" s="210"/>
+      <c r="AJ73" s="210">
         <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="229"/>
-      <c r="AL73" s="229"/>
-      <c r="AM73" s="229"/>
-      <c r="AN73" s="229">
+      <c r="AK73" s="210"/>
+      <c r="AL73" s="210"/>
+      <c r="AM73" s="210"/>
+      <c r="AN73" s="210">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="229"/>
-      <c r="AP73" s="229"/>
-      <c r="AQ73" s="229"/>
+      <c r="AO73" s="210"/>
+      <c r="AP73" s="210"/>
+      <c r="AQ73" s="210"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7068,78 +7083,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>50.5</v>
-      </c>
-      <c r="D74" s="230">
+        <v>58.5</v>
+      </c>
+      <c r="D74" s="209">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="230"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230">
+      <c r="E74" s="209"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="230"/>
-      <c r="J74" s="230"/>
-      <c r="K74" s="230"/>
-      <c r="L74" s="230">
+      <c r="I74" s="209"/>
+      <c r="J74" s="209"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="209">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="230"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230">
+      <c r="M74" s="209"/>
+      <c r="N74" s="209"/>
+      <c r="O74" s="209"/>
+      <c r="P74" s="209">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>8</v>
       </c>
-      <c r="Q74" s="230"/>
-      <c r="R74" s="230"/>
-      <c r="S74" s="230"/>
-      <c r="T74" s="230">
+      <c r="Q74" s="209"/>
+      <c r="R74" s="209"/>
+      <c r="S74" s="209"/>
+      <c r="T74" s="209">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>9</v>
       </c>
-      <c r="U74" s="230"/>
-      <c r="V74" s="230"/>
-      <c r="W74" s="230"/>
-      <c r="X74" s="230">
+      <c r="U74" s="209"/>
+      <c r="V74" s="209"/>
+      <c r="W74" s="209"/>
+      <c r="X74" s="209">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>9</v>
       </c>
-      <c r="Y74" s="230"/>
-      <c r="Z74" s="230"/>
-      <c r="AA74" s="230"/>
-      <c r="AB74" s="230">
+      <c r="Y74" s="209"/>
+      <c r="Z74" s="209"/>
+      <c r="AA74" s="209"/>
+      <c r="AB74" s="209">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="230"/>
-      <c r="AD74" s="230"/>
-      <c r="AE74" s="230"/>
-      <c r="AF74" s="230">
+        <v>8</v>
+      </c>
+      <c r="AC74" s="209"/>
+      <c r="AD74" s="209"/>
+      <c r="AE74" s="209"/>
+      <c r="AF74" s="209">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="230"/>
-      <c r="AH74" s="230"/>
-      <c r="AI74" s="230"/>
-      <c r="AJ74" s="230">
+      <c r="AG74" s="209"/>
+      <c r="AH74" s="209"/>
+      <c r="AI74" s="209"/>
+      <c r="AJ74" s="209">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="230"/>
-      <c r="AL74" s="230"/>
-      <c r="AM74" s="230"/>
-      <c r="AN74" s="230">
+      <c r="AK74" s="209"/>
+      <c r="AL74" s="209"/>
+      <c r="AM74" s="209"/>
+      <c r="AN74" s="209">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AO74" s="230"/>
-      <c r="AP74" s="230"/>
-      <c r="AQ74" s="230"/>
+      <c r="AO74" s="209"/>
+      <c r="AP74" s="209"/>
+      <c r="AQ74" s="209"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7193,51 +7208,20 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7254,20 +7238,51 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7314,66 +7329,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="238" t="s">
+      <c r="D1" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="235" t="s">
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="235" t="s">
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="235" t="s">
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="235" t="s">
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="235" t="s">
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="235" t="s">
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="235" t="s">
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="235" t="s">
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="235" t="s">
+      <c r="AK1" s="232"/>
+      <c r="AL1" s="232"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="237"/>
+      <c r="AO1" s="232"/>
+      <c r="AP1" s="232"/>
+      <c r="AQ1" s="233"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7381,72 +7396,72 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="233">
+      <c r="D2" s="234">
         <v>45356</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="233">
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="234">
         <v>45357</v>
       </c>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="233">
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="234">
         <v>45358</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="233">
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="234">
         <v>45359</v>
       </c>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="233">
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="234">
         <v>45363</v>
       </c>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="233">
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="234">
         <v>45364</v>
       </c>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="233">
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="234">
         <v>45365</v>
       </c>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="233">
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="234">
         <v>45366</v>
       </c>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="234"/>
-      <c r="AJ2" s="233">
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="234">
         <v>45370</v>
       </c>
-      <c r="AK2" s="223"/>
-      <c r="AL2" s="223"/>
-      <c r="AM2" s="234"/>
-      <c r="AN2" s="233">
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="234">
         <v>45371</v>
       </c>
-      <c r="AO2" s="223"/>
-      <c r="AP2" s="223"/>
-      <c r="AQ2" s="234"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="235"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="208" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7497,7 +7512,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="223"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7546,7 +7561,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="227" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12">
@@ -7601,7 +7616,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="207"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7652,7 +7667,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="229" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7705,7 +7720,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="215"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7758,7 +7773,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="207" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7809,7 +7824,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="209"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7856,7 +7871,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="207" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12">
@@ -7907,7 +7922,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="209"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7954,7 +7969,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="207" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12">
@@ -8005,7 +8020,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="209"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8052,7 +8067,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="207" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="12">
@@ -8103,7 +8118,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="209"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8150,7 +8165,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="207" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8201,7 +8216,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="209"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8250,7 +8265,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8301,7 +8316,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="223"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8350,7 +8365,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="228" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="7">
@@ -8403,7 +8418,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="210"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8450,7 +8465,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="224" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="12">
@@ -8501,7 +8516,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="227"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8547,7 +8562,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="222" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="12">
@@ -8602,7 +8617,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8649,7 +8664,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="222" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="12">
@@ -8702,7 +8717,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="216"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8749,7 +8764,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="12">
@@ -8802,7 +8817,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="216"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8849,7 +8864,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="222" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="12">
@@ -8904,7 +8919,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="216"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8951,7 +8966,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="218" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="12">
@@ -9004,7 +9019,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9051,7 +9066,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="218" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="12">
@@ -9104,7 +9119,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9151,7 +9166,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="218" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="12">
@@ -9204,7 +9219,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="209"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9253,7 +9268,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7">
@@ -9304,7 +9319,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9351,7 +9366,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9453,7 +9468,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="212" t="s">
+      <c r="B43" s="219" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9506,7 +9521,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="210"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9555,7 +9570,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="212" t="s">
+      <c r="B45" s="219" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9606,7 +9621,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="210"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9653,7 +9668,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="207" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="12">
@@ -9704,7 +9719,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="210"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9751,7 +9766,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="209" t="s">
+      <c r="B49" s="207" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="12">
@@ -9802,7 +9817,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="210"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9851,7 +9866,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="209" t="s">
+      <c r="B51" s="207" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9908,7 +9923,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="210"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -9958,7 +9973,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="209" t="s">
+      <c r="B53" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -10009,7 +10024,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10056,7 +10071,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="207" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10115,7 +10130,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10162,7 +10177,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="208" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10213,7 +10228,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="210"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10260,7 +10275,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="207" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10341,7 +10356,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="210"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10388,7 +10403,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="208" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10445,7 +10460,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="210"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10492,7 +10507,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="208" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10549,7 +10564,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="210"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10596,7 +10611,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="208" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10647,7 +10662,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10694,7 +10709,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="207" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10764,7 +10779,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="210"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10811,7 +10826,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="208" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="12">
@@ -10866,7 +10881,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="210"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10913,7 +10928,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="207" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="12">
@@ -11016,66 +11031,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="232">
+      <c r="D73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="232"/>
-      <c r="H73" s="232">
+      <c r="E73" s="237"/>
+      <c r="F73" s="237"/>
+      <c r="G73" s="237"/>
+      <c r="H73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="232"/>
-      <c r="J73" s="232"/>
-      <c r="K73" s="232"/>
-      <c r="L73" s="232">
+      <c r="I73" s="237"/>
+      <c r="J73" s="237"/>
+      <c r="K73" s="237"/>
+      <c r="L73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="232"/>
-      <c r="N73" s="232"/>
-      <c r="O73" s="232"/>
-      <c r="P73" s="232">
+      <c r="M73" s="237"/>
+      <c r="N73" s="237"/>
+      <c r="O73" s="237"/>
+      <c r="P73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="232"/>
-      <c r="R73" s="232"/>
-      <c r="S73" s="232"/>
-      <c r="T73" s="232">
+      <c r="Q73" s="237"/>
+      <c r="R73" s="237"/>
+      <c r="S73" s="237"/>
+      <c r="T73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="232"/>
-      <c r="V73" s="232"/>
-      <c r="W73" s="232"/>
-      <c r="X73" s="232">
+      <c r="U73" s="237"/>
+      <c r="V73" s="237"/>
+      <c r="W73" s="237"/>
+      <c r="X73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="232"/>
-      <c r="Z73" s="232"/>
-      <c r="AA73" s="232"/>
-      <c r="AB73" s="232">
+      <c r="Y73" s="237"/>
+      <c r="Z73" s="237"/>
+      <c r="AA73" s="237"/>
+      <c r="AB73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="232"/>
-      <c r="AD73" s="232"/>
-      <c r="AE73" s="232"/>
-      <c r="AF73" s="232">
+      <c r="AC73" s="237"/>
+      <c r="AD73" s="237"/>
+      <c r="AE73" s="237"/>
+      <c r="AF73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="232"/>
-      <c r="AH73" s="232"/>
-      <c r="AI73" s="232"/>
-      <c r="AJ73" s="232">
+      <c r="AG73" s="237"/>
+      <c r="AH73" s="237"/>
+      <c r="AI73" s="237"/>
+      <c r="AJ73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="232"/>
-      <c r="AL73" s="232"/>
-      <c r="AM73" s="232"/>
-      <c r="AN73" s="232">
+      <c r="AK73" s="237"/>
+      <c r="AL73" s="237"/>
+      <c r="AM73" s="237"/>
+      <c r="AN73" s="237">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="232"/>
-      <c r="AP73" s="232"/>
-      <c r="AQ73" s="232"/>
+      <c r="AO73" s="237"/>
+      <c r="AP73" s="237"/>
+      <c r="AQ73" s="237"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11085,66 +11100,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="231">
+      <c r="D74" s="238">
         <v>0</v>
       </c>
-      <c r="E74" s="231"/>
-      <c r="F74" s="231"/>
-      <c r="G74" s="231"/>
-      <c r="H74" s="231">
+      <c r="E74" s="238"/>
+      <c r="F74" s="238"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="238">
         <v>0</v>
       </c>
-      <c r="I74" s="231"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="231"/>
-      <c r="L74" s="231">
+      <c r="I74" s="238"/>
+      <c r="J74" s="238"/>
+      <c r="K74" s="238"/>
+      <c r="L74" s="238">
         <v>0</v>
       </c>
-      <c r="M74" s="231"/>
-      <c r="N74" s="231"/>
-      <c r="O74" s="231"/>
-      <c r="P74" s="231">
+      <c r="M74" s="238"/>
+      <c r="N74" s="238"/>
+      <c r="O74" s="238"/>
+      <c r="P74" s="238">
         <v>0</v>
       </c>
-      <c r="Q74" s="231"/>
-      <c r="R74" s="231"/>
-      <c r="S74" s="231"/>
-      <c r="T74" s="231">
+      <c r="Q74" s="238"/>
+      <c r="R74" s="238"/>
+      <c r="S74" s="238"/>
+      <c r="T74" s="238">
         <v>0</v>
       </c>
-      <c r="U74" s="231"/>
-      <c r="V74" s="231"/>
-      <c r="W74" s="231"/>
-      <c r="X74" s="231">
+      <c r="U74" s="238"/>
+      <c r="V74" s="238"/>
+      <c r="W74" s="238"/>
+      <c r="X74" s="238">
         <v>0</v>
       </c>
-      <c r="Y74" s="231"/>
-      <c r="Z74" s="231"/>
-      <c r="AA74" s="231"/>
-      <c r="AB74" s="231">
+      <c r="Y74" s="238"/>
+      <c r="Z74" s="238"/>
+      <c r="AA74" s="238"/>
+      <c r="AB74" s="238">
         <v>0</v>
       </c>
-      <c r="AC74" s="231"/>
-      <c r="AD74" s="231"/>
-      <c r="AE74" s="231"/>
-      <c r="AF74" s="231">
+      <c r="AC74" s="238"/>
+      <c r="AD74" s="238"/>
+      <c r="AE74" s="238"/>
+      <c r="AF74" s="238">
         <v>0</v>
       </c>
-      <c r="AG74" s="231"/>
-      <c r="AH74" s="231"/>
-      <c r="AI74" s="231"/>
-      <c r="AJ74" s="231">
+      <c r="AG74" s="238"/>
+      <c r="AH74" s="238"/>
+      <c r="AI74" s="238"/>
+      <c r="AJ74" s="238">
         <v>0</v>
       </c>
-      <c r="AK74" s="231"/>
-      <c r="AL74" s="231"/>
-      <c r="AM74" s="231"/>
-      <c r="AN74" s="231">
+      <c r="AK74" s="238"/>
+      <c r="AL74" s="238"/>
+      <c r="AM74" s="238"/>
+      <c r="AN74" s="238">
         <v>0</v>
       </c>
-      <c r="AO74" s="231"/>
-      <c r="AP74" s="231"/>
-      <c r="AQ74" s="231"/>
+      <c r="AO74" s="238"/>
+      <c r="AP74" s="238"/>
+      <c r="AQ74" s="238"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11198,6 +11213,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
@@ -11214,65 +11288,6 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AF73:AI73"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4956391-C8C0-4F92-84D2-611F12D271C6}"/>
+  <xr:revisionPtr revIDLastSave="810" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA6BEB1-12A8-4409-811B-9F6CCA78D1D3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplan!$A$1:$AQ$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -173,21 +174,6 @@
   </si>
   <si>
     <t>Teil 2: Projektbeschreibung</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">US 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend Button</t>
-    </r>
   </si>
   <si>
     <r>
@@ -443,6 +429,21 @@
   <si>
     <t>Korrekturschreiben</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">US 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workflow Zwischenspeicherung</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +453,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -583,6 +584,12 @@
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1779,7 +1786,7 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3126,10 +3133,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE44" sqref="AE44"/>
+      <selection pane="bottomRight" activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="208" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -3405,7 +3412,7 @@
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="227" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="191">
         <f>SUM(Table_1[#This Row])</f>
@@ -3515,7 +3522,7 @@
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="229" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="191">
         <f>SUM(Table_1[#This Row])</f>
@@ -3623,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="226" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -3725,7 +3732,7 @@
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="207" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -3827,7 +3834,7 @@
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="207" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="191">
         <f>SUM(Table_1[#This Row])</f>
@@ -3929,7 +3936,7 @@
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4031,7 +4038,7 @@
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="207" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4239,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="228" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C21" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -4349,7 +4356,7 @@
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4403,7 +4410,7 @@
       <c r="B24" s="225"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D24" s="153"/>
       <c r="E24" s="154"/>
@@ -4439,7 +4446,9 @@
       <c r="AE24" s="155"/>
       <c r="AF24" s="153"/>
       <c r="AG24" s="154"/>
-      <c r="AH24" s="154"/>
+      <c r="AH24" s="170">
+        <v>0.5</v>
+      </c>
       <c r="AI24" s="155"/>
       <c r="AJ24" s="153"/>
       <c r="AK24" s="154"/>
@@ -4453,7 +4462,7 @@
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4512,7 +4521,7 @@
       <c r="B26" s="223"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="153"/>
       <c r="E26" s="154"/>
@@ -4555,7 +4564,9 @@
       <c r="AF26" s="153"/>
       <c r="AG26" s="154"/>
       <c r="AH26" s="154"/>
-      <c r="AI26" s="155"/>
+      <c r="AI26" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AJ26" s="153"/>
       <c r="AK26" s="154"/>
       <c r="AL26" s="154"/>
@@ -4568,7 +4579,7 @@
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="222" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4672,7 +4683,7 @@
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4776,7 +4787,7 @@
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4884,7 +4895,7 @@
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="218" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -4988,7 +4999,7 @@
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -5094,7 +5105,7 @@
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="218" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="191">
         <f>SUM(Table_1[#This Row])</f>
@@ -5152,7 +5163,7 @@
       <c r="B38" s="207"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D38" s="153"/>
       <c r="E38" s="154"/>
@@ -5186,10 +5197,14 @@
       </c>
       <c r="AD38" s="154"/>
       <c r="AE38" s="155"/>
-      <c r="AF38" s="153"/>
+      <c r="AF38" s="206">
+        <v>0.5</v>
+      </c>
       <c r="AG38" s="154"/>
       <c r="AH38" s="154"/>
-      <c r="AI38" s="155"/>
+      <c r="AI38" s="196">
+        <v>1</v>
+      </c>
       <c r="AJ38" s="153"/>
       <c r="AK38" s="154"/>
       <c r="AL38" s="154"/>
@@ -5204,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -5410,7 +5425,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="219" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -5514,7 +5529,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="219" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="178">
         <f>SUM(Table_1[#This Row])</f>
@@ -5614,7 +5629,7 @@
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="191">
         <f>SUM(Table_1[#This Row])</f>
@@ -5714,7 +5729,7 @@
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -5816,7 +5831,7 @@
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="207" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6024,7 +6039,7 @@
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="207" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6138,7 +6153,7 @@
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="208" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6240,7 +6255,7 @@
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="207" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6298,7 +6313,7 @@
       <c r="B60" s="208"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="D60" s="153"/>
       <c r="E60" s="154"/>
@@ -6338,8 +6353,12 @@
       <c r="AE60" s="196">
         <v>0.5</v>
       </c>
-      <c r="AF60" s="153"/>
-      <c r="AG60" s="154"/>
+      <c r="AF60" s="206">
+        <v>2</v>
+      </c>
+      <c r="AG60" s="170">
+        <v>1</v>
+      </c>
       <c r="AH60" s="154"/>
       <c r="AI60" s="155"/>
       <c r="AJ60" s="153"/>
@@ -6354,7 +6373,7 @@
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6454,7 +6473,7 @@
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="208" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6556,7 +6575,7 @@
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="208" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6658,7 +6677,7 @@
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="207" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6730,7 +6749,7 @@
       <c r="B68" s="208"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6777,7 +6796,9 @@
       <c r="AF68" s="153"/>
       <c r="AG68" s="154"/>
       <c r="AH68" s="154"/>
-      <c r="AI68" s="155"/>
+      <c r="AI68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AJ68" s="153"/>
       <c r="AK68" s="154"/>
       <c r="AL68" s="154"/>
@@ -6790,7 +6811,7 @@
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6848,7 +6869,7 @@
       <c r="B70" s="208"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="153"/>
       <c r="E70" s="154"/>
@@ -6879,8 +6900,12 @@
       <c r="AD70" s="154"/>
       <c r="AE70" s="155"/>
       <c r="AF70" s="153"/>
-      <c r="AG70" s="154"/>
-      <c r="AH70" s="154"/>
+      <c r="AG70" s="170">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="239">
+        <v>1</v>
+      </c>
       <c r="AI70" s="155"/>
       <c r="AJ70" s="153"/>
       <c r="AK70" s="154"/>
@@ -6894,7 +6919,7 @@
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="192">
         <f>SUM(Table_1[#This Row])</f>
@@ -6928,7 +6953,7 @@
       <c r="AA71" s="155"/>
       <c r="AB71" s="153"/>
       <c r="AC71" s="154"/>
-      <c r="AD71" s="239"/>
+      <c r="AD71" s="154"/>
       <c r="AE71" s="164">
         <v>1</v>
       </c>
@@ -7083,7 +7108,7 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>58.5</v>
+        <v>66.5</v>
       </c>
       <c r="D74" s="209">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
@@ -7136,7 +7161,7 @@
       <c r="AE74" s="209"/>
       <c r="AF74" s="209">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG74" s="209"/>
       <c r="AH74" s="209"/>
@@ -7290,7 +7315,7 @@
       <formula>LEFT(D$1, 3)&lt;&gt;"Tag"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ54 D55:L55 N55:AQ55 D56:AQ72 J75">
+  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ54 D55:L55 N55:AQ55 J75 D71:AQ72 D70:AG70 AI70:AQ70 D56:AQ69">
     <cfRule type="containsText" dxfId="4" priority="46" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(D3))))</formula>
     </cfRule>
@@ -7468,7 +7493,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
@@ -7517,7 +7542,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="68"/>
@@ -7562,21 +7587,21 @@
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="12">
         <v>0.10416666666666667</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
       <c r="H5" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
@@ -7621,10 +7646,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="52"/>
@@ -7675,10 +7700,10 @@
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="49"/>
@@ -7729,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="54"/>
@@ -7784,7 +7809,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="42"/>
       <c r="H9" s="91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
@@ -7872,7 +7897,7 @@
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12">
         <v>4.1666666666666664E-2</v>
@@ -7970,7 +7995,7 @@
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="12">
         <v>4.1666666666666664E-2</v>
@@ -8068,7 +8093,7 @@
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="12">
         <v>4.1666666666666664E-2</v>
@@ -8366,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="228" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="7">
         <v>0.16666666666666666</v>
@@ -8466,7 +8491,7 @@
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="224" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12">
         <v>8.3333333333333329E-2</v>
@@ -8563,7 +8588,7 @@
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="12">
         <v>0.16666666666666666</v>
@@ -8584,13 +8609,13 @@
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
       <c r="S25" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T25" s="92">
         <v>2</v>
       </c>
       <c r="U25" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V25" s="32"/>
       <c r="W25" s="15"/>
@@ -8665,7 +8690,7 @@
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="222" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="12">
         <v>8.3333333333333329E-2</v>
@@ -8688,10 +8713,10 @@
       <c r="S27" s="15"/>
       <c r="T27" s="13"/>
       <c r="U27" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V27" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W27" s="15"/>
       <c r="X27" s="13"/>
@@ -8765,7 +8790,7 @@
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="222" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="12">
         <v>8.3333333333333329E-2</v>
@@ -8789,10 +8814,10 @@
       <c r="T29" s="13"/>
       <c r="U29" s="14"/>
       <c r="V29" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W29" s="95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="14"/>
@@ -8865,7 +8890,7 @@
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="222" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="12">
         <v>0.20833333333333334</v>
@@ -8967,7 +8992,7 @@
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="218" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="12">
         <v>8.3333333333333329E-2</v>
@@ -9067,7 +9092,7 @@
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="218" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="12">
         <v>0.16666666666666666</v>
@@ -9167,7 +9192,7 @@
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="12">
         <v>0.16666666666666666</v>
@@ -9269,7 +9294,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7">
         <v>8.3333333333333329E-2</v>
@@ -9669,7 +9694,7 @@
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="12">
         <v>2.0833333333333332E-2</v>
@@ -9711,7 +9736,7 @@
       <c r="AL47" s="32"/>
       <c r="AM47" s="33"/>
       <c r="AN47" s="92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AO47" s="106"/>
       <c r="AP47" s="32"/>
@@ -9767,7 +9792,7 @@
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="12">
         <v>4.1666666666666664E-2</v>
@@ -9875,16 +9900,16 @@
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
       <c r="F51" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" s="32"/>
       <c r="K51" s="33"/>
@@ -9928,7 +9953,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E52" s="99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" s="99">
         <v>1</v>
@@ -9986,7 +10011,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
       <c r="J53" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="13"/>
@@ -10084,19 +10109,19 @@
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
       <c r="J55" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" s="15"/>
       <c r="P55" s="13"/>
@@ -10195,7 +10220,7 @@
       <c r="M57" s="14"/>
       <c r="N57" s="32"/>
       <c r="O57" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P57" s="13"/>
       <c r="Q57" s="14"/>
@@ -10294,52 +10319,52 @@
       <c r="N59" s="14"/>
       <c r="O59" s="15"/>
       <c r="P59" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q59" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R59" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V59" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W59" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X59" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y59" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z59" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA59" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB59" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC59" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD59" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE59" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF59" s="31"/>
       <c r="AG59" s="32"/>
@@ -10438,16 +10463,16 @@
       <c r="AD61" s="14"/>
       <c r="AE61" s="15"/>
       <c r="AF61" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG61" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH61" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI61" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ61" s="13"/>
       <c r="AK61" s="14"/>
@@ -10546,16 +10571,16 @@
       <c r="AH63" s="14"/>
       <c r="AI63" s="15"/>
       <c r="AJ63" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK63" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL63" s="106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM63" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN63" s="13"/>
       <c r="AO63" s="14"/>
@@ -10720,13 +10745,13 @@
       <c r="E67" s="109"/>
       <c r="F67" s="110"/>
       <c r="G67" s="111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="108"/>
       <c r="I67" s="109"/>
       <c r="J67" s="109"/>
       <c r="K67" s="111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L67" s="108"/>
       <c r="M67" s="109"/>
@@ -10827,7 +10852,7 @@
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="12">
         <v>8.3333333333333329E-2</v>
@@ -10869,13 +10894,13 @@
       <c r="AL69" s="14"/>
       <c r="AM69" s="15"/>
       <c r="AN69" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO69" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP69" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AQ69" s="15"/>
     </row>
@@ -10929,7 +10954,7 @@
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="12">
         <v>8.3333333333333329E-2</v>

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="810" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA6BEB1-12A8-4409-811B-9F6CCA78D1D3}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC1D977-55D0-4518-9569-F960A83735FA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplan!$A$1:$AQ$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1294,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1710,42 +1709,53 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1758,35 +1768,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3133,10 +3135,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI29" sqref="AI29"/>
+      <selection pane="bottomRight" activeCell="AL53" sqref="AL53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3153,66 +3155,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="215" t="s">
+      <c r="D1" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="215" t="s">
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="215" t="s">
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="215" t="s">
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="215" t="s">
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="215" t="s">
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="215" t="s">
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="215" t="s">
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="215" t="s">
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="215" t="s">
+      <c r="AK1" s="219"/>
+      <c r="AL1" s="219"/>
+      <c r="AM1" s="220"/>
+      <c r="AN1" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="216"/>
-      <c r="AP1" s="216"/>
-      <c r="AQ1" s="217"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="220"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3220,80 +3222,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="212">
+      <c r="D2" s="221">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="212">
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="221">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="212">
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="221">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="212">
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="221">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="212">
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="221">
         <v>45363</v>
       </c>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212">
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="221">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="212">
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="221">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="212">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="221">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="212">
+      <c r="AG2" s="222"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="221">
         <v>45370</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="213"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="212">
+      <c r="AK2" s="222"/>
+      <c r="AL2" s="222"/>
+      <c r="AM2" s="223"/>
+      <c r="AN2" s="221">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="213"/>
-      <c r="AP2" s="213"/>
-      <c r="AQ2" s="214"/>
+      <c r="AO2" s="222"/>
+      <c r="AP2" s="222"/>
+      <c r="AQ2" s="223"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="211" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="178">
@@ -3345,7 +3347,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="224"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3411,7 +3413,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="208" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="191">
@@ -3467,7 +3469,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3521,7 +3523,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="215" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="191">
@@ -3575,7 +3577,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3629,7 +3631,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="229" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="178">
@@ -3681,7 +3683,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3731,7 +3733,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="210" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="192">
@@ -3783,7 +3785,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3833,7 +3835,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="210" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="191">
@@ -3885,7 +3887,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3935,7 +3937,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="210" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="192">
@@ -3987,7 +3989,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4037,7 +4039,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="210" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="192">
@@ -4089,7 +4091,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4141,7 +4143,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="225" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4193,7 +4195,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4245,7 +4247,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="214" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="178">
@@ -4299,7 +4301,7 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4355,7 +4357,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="227" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="192">
@@ -4407,7 +4409,7 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -4461,7 +4463,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="217" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="192">
@@ -4518,7 +4520,7 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>6</v>
@@ -4578,7 +4580,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="217" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="192">
@@ -4632,7 +4634,7 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="217"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4682,7 +4684,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="217" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="192">
@@ -4736,7 +4738,7 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4786,7 +4788,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="217" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="192">
@@ -4842,7 +4844,7 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>3</v>
@@ -4894,7 +4896,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="209" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="192">
@@ -4948,7 +4950,7 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4998,7 +5000,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="209" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="192">
@@ -5054,7 +5056,7 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -5104,7 +5106,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="209" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="191">
@@ -5160,7 +5162,7 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -5218,7 +5220,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="213" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="178">
@@ -5270,7 +5272,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5320,7 +5322,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="210" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5374,10 +5376,10 @@
     </row>
     <row r="42" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="211"/>
+      <c r="B42" s="212"/>
       <c r="C42" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="165"/>
       <c r="E42" s="166"/>
@@ -5411,7 +5413,9 @@
       <c r="AG42" s="166"/>
       <c r="AH42" s="166"/>
       <c r="AI42" s="167"/>
-      <c r="AJ42" s="165"/>
+      <c r="AJ42" s="240">
+        <v>2</v>
+      </c>
       <c r="AK42" s="166"/>
       <c r="AL42" s="166"/>
       <c r="AM42" s="167"/>
@@ -5424,7 +5428,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="213" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="178">
@@ -5478,10 +5482,10 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44" s="153"/>
       <c r="E44" s="154"/>
@@ -5516,9 +5520,15 @@
       <c r="AH44" s="154"/>
       <c r="AI44" s="155"/>
       <c r="AJ44" s="153"/>
-      <c r="AK44" s="154"/>
-      <c r="AL44" s="154"/>
-      <c r="AM44" s="155"/>
+      <c r="AK44" s="170">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="170">
+        <v>2</v>
+      </c>
+      <c r="AM44" s="196">
+        <v>1</v>
+      </c>
       <c r="AN44" s="153"/>
       <c r="AO44" s="154"/>
       <c r="AP44" s="154"/>
@@ -5528,7 +5538,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="213" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="178">
@@ -5580,7 +5590,7 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5628,7 +5638,7 @@
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="210" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="191">
@@ -5680,7 +5690,7 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -5728,7 +5738,7 @@
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="210" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="192">
@@ -5780,7 +5790,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5830,7 +5840,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="210" t="s">
         <v>85</v>
       </c>
       <c r="C51" s="192">
@@ -5884,7 +5894,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5936,7 +5946,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="210" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5988,7 +5998,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6038,7 +6048,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="210" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="192">
@@ -6096,7 +6106,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6152,7 +6162,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="211" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="192">
@@ -6204,7 +6214,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6254,7 +6264,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="210" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="192">
@@ -6310,7 +6320,7 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>7.5</v>
@@ -6372,7 +6382,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="211" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="192">
@@ -6424,10 +6434,10 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="153"/>
       <c r="E62" s="154"/>
@@ -6462,7 +6472,9 @@
       <c r="AH62" s="154"/>
       <c r="AI62" s="155"/>
       <c r="AJ62" s="153"/>
-      <c r="AK62" s="154"/>
+      <c r="AK62" s="170">
+        <v>1</v>
+      </c>
       <c r="AL62" s="154"/>
       <c r="AM62" s="155"/>
       <c r="AN62" s="153"/>
@@ -6472,7 +6484,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="211" t="s">
         <v>90</v>
       </c>
       <c r="C63" s="192">
@@ -6526,7 +6538,7 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="211"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6574,7 +6586,7 @@
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="211" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="192">
@@ -6628,7 +6640,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="211"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6676,7 +6688,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="210" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="192">
@@ -6746,10 +6758,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6802,7 +6814,9 @@
       <c r="AJ68" s="153"/>
       <c r="AK68" s="154"/>
       <c r="AL68" s="154"/>
-      <c r="AM68" s="155"/>
+      <c r="AM68" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AN68" s="153"/>
       <c r="AO68" s="154"/>
       <c r="AP68" s="154"/>
@@ -6810,7 +6824,7 @@
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="211" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="192">
@@ -6866,10 +6880,10 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D70" s="153"/>
       <c r="E70" s="154"/>
@@ -6903,14 +6917,16 @@
       <c r="AG70" s="170">
         <v>1</v>
       </c>
-      <c r="AH70" s="239">
+      <c r="AH70" s="207">
         <v>1</v>
       </c>
       <c r="AI70" s="155"/>
       <c r="AJ70" s="153"/>
       <c r="AK70" s="154"/>
       <c r="AL70" s="154"/>
-      <c r="AM70" s="155"/>
+      <c r="AM70" s="196">
+        <v>0.5</v>
+      </c>
       <c r="AN70" s="153"/>
       <c r="AO70" s="154"/>
       <c r="AP70" s="154"/>
@@ -6918,7 +6934,7 @@
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="210" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="192">
@@ -6972,7 +6988,7 @@
     </row>
     <row r="72" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="211"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -7030,76 +7046,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="210">
+      <c r="D73" s="230">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="210"/>
-      <c r="F73" s="210"/>
-      <c r="G73" s="210"/>
-      <c r="H73" s="210">
+      <c r="E73" s="230"/>
+      <c r="F73" s="230"/>
+      <c r="G73" s="230"/>
+      <c r="H73" s="230">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="210"/>
-      <c r="J73" s="210"/>
-      <c r="K73" s="210"/>
-      <c r="L73" s="210">
+      <c r="I73" s="230"/>
+      <c r="J73" s="230"/>
+      <c r="K73" s="230"/>
+      <c r="L73" s="230">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
-      <c r="P73" s="210">
+      <c r="M73" s="230"/>
+      <c r="N73" s="230"/>
+      <c r="O73" s="230"/>
+      <c r="P73" s="230">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="210"/>
-      <c r="R73" s="210"/>
-      <c r="S73" s="210"/>
-      <c r="T73" s="210">
+      <c r="Q73" s="230"/>
+      <c r="R73" s="230"/>
+      <c r="S73" s="230"/>
+      <c r="T73" s="230">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="210"/>
-      <c r="V73" s="210"/>
-      <c r="W73" s="210"/>
-      <c r="X73" s="210">
+      <c r="U73" s="230"/>
+      <c r="V73" s="230"/>
+      <c r="W73" s="230"/>
+      <c r="X73" s="230">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="210"/>
-      <c r="Z73" s="210"/>
-      <c r="AA73" s="210"/>
-      <c r="AB73" s="210">
+      <c r="Y73" s="230"/>
+      <c r="Z73" s="230"/>
+      <c r="AA73" s="230"/>
+      <c r="AB73" s="230">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="210"/>
-      <c r="AD73" s="210"/>
-      <c r="AE73" s="210"/>
-      <c r="AF73" s="210">
+      <c r="AC73" s="230"/>
+      <c r="AD73" s="230"/>
+      <c r="AE73" s="230"/>
+      <c r="AF73" s="230">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="210"/>
-      <c r="AH73" s="210"/>
-      <c r="AI73" s="210"/>
-      <c r="AJ73" s="210">
-        <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ44:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
+      <c r="AG73" s="230"/>
+      <c r="AH73" s="230"/>
+      <c r="AI73" s="230"/>
+      <c r="AJ73" s="230">
+        <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ45:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="210"/>
-      <c r="AL73" s="210"/>
-      <c r="AM73" s="210"/>
-      <c r="AN73" s="210">
+      <c r="AK73" s="230"/>
+      <c r="AL73" s="230"/>
+      <c r="AM73" s="230"/>
+      <c r="AN73" s="230">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="210"/>
-      <c r="AP73" s="210"/>
-      <c r="AQ73" s="210"/>
+      <c r="AO73" s="230"/>
+      <c r="AP73" s="230"/>
+      <c r="AQ73" s="230"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7108,78 +7124,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>66.5</v>
-      </c>
-      <c r="D74" s="209">
+        <v>74.5</v>
+      </c>
+      <c r="D74" s="231">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="209"/>
-      <c r="F74" s="209"/>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209">
+      <c r="E74" s="231"/>
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="231">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="209"/>
-      <c r="J74" s="209"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="209">
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="231">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="209"/>
-      <c r="N74" s="209"/>
-      <c r="O74" s="209"/>
-      <c r="P74" s="209">
+      <c r="M74" s="231"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>8</v>
       </c>
-      <c r="Q74" s="209"/>
-      <c r="R74" s="209"/>
-      <c r="S74" s="209"/>
-      <c r="T74" s="209">
+      <c r="Q74" s="231"/>
+      <c r="R74" s="231"/>
+      <c r="S74" s="231"/>
+      <c r="T74" s="231">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>9</v>
       </c>
-      <c r="U74" s="209"/>
-      <c r="V74" s="209"/>
-      <c r="W74" s="209"/>
-      <c r="X74" s="209">
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>9</v>
       </c>
-      <c r="Y74" s="209"/>
-      <c r="Z74" s="209"/>
-      <c r="AA74" s="209"/>
-      <c r="AB74" s="209">
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="231"/>
+      <c r="AA74" s="231"/>
+      <c r="AB74" s="231">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>8</v>
       </c>
-      <c r="AC74" s="209"/>
-      <c r="AD74" s="209"/>
-      <c r="AE74" s="209"/>
-      <c r="AF74" s="209">
+      <c r="AC74" s="231"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="231"/>
+      <c r="AF74" s="231">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>8</v>
       </c>
-      <c r="AG74" s="209"/>
-      <c r="AH74" s="209"/>
-      <c r="AI74" s="209"/>
-      <c r="AJ74" s="209">
+      <c r="AG74" s="231"/>
+      <c r="AH74" s="231"/>
+      <c r="AI74" s="231"/>
+      <c r="AJ74" s="231">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="209"/>
-      <c r="AL74" s="209"/>
-      <c r="AM74" s="209"/>
-      <c r="AN74" s="209">
+        <v>8</v>
+      </c>
+      <c r="AK74" s="231"/>
+      <c r="AL74" s="231"/>
+      <c r="AM74" s="231"/>
+      <c r="AN74" s="231">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
         <v>0</v>
       </c>
-      <c r="AO74" s="209"/>
-      <c r="AP74" s="209"/>
-      <c r="AQ74" s="209"/>
+      <c r="AO74" s="231"/>
+      <c r="AP74" s="231"/>
+      <c r="AQ74" s="231"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7233,20 +7249,51 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7263,51 +7310,20 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7315,7 +7331,7 @@
       <formula>LEFT(D$1, 3)&lt;&gt;"Tag"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ54 D55:L55 N55:AQ55 J75 D71:AQ72 D70:AG70 AI70:AQ70 D56:AQ69">
+  <conditionalFormatting sqref="D3:AQ23 D24:U24 W24:AQ24 D25:AQ48 D49:E49 G49:AQ49 D50:AQ51 E52:AQ52 D53:AQ54 D55:L55 N55:AQ55 D56:AQ69 D70:AG70 AI70:AQ70 D71:AQ72 J75">
     <cfRule type="containsText" dxfId="4" priority="46" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(D3))))</formula>
     </cfRule>
@@ -7336,7 +7352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629A963A-F587-476A-96F3-2418A450BC77}">
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
@@ -7354,66 +7370,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="231" t="s">
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="231" t="s">
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="231" t="s">
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="231" t="s">
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="231" t="s">
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="231" t="s">
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="231" t="s">
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="231" t="s">
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="231" t="s">
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="232"/>
-      <c r="AP1" s="232"/>
-      <c r="AQ1" s="233"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="238"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7424,69 +7440,69 @@
       <c r="D2" s="234">
         <v>45356</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
       <c r="G2" s="235"/>
       <c r="H2" s="234">
         <v>45357</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
       <c r="K2" s="235"/>
       <c r="L2" s="234">
         <v>45358</v>
       </c>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
       <c r="O2" s="235"/>
       <c r="P2" s="234">
         <v>45359</v>
       </c>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
       <c r="S2" s="235"/>
       <c r="T2" s="234">
         <v>45363</v>
       </c>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
       <c r="W2" s="235"/>
       <c r="X2" s="234">
         <v>45364</v>
       </c>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
       <c r="AA2" s="235"/>
       <c r="AB2" s="234">
         <v>45365</v>
       </c>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="224"/>
       <c r="AE2" s="235"/>
       <c r="AF2" s="234">
         <v>45366</v>
       </c>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
+      <c r="AG2" s="224"/>
+      <c r="AH2" s="224"/>
       <c r="AI2" s="235"/>
       <c r="AJ2" s="234">
         <v>45370</v>
       </c>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="224"/>
       <c r="AM2" s="235"/>
       <c r="AN2" s="234">
         <v>45371</v>
       </c>
-      <c r="AO2" s="220"/>
-      <c r="AP2" s="220"/>
+      <c r="AO2" s="224"/>
+      <c r="AP2" s="224"/>
       <c r="AQ2" s="235"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="211" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7537,7 +7553,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="220"/>
+      <c r="B4" s="224"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7586,7 +7602,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="208" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="12">
@@ -7641,7 +7657,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="227"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7692,7 +7708,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="215" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7745,7 +7761,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="230"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7798,7 +7814,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="210" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7849,7 +7865,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="207"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7896,7 +7912,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="210" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="12">
@@ -7947,7 +7963,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="207"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -7994,7 +8010,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="210" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="12">
@@ -8045,7 +8061,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="207"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8092,7 +8108,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="210" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="12">
@@ -8143,7 +8159,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="207"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8190,7 +8206,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="210" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8241,7 +8257,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="207"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8290,7 +8306,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="225" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8341,7 +8357,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="220"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8390,7 +8406,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="214" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="7">
@@ -8443,7 +8459,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8490,7 +8506,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="227" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="12">
@@ -8541,7 +8557,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="225"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8587,7 +8603,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="217" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="12">
@@ -8642,7 +8658,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8689,7 +8705,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="217" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="12">
@@ -8742,7 +8758,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="222"/>
+      <c r="B28" s="217"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8789,7 +8805,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="217" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="12">
@@ -8842,7 +8858,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="222"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8889,7 +8905,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="217" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="12">
@@ -8944,7 +8960,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -8991,7 +9007,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="209" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="12">
@@ -9044,7 +9060,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="207"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9091,7 +9107,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="209" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="12">
@@ -9144,7 +9160,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="207"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9191,7 +9207,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="209" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="12">
@@ -9244,7 +9260,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="207"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9293,7 +9309,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219" t="s">
+      <c r="B39" s="213" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="7">
@@ -9344,7 +9360,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9391,7 +9407,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="210" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9444,7 +9460,7 @@
     </row>
     <row r="42" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="211"/>
+      <c r="B42" s="212"/>
       <c r="C42" s="17">
         <v>0</v>
       </c>
@@ -9493,7 +9509,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="213" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9546,7 +9562,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="208"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9595,7 +9611,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="213" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9646,7 +9662,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="208"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9693,7 +9709,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="210" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="12">
@@ -9744,7 +9760,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="208"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9791,7 +9807,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="210" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="12">
@@ -9842,7 +9858,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="208"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9891,7 +9907,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="207" t="s">
+      <c r="B51" s="210" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9948,7 +9964,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="208"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -9998,7 +10014,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="210" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -10049,7 +10065,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="208"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10096,7 +10112,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="207" t="s">
+      <c r="B55" s="210" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10155,7 +10171,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="208"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10202,7 +10218,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="208" t="s">
+      <c r="B57" s="211" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10253,7 +10269,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10300,7 +10316,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="210" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10381,7 +10397,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="208"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10428,7 +10444,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="211" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10485,7 +10501,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="208"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10532,7 +10548,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="211" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10589,7 +10605,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="208"/>
+      <c r="B64" s="211"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10636,7 +10652,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="208" t="s">
+      <c r="B65" s="211" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10687,7 +10703,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="208"/>
+      <c r="B66" s="211"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10734,7 +10750,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="210" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10804,7 +10820,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="208"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10851,7 +10867,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="211" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="12">
@@ -10906,7 +10922,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="208"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10953,7 +10969,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="210" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="12">
@@ -11004,7 +11020,7 @@
     </row>
     <row r="72" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="211"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="17">
         <v>0</v>
       </c>
@@ -11056,66 +11072,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="237">
+      <c r="D73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="237"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="237"/>
-      <c r="H73" s="237">
+      <c r="E73" s="233"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="233"/>
+      <c r="H73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="237"/>
-      <c r="J73" s="237"/>
-      <c r="K73" s="237"/>
-      <c r="L73" s="237">
+      <c r="I73" s="233"/>
+      <c r="J73" s="233"/>
+      <c r="K73" s="233"/>
+      <c r="L73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="237"/>
-      <c r="N73" s="237"/>
-      <c r="O73" s="237"/>
-      <c r="P73" s="237">
+      <c r="M73" s="233"/>
+      <c r="N73" s="233"/>
+      <c r="O73" s="233"/>
+      <c r="P73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="237"/>
-      <c r="R73" s="237"/>
-      <c r="S73" s="237"/>
-      <c r="T73" s="237">
+      <c r="Q73" s="233"/>
+      <c r="R73" s="233"/>
+      <c r="S73" s="233"/>
+      <c r="T73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="237"/>
-      <c r="V73" s="237"/>
-      <c r="W73" s="237"/>
-      <c r="X73" s="237">
+      <c r="U73" s="233"/>
+      <c r="V73" s="233"/>
+      <c r="W73" s="233"/>
+      <c r="X73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="237"/>
-      <c r="Z73" s="237"/>
-      <c r="AA73" s="237"/>
-      <c r="AB73" s="237">
+      <c r="Y73" s="233"/>
+      <c r="Z73" s="233"/>
+      <c r="AA73" s="233"/>
+      <c r="AB73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="237"/>
-      <c r="AD73" s="237"/>
-      <c r="AE73" s="237"/>
-      <c r="AF73" s="237">
+      <c r="AC73" s="233"/>
+      <c r="AD73" s="233"/>
+      <c r="AE73" s="233"/>
+      <c r="AF73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="237"/>
-      <c r="AH73" s="237"/>
-      <c r="AI73" s="237"/>
-      <c r="AJ73" s="237">
+      <c r="AG73" s="233"/>
+      <c r="AH73" s="233"/>
+      <c r="AI73" s="233"/>
+      <c r="AJ73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="237"/>
-      <c r="AL73" s="237"/>
-      <c r="AM73" s="237"/>
-      <c r="AN73" s="237">
+      <c r="AK73" s="233"/>
+      <c r="AL73" s="233"/>
+      <c r="AM73" s="233"/>
+      <c r="AN73" s="233">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="237"/>
-      <c r="AP73" s="237"/>
-      <c r="AQ73" s="237"/>
+      <c r="AO73" s="233"/>
+      <c r="AP73" s="233"/>
+      <c r="AQ73" s="233"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11125,66 +11141,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="238">
+      <c r="D74" s="232">
         <v>0</v>
       </c>
-      <c r="E74" s="238"/>
-      <c r="F74" s="238"/>
-      <c r="G74" s="238"/>
-      <c r="H74" s="238">
+      <c r="E74" s="232"/>
+      <c r="F74" s="232"/>
+      <c r="G74" s="232"/>
+      <c r="H74" s="232">
         <v>0</v>
       </c>
-      <c r="I74" s="238"/>
-      <c r="J74" s="238"/>
-      <c r="K74" s="238"/>
-      <c r="L74" s="238">
+      <c r="I74" s="232"/>
+      <c r="J74" s="232"/>
+      <c r="K74" s="232"/>
+      <c r="L74" s="232">
         <v>0</v>
       </c>
-      <c r="M74" s="238"/>
-      <c r="N74" s="238"/>
-      <c r="O74" s="238"/>
-      <c r="P74" s="238">
+      <c r="M74" s="232"/>
+      <c r="N74" s="232"/>
+      <c r="O74" s="232"/>
+      <c r="P74" s="232">
         <v>0</v>
       </c>
-      <c r="Q74" s="238"/>
-      <c r="R74" s="238"/>
-      <c r="S74" s="238"/>
-      <c r="T74" s="238">
+      <c r="Q74" s="232"/>
+      <c r="R74" s="232"/>
+      <c r="S74" s="232"/>
+      <c r="T74" s="232">
         <v>0</v>
       </c>
-      <c r="U74" s="238"/>
-      <c r="V74" s="238"/>
-      <c r="W74" s="238"/>
-      <c r="X74" s="238">
+      <c r="U74" s="232"/>
+      <c r="V74" s="232"/>
+      <c r="W74" s="232"/>
+      <c r="X74" s="232">
         <v>0</v>
       </c>
-      <c r="Y74" s="238"/>
-      <c r="Z74" s="238"/>
-      <c r="AA74" s="238"/>
-      <c r="AB74" s="238">
+      <c r="Y74" s="232"/>
+      <c r="Z74" s="232"/>
+      <c r="AA74" s="232"/>
+      <c r="AB74" s="232">
         <v>0</v>
       </c>
-      <c r="AC74" s="238"/>
-      <c r="AD74" s="238"/>
-      <c r="AE74" s="238"/>
-      <c r="AF74" s="238">
+      <c r="AC74" s="232"/>
+      <c r="AD74" s="232"/>
+      <c r="AE74" s="232"/>
+      <c r="AF74" s="232">
         <v>0</v>
       </c>
-      <c r="AG74" s="238"/>
-      <c r="AH74" s="238"/>
-      <c r="AI74" s="238"/>
-      <c r="AJ74" s="238">
+      <c r="AG74" s="232"/>
+      <c r="AH74" s="232"/>
+      <c r="AI74" s="232"/>
+      <c r="AJ74" s="232">
         <v>0</v>
       </c>
-      <c r="AK74" s="238"/>
-      <c r="AL74" s="238"/>
-      <c r="AM74" s="238"/>
-      <c r="AN74" s="238">
+      <c r="AK74" s="232"/>
+      <c r="AL74" s="232"/>
+      <c r="AM74" s="232"/>
+      <c r="AN74" s="232">
         <v>0</v>
       </c>
-      <c r="AO74" s="238"/>
-      <c r="AP74" s="238"/>
-      <c r="AQ74" s="238"/>
+      <c r="AO74" s="232"/>
+      <c r="AP74" s="232"/>
+      <c r="AQ74" s="232"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11238,6 +11254,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
     <mergeCell ref="AN74:AQ74"/>
     <mergeCell ref="AN73:AQ73"/>
     <mergeCell ref="D74:G74"/>
@@ -11254,65 +11329,6 @@
     <mergeCell ref="X73:AA73"/>
     <mergeCell ref="AB73:AE73"/>
     <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
+++ b/IPA/IPA_Zeitplan_Samuel_Hajnik_Generali_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed25a77028e1e9a0/Documents/IPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC1D977-55D0-4518-9569-F960A83735FA}"/>
+  <xr:revisionPtr revIDLastSave="842" documentId="8_{CA89E608-ECF5-4728-B5BF-4A821F268A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A529CA9-B664-4C33-BF17-5DCDCDB3684B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,50 +1712,45 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1768,28 +1763,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3135,10 +3135,10 @@
   <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL53" sqref="AL53"/>
+      <selection pane="bottomRight" activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3155,66 +3155,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="218" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="218" t="s">
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="218" t="s">
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="218" t="s">
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="218" t="s">
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="218" t="s">
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="218" t="s">
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="219"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="218" t="s">
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="219"/>
-      <c r="AL1" s="219"/>
-      <c r="AM1" s="220"/>
-      <c r="AN1" s="218" t="s">
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="219"/>
-      <c r="AP1" s="219"/>
-      <c r="AQ1" s="220"/>
+      <c r="AO1" s="218"/>
+      <c r="AP1" s="218"/>
+      <c r="AQ1" s="219"/>
     </row>
     <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3222,80 +3222,80 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="221">
+      <c r="D2" s="214">
         <f>Variabeln!B1</f>
         <v>45356</v>
       </c>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="221">
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="214">
         <f>D2+1</f>
         <v>45357</v>
       </c>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="221">
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="214">
         <f>H2+1</f>
         <v>45358</v>
       </c>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="221">
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="214">
         <f>L2+1</f>
         <v>45359</v>
       </c>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="221">
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="214">
         <v>45363</v>
       </c>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="221">
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="214">
         <f>T2+1</f>
         <v>45364</v>
       </c>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="221">
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="214">
         <f>X2+1</f>
         <v>45365</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="221">
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="214">
         <f>AB2+1</f>
         <v>45366</v>
       </c>
-      <c r="AG2" s="222"/>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
-      <c r="AJ2" s="221">
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="214">
         <v>45370</v>
       </c>
-      <c r="AK2" s="222"/>
-      <c r="AL2" s="222"/>
-      <c r="AM2" s="223"/>
-      <c r="AN2" s="221">
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="214">
         <f>AJ2+1</f>
         <v>45371</v>
       </c>
-      <c r="AO2" s="222"/>
-      <c r="AP2" s="222"/>
-      <c r="AQ2" s="223"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="216"/>
     </row>
     <row r="3" spans="1:59" s="53" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="210" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="178">
@@ -3347,7 +3347,7 @@
     </row>
     <row r="4" spans="1:59" s="44" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="224"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="5" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="229" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="191">
@@ -3469,7 +3469,7 @@
     </row>
     <row r="6" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="208"/>
+      <c r="B6" s="229"/>
       <c r="C6" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="7" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="231" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="191">
@@ -3577,7 +3577,7 @@
     </row>
     <row r="8" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="216"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3631,7 +3631,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="228" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="178">
@@ -3683,7 +3683,7 @@
     </row>
     <row r="10" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="210"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="11" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="209" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="192">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="12" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="210"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="13" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="209" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="191">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="14" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="210"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="15" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="209" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="192">
@@ -3989,7 +3989,7 @@
     </row>
     <row r="16" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="210"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="17" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="209" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="192">
@@ -4091,7 +4091,7 @@
     </row>
     <row r="18" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="210"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -4143,7 +4143,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="223" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="178">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="20" spans="1:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="224"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -4247,7 +4247,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="230" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="178">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="22" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="211"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="23" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="226" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="192">
@@ -4409,7 +4409,7 @@
     </row>
     <row r="24" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="228"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="25" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="217" t="s">
+      <c r="B25" s="224" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="192">
@@ -4520,7 +4520,7 @@
     </row>
     <row r="26" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="226"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>6</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="27" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="217" t="s">
+      <c r="B27" s="224" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="192">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="28" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="217"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="29" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="217" t="s">
+      <c r="B29" s="224" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="192">
@@ -4738,7 +4738,7 @@
     </row>
     <row r="30" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="217"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="31" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="217" t="s">
+      <c r="B31" s="224" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="192">
@@ -4844,7 +4844,7 @@
     </row>
     <row r="32" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="217"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>3</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="33" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="220" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="192">
@@ -4950,7 +4950,7 @@
     </row>
     <row r="34" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="210"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="35" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="220" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="192">
@@ -5056,7 +5056,7 @@
     </row>
     <row r="36" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="210"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2.5</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="37" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="220" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="191">
@@ -5162,7 +5162,7 @@
     </row>
     <row r="38" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="210"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>5.5</v>
@@ -5220,7 +5220,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="221" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="178">
@@ -5272,7 +5272,7 @@
     </row>
     <row r="40" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="211"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="41" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="210" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="192">
@@ -5376,7 +5376,7 @@
     </row>
     <row r="42" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="212"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -5413,7 +5413,7 @@
       <c r="AG42" s="166"/>
       <c r="AH42" s="166"/>
       <c r="AI42" s="167"/>
-      <c r="AJ42" s="240">
+      <c r="AJ42" s="208">
         <v>2</v>
       </c>
       <c r="AK42" s="166"/>
@@ -5428,7 +5428,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="221" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="178">
@@ -5482,7 +5482,7 @@
     </row>
     <row r="44" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="211"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>4</v>
@@ -5538,7 +5538,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="221" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="178">
@@ -5590,10 +5590,10 @@
     </row>
     <row r="46" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="211"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="153"/>
       <c r="E46" s="154"/>
@@ -5631,14 +5631,16 @@
       <c r="AK46" s="154"/>
       <c r="AL46" s="154"/>
       <c r="AM46" s="155"/>
-      <c r="AN46" s="153"/>
+      <c r="AN46" s="206">
+        <v>1</v>
+      </c>
       <c r="AO46" s="154"/>
       <c r="AP46" s="154"/>
       <c r="AQ46" s="155"/>
     </row>
     <row r="47" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="210" t="s">
+      <c r="B47" s="209" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="191">
@@ -5690,10 +5692,10 @@
     </row>
     <row r="48" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="211"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="153"/>
       <c r="E48" s="154"/>
@@ -5734,11 +5736,13 @@
       <c r="AN48" s="153"/>
       <c r="AO48" s="154"/>
       <c r="AP48" s="154"/>
-      <c r="AQ48" s="155"/>
+      <c r="AQ48" s="196">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="209" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="192">
@@ -5790,7 +5794,7 @@
     </row>
     <row r="50" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="211"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="191">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -5840,7 +5844,7 @@
     </row>
     <row r="51" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="210" t="s">
+      <c r="B51" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C51" s="192">
@@ -5894,7 +5898,7 @@
     </row>
     <row r="52" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="211"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="197">
         <f>SUM(Table_1[#This Row])</f>
         <v>1.5</v>
@@ -5946,7 +5950,7 @@
     </row>
     <row r="53" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="210" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="192">
@@ -5998,7 +6002,7 @@
     </row>
     <row r="54" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="211"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6048,7 +6052,7 @@
     </row>
     <row r="55" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="210" t="s">
+      <c r="B55" s="209" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="192">
@@ -6106,7 +6110,7 @@
     </row>
     <row r="56" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="211"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>4.5</v>
@@ -6162,7 +6166,7 @@
     </row>
     <row r="57" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="211" t="s">
+      <c r="B57" s="210" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="192">
@@ -6214,7 +6218,7 @@
     </row>
     <row r="58" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="211"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0.5</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="59" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="210" t="s">
+      <c r="B59" s="209" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="192">
@@ -6320,7 +6324,7 @@
     </row>
     <row r="60" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="211"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>7.5</v>
@@ -6382,7 +6386,7 @@
     </row>
     <row r="61" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="210" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="192">
@@ -6434,7 +6438,7 @@
     </row>
     <row r="62" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="211"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>1</v>
@@ -6484,7 +6488,7 @@
     </row>
     <row r="63" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="211" t="s">
+      <c r="B63" s="210" t="s">
         <v>90</v>
       </c>
       <c r="C63" s="192">
@@ -6538,10 +6542,10 @@
     </row>
     <row r="64" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="211"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D64" s="153"/>
       <c r="E64" s="154"/>
@@ -6579,14 +6583,18 @@
       <c r="AK64" s="154"/>
       <c r="AL64" s="154"/>
       <c r="AM64" s="155"/>
-      <c r="AN64" s="153"/>
-      <c r="AO64" s="154"/>
+      <c r="AN64" s="206">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="170">
+        <v>1.5</v>
+      </c>
       <c r="AP64" s="154"/>
       <c r="AQ64" s="155"/>
     </row>
     <row r="65" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="211" t="s">
+      <c r="B65" s="210" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="192">
@@ -6640,7 +6648,7 @@
     </row>
     <row r="66" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="211"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="192">
         <f>SUM(Table_1[#This Row])</f>
         <v>0</v>
@@ -6688,7 +6696,7 @@
     </row>
     <row r="67" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="209" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="192">
@@ -6758,10 +6766,10 @@
     </row>
     <row r="68" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="211"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="191">
         <f>SUM(Table_1[#This Row])</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D68" s="153"/>
       <c r="E68" s="154"/>
@@ -6820,11 +6828,13 @@
       <c r="AN68" s="153"/>
       <c r="AO68" s="154"/>
       <c r="AP68" s="154"/>
-      <c r="AQ68" s="155"/>
+      <c r="AQ68" s="196">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="210" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="192">
@@ -6880,10 +6890,10 @@
     </row>
     <row r="70" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="211"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="192">
         <f>SUM(Table_1[#This Row])</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="153"/>
       <c r="E70" s="154"/>
@@ -6928,13 +6938,19 @@
         <v>0.5</v>
       </c>
       <c r="AN70" s="153"/>
-      <c r="AO70" s="154"/>
-      <c r="AP70" s="154"/>
-      <c r="AQ70" s="155"/>
+      <c r="AO70" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="AP70" s="170">
+        <v>2</v>
+      </c>
+      <c r="AQ70" s="196">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="210" t="s">
+      <c r="B71" s="209" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="192">
@@ -6988,7 +7004,7 @@
     </row>
     <row r="72" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="212"/>
+      <c r="B72" s="213"/>
       <c r="C72" s="190">
         <f>SUM(Table_1[#This Row])</f>
         <v>2</v>
@@ -7046,76 +7062,76 @@
         <f>SUM(C55,C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C57,C59,C61,C63,C65,C67,C69,C71)</f>
         <v>80</v>
       </c>
-      <c r="D73" s="230">
+      <c r="D73" s="212">
         <f>SUM(D3:G3,D5:G5,D7:G7,D9:G9,D11:G11,D13:G13,D15:G15,D17:G17,D19:G19,D21:G21,D23:G23,D25:G25,D27:G27,D29:G29,D31:G31,D33:G33,D35:G35,D37:G37,D39:G39,D41:G41,D43:G43,D44:G45,D47:G47,D49:G49,D51:G51,D53:G53,D55:G55,D57:G57,D59:G59,D61:G61,D63:G63,D65:G65,D67:G67,D69:G69,D71:G71)</f>
         <v>8</v>
       </c>
-      <c r="E73" s="230"/>
-      <c r="F73" s="230"/>
-      <c r="G73" s="230"/>
-      <c r="H73" s="230">
+      <c r="E73" s="212"/>
+      <c r="F73" s="212"/>
+      <c r="G73" s="212"/>
+      <c r="H73" s="212">
         <f>SUM(H3:K3,H5:K5,H7:K7,H9:K9,H11:K11,H13:K13,H15:K15,H17:K17,H19:K19,H21:K21,H23:K23,H25:K25,H27:K27,H29:K29,H31:K31,H33:K33,H35:K35,H37:K37,H39:K39,H41:K41,H43:K43,H44:K45,H47:K47,H49:K49,H51:K51,H53:K53,H55:K55,H57:K57,H59:K59,H61:K61,H63:K63,H65:K65,H67:K67,H69:K69,H71:K71)</f>
         <v>8</v>
       </c>
-      <c r="I73" s="230"/>
-      <c r="J73" s="230"/>
-      <c r="K73" s="230"/>
-      <c r="L73" s="230">
+      <c r="I73" s="212"/>
+      <c r="J73" s="212"/>
+      <c r="K73" s="212"/>
+      <c r="L73" s="212">
         <f>SUM(L3:O3,L5:O5,L7:O7,L9:O9,L11:O11,L13:O13,L15:O15,L17:O17,L19:O19,L21:O21,L23:O23,L25:O25,L27:O27,L29:O29,L31:O31,L33:O33,L35:O35,L37:O37,L39:O39,L41:O41,L43:O43,L44:O45,L47:O47,L49:O49,L51:O51,L53:O53,L55:O55,L57:O57,L59:O59,L61:O61,L63:O63,L65:O65,L67:O67,L69:O69,L71:O71)</f>
         <v>8</v>
       </c>
-      <c r="M73" s="230"/>
-      <c r="N73" s="230"/>
-      <c r="O73" s="230"/>
-      <c r="P73" s="230">
+      <c r="M73" s="212"/>
+      <c r="N73" s="212"/>
+      <c r="O73" s="212"/>
+      <c r="P73" s="212">
         <f>SUM(P3:S3,P5:S5,P7:S7,P9:S9,P11:S11,P13:S13,P15:S15,P17:S17,P19:S19,P21:S21,P23:S23,P25:S25,P27:S27,P29:S29,P31:S31,P33:S33,P35:S35,P37:S37,P39:S39,P41:S41,P43:S43,P44:S45,P47:S47,P49:S49,P51:S51,P53:S53,P55:S55,P57:S57,P59:S59,P61:S61,P63:S63,P65:S65,P67:S67,P69:S69,P71:S71)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="230"/>
-      <c r="R73" s="230"/>
-      <c r="S73" s="230"/>
-      <c r="T73" s="230">
+      <c r="Q73" s="212"/>
+      <c r="R73" s="212"/>
+      <c r="S73" s="212"/>
+      <c r="T73" s="212">
         <f>SUM(T3:W3,T5:W5,T7:W7,T9:W9,T11:W11,T13:W13,T15:W15,T17:W17,T19:W19,T21:W21,T23:W23,T25:W25,T27:W27,T29:W29,T31:W31,T33:W33,T35:W35,T37:W37,T39:W39,T41:W41,T43:W43,T44:W45,T47:W47,T49:W49,T51:W51,T53:W53,T55:W55,T57:W57,T59:W59,T61:W61,T63:W63,T65:W65,T67:W67,T69:W69,T71:W71)</f>
         <v>8</v>
       </c>
-      <c r="U73" s="230"/>
-      <c r="V73" s="230"/>
-      <c r="W73" s="230"/>
-      <c r="X73" s="230">
+      <c r="U73" s="212"/>
+      <c r="V73" s="212"/>
+      <c r="W73" s="212"/>
+      <c r="X73" s="212">
         <f>SUM(X3:AA3,X5:AA5,X7:AA7,X9:AA9,X11:AA11,X13:AA13,X15:AA15,X17:AA17,X19:AA19,X21:AA21,X23:AA23,X25:AA25,X27:AA27,X29:AA29,X31:AA31,X33:AA33,X35:AA35,X37:AA37,X39:AA39,X41:AA41,X43:AA43,X44:AA45,X47:AA47,X49:AA49,X51:AA51,X53:AA53,X55:AA55,X57:AA57,X59:AA59,X61:AA61,X63:AA63,X65:AA65,X67:AA67,X69:AA69,X71:AA71)</f>
         <v>8</v>
       </c>
-      <c r="Y73" s="230"/>
-      <c r="Z73" s="230"/>
-      <c r="AA73" s="230"/>
-      <c r="AB73" s="230">
+      <c r="Y73" s="212"/>
+      <c r="Z73" s="212"/>
+      <c r="AA73" s="212"/>
+      <c r="AB73" s="212">
         <f>SUM(AB3:AE3,AB5:AE5,AB7:AE7,AB9:AE9,AB11:AE11,AB13:AE13,AB15:AE15,AB17:AE17,AB19:AE19,AB21:AE21,AB23:AE23,AB25:AE25,AB27:AE27,AB29:AE29,AB31:AE31,AB33:AE33,AB35:AE35,AB37:AE37,AB39:AE39,AB41:AE41,AB43:AE43,AB44:AE45,AB47:AE47,AB49:AE49,AB51:AE51,AB53:AE53,AB55:AE55,AB57:AE57,AB59:AE59,AB61:AE61,AB63:AE63,AB65:AE65,AB67:AE67,AB69:AE69,AB71:AE71)</f>
         <v>8</v>
       </c>
-      <c r="AC73" s="230"/>
-      <c r="AD73" s="230"/>
-      <c r="AE73" s="230"/>
-      <c r="AF73" s="230">
+      <c r="AC73" s="212"/>
+      <c r="AD73" s="212"/>
+      <c r="AE73" s="212"/>
+      <c r="AF73" s="212">
         <f>SUM(AF3:AI3,AF5:AI5,AF7:AI7,AF9:AI9,AF11:AI11,AF13:AI13,AF15:AI15,AF17:AI17,AF19:AI19,AF21:AI21,AF23:AI23,AF25:AI25,AF27:AI27,AF29:AI29,AF31:AI31,AF33:AI33,AF35:AI35,AF37:AI37,AF39:AI39,AF41:AI41,AF43:AI43,AF44:AI45,AF47:AI47,AF49:AI49,AF51:AI51,AF53:AI53,AF55:AI55,AF57:AI57,AF59:AI59,AF61:AI61,AF63:AI63,AF65:AI65,AF67:AI67,AF69:AI69,AF71:AI71)</f>
         <v>8</v>
       </c>
-      <c r="AG73" s="230"/>
-      <c r="AH73" s="230"/>
-      <c r="AI73" s="230"/>
-      <c r="AJ73" s="230">
+      <c r="AG73" s="212"/>
+      <c r="AH73" s="212"/>
+      <c r="AI73" s="212"/>
+      <c r="AJ73" s="212">
         <f>SUM(AJ3:AM3,AJ5:AM5,AJ7:AM7,AJ9:AM9,AJ11:AM11,AJ13:AM13,AJ15:AM15,AJ17:AM17,AJ19:AM19,AJ21:AM21,AJ23:AM23,AJ25:AM25,AJ27:AM27,AJ29:AM29,AJ31:AM31,AJ33:AM33,AJ35:AM35,AJ37:AM37,AJ39:AM39,AJ41:AM41,AJ43:AM43,AJ45:AM45,AJ47:AM47,AJ49:AM49,AJ51:AM51,AJ53:AM53,AJ55:AM55,AJ57:AM57,AJ59:AM59,AJ61:AM61,AJ63:AM63,AJ65:AM65,AJ67:AM67,AJ69:AM69,AJ71:AM71)</f>
         <v>8</v>
       </c>
-      <c r="AK73" s="230"/>
-      <c r="AL73" s="230"/>
-      <c r="AM73" s="230"/>
-      <c r="AN73" s="230">
+      <c r="AK73" s="212"/>
+      <c r="AL73" s="212"/>
+      <c r="AM73" s="212"/>
+      <c r="AN73" s="212">
         <f>SUM(AN3:AQ3,AN5:AQ5,AN7:AQ7,AN9:AQ9,AN11:AQ11,AN13:AQ13,AN15:AQ15,AN17:AQ17,AN19:AQ19,AN21:AQ21,AN23:AQ23,AN25:AQ25,AN27:AQ27,AN29:AQ29,AN31:AQ31,AN33:AQ33,AN35:AQ35,AN37:AQ37,AN39:AQ39,AN41:AQ41,AN43:AQ43,AN44:AQ45,AN47:AQ47,AN49:AQ49,AN51:AQ51,AN53:AQ53,AN55:AQ55,AN57:AQ57,AN59:AQ59,AN61:AQ61,AN63:AQ63,AN65:AQ65,AN67:AQ67,AN69:AQ69,AN71:AQ71)</f>
         <v>8</v>
       </c>
-      <c r="AO73" s="230"/>
-      <c r="AP73" s="230"/>
-      <c r="AQ73" s="230"/>
+      <c r="AO73" s="212"/>
+      <c r="AP73" s="212"/>
+      <c r="AQ73" s="212"/>
     </row>
     <row r="74" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -7124,78 +7140,78 @@
       <c r="B74" s="22"/>
       <c r="C74" s="194">
         <f>SUM(C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72)</f>
-        <v>74.5</v>
-      </c>
-      <c r="D74" s="231">
+        <v>82.5</v>
+      </c>
+      <c r="D74" s="211">
         <f>SUM(D4:G4,D6:G6,D8:G8,D10:G10,D12:G12,D14:G14,D16:G16,D18:G18,D20:G20,D22:G22,D24:G24,D26:G26,D28:G28,D30:G30,D32:G32,D34:G34,D36:G36,D38:G38,D40:G40,D42:G42,D44:G44,D46:G46,D48:G48,D50:G50,D52:G52,D54:G54,D56:G56,D58:G58,D60:G60,D62:G62,D64:G64,D66:G66,D68:G68,D70:G70,D72:G72)</f>
         <v>8.5</v>
       </c>
-      <c r="E74" s="231"/>
-      <c r="F74" s="231"/>
-      <c r="G74" s="231"/>
-      <c r="H74" s="231">
+      <c r="E74" s="211"/>
+      <c r="F74" s="211"/>
+      <c r="G74" s="211"/>
+      <c r="H74" s="211">
         <f>SUM(H4:K4,H6:K6,H8:K8,H10:K10,H12:K12,H14:K14,H16:K16,H18:K18,H20:K20,H22:K22,H24:K24,H26:K26,H28:K28,H30:K30,H32:K32,H34:K34,H36:K36,H38:K38,H40:K40,H42:K42,H44:K44,H46:K46,H48:K48,H50:K50,H52:K52,H54:K54,H56:K56,H58:K58,H60:K60,H62:K62,H64:K64,H66:K66,H68:K68,H70:K70,H72:K72)</f>
         <v>8</v>
       </c>
-      <c r="I74" s="231"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="231"/>
-      <c r="L74" s="231">
+      <c r="I74" s="211"/>
+      <c r="J74" s="211"/>
+      <c r="K74" s="211"/>
+      <c r="L74" s="211">
         <f>SUM(L4:O4,L6:O6,L8:O8,L10:O10,L12:O12,L14:O14,L16:O16,L18:O18,L20:O20,L22:O22,L24:O24,L26:O26,L28:O28,L30:O30,L32:O32,L34:O34,L36:O36,L38:O38,L40:O40,L42:O42,L44:O44,L46:O46,L48:O48,L50:O50,L52:O52,L54:O54,L56:O56,L58:O58,L60:O60,L62:O62,L64:O64,L66:O66,L68:O68,L70:O70,L72:O72)</f>
         <v>8</v>
       </c>
-      <c r="M74" s="231"/>
-      <c r="N74" s="231"/>
-      <c r="O74" s="231"/>
-      <c r="P74" s="231">
+      <c r="M74" s="211"/>
+      <c r="N74" s="211"/>
+      <c r="O74" s="211"/>
+      <c r="P74" s="211">
         <f>SUM(P4:S4,P6:S6,P8:S8,P10:S10,P12:S12,P14:S14,P16:S16,P18:S18,P20:S20,P22:S22,P24:S24,P26:S26,P28:S28,P30:S30,P32:S32,P34:S34,P36:S36,P38:S38,P40:S40,P42:S42,P44:S44,P46:S46,P48:S48,P50:S50,P52:S52,P54:S54,P56:S56,P58:S58,P60:S60,P62:S62,P64:S64,P66:S66,P68:S68,P70:S70,P72:S72)</f>
         <v>8</v>
       </c>
-      <c r="Q74" s="231"/>
-      <c r="R74" s="231"/>
-      <c r="S74" s="231"/>
-      <c r="T74" s="231">
+      <c r="Q74" s="211"/>
+      <c r="R74" s="211"/>
+      <c r="S74" s="211"/>
+      <c r="T74" s="211">
         <f>SUM(T4:W4,T6:W6,T8:W8,T10:W10,T12:W12,T14:W14,T16:W16,T18:W18,T20:W20,T22:W22,T24:W24,T26:W26,T28:W28,T30:W30,T32:W32,T34:W34,T36:W36,T38:W38,T40:W40,T42:W42,T44:W44,T46:W46,T48:W48,T50:W50,T52:W52,T54:W54,T56:W56,T58:W58,T60:W60,T62:W62,T64:W64,T66:W66,T68:W68,T70:W70,T72:W72)</f>
         <v>9</v>
       </c>
-      <c r="U74" s="231"/>
-      <c r="V74" s="231"/>
-      <c r="W74" s="231"/>
-      <c r="X74" s="231">
+      <c r="U74" s="211"/>
+      <c r="V74" s="211"/>
+      <c r="W74" s="211"/>
+      <c r="X74" s="211">
         <f>SUM(X4:AA4,X6:AA6,X8:AA8,X10:AA10,X12:AA12,X14:AA14,X16:AA16,X18:AA18,X20:AA20,X22:AA22,X24:AA24,X26:AA26,X28:AA28,X30:AA30,X32:AA32,X34:AA34,X36:AA36,X38:AA38,X40:AA40,X42:AA42,X44:AA44,X46:AA46,X48:AA48,X50:AA50,X52:AA52,X54:AA54,X56:AA56,X58:AA58,X60:AA60,X62:AA62,X64:AA64,X66:AA66,X68:AA68,X70:AA70,X72:AA72)</f>
         <v>9</v>
       </c>
-      <c r="Y74" s="231"/>
-      <c r="Z74" s="231"/>
-      <c r="AA74" s="231"/>
-      <c r="AB74" s="231">
+      <c r="Y74" s="211"/>
+      <c r="Z74" s="211"/>
+      <c r="AA74" s="211"/>
+      <c r="AB74" s="211">
         <f>SUM(AB4:AE4,AB6:AE6,AB8:AE8,AB10:AE10,AB12:AE12,AB14:AE14,AB16:AE16,AB18:AE18,AB20:AE20,AB22:AE22,AB24:AE24,AB26:AE26,AB28:AE28,AB30:AE30,AB32:AE32,AB34:AE34,AB36:AE36,AB38:AE38,AB40:AE40,AB42:AE42,AB44:AE44,AB46:AE46,AB48:AE48,AB50:AE50,AB52:AE52,AB54:AE54,AB56:AE56,AB58:AE58,AB60:AE60,AB62:AE62,AB64:AE64,AB66:AE66,AB68:AE68,AB70:AE70,AB72:AE72)</f>
         <v>8</v>
       </c>
-      <c r="AC74" s="231"/>
-      <c r="AD74" s="231"/>
-      <c r="AE74" s="231"/>
-      <c r="AF74" s="231">
+      <c r="AC74" s="211"/>
+      <c r="AD74" s="211"/>
+      <c r="AE74" s="211"/>
+      <c r="AF74" s="211">
         <f>SUM(AF4:AI4,AF6:AI6,AF8:AI8,AF10:AI10,AF12:AI12,AF14:AI14,AF16:AI16,AF18:AI18,AF20:AI20,AF22:AI22,AF24:AI24,AF26:AI26,AF28:AI28,AF30:AI30,AF32:AI32,AF34:AI34,AF36:AI36,AF38:AI38,AF40:AI40,AF42:AI42,AF44:AI44,AF46:AI46,AF48:AI48,AF50:AI50,AF52:AI52,AF54:AI54,AF56:AI56,AF58:AI58,AF60:AI60,AF62:AI62,AF64:AI64,AF66:AI66,AF68:AI68,AF70:AI70,AF72:AI72)</f>
         <v>8</v>
       </c>
-      <c r="AG74" s="231"/>
-      <c r="AH74" s="231"/>
-      <c r="AI74" s="231"/>
-      <c r="AJ74" s="231">
+      <c r="AG74" s="211"/>
+      <c r="AH74" s="211"/>
+      <c r="AI74" s="211"/>
+      <c r="AJ74" s="211">
         <f>SUM(AJ4:AM4,AJ6:AM6,AJ8:AM8,AJ10:AM10,AJ12:AM12,AJ14:AM14,AJ16:AM16,AJ18:AM18,AJ20:AM20,AJ22:AM22,AJ24:AM24,AJ26:AM26,AJ28:AM28,AJ30:AM30,AJ32:AM32,AJ34:AM34,AJ36:AM36,AJ38:AM38,AJ40:AM40,AJ42:AM42,AJ44:AM44,AJ46:AM46,AJ48:AM48,AJ50:AM50,AJ52:AM52,AJ54:AM54,AJ56:AM56,AJ58:AM58,AJ60:AM60,AJ62:AM62,AJ64:AM64,AJ66:AM66,AJ68:AM68,AJ70:AM70,AJ72:AM72)</f>
         <v>8</v>
       </c>
-      <c r="AK74" s="231"/>
-      <c r="AL74" s="231"/>
-      <c r="AM74" s="231"/>
-      <c r="AN74" s="231">
+      <c r="AK74" s="211"/>
+      <c r="AL74" s="211"/>
+      <c r="AM74" s="211"/>
+      <c r="AN74" s="211">
         <f>SUM(AN4:AQ4,AN6:AQ6,AN8:AQ8,AN10:AQ10,AN12:AQ12,AN14:AQ14,AN16:AQ16,AN18:AQ18,AN20:AQ20,AN22:AQ22,AN24:AQ24,AN26:AQ26,AN28:AQ28,AN30:AQ30,AN32:AQ32,AN34:AQ34,AN36:AQ36,AN38:AQ38,AN40:AQ40,AN42:AQ42,AN44:AQ44,AN46:AQ46,AN48:AQ48,AN50:AQ50,AN52:AQ52,AN54:AQ54,AN56:AQ56,AN58:AQ58,AN60:AQ60,AN62:AQ62,AN64:AQ64,AN66:AQ66,AN68:AQ68,AN70:AQ70,AN72:AQ72)</f>
-        <v>0</v>
-      </c>
-      <c r="AO74" s="231"/>
-      <c r="AP74" s="231"/>
-      <c r="AQ74" s="231"/>
+        <v>8</v>
+      </c>
+      <c r="AO74" s="211"/>
+      <c r="AP74" s="211"/>
+      <c r="AQ74" s="211"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -7249,51 +7265,20 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AF73:AI73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="B37:B38"/>
@@ -7310,20 +7295,51 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:AQ2">
@@ -7370,66 +7386,66 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="236" t="s">
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="233" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="236" t="s">
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="236" t="s">
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="236" t="s">
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="236" t="s">
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="236" t="s">
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="236" t="s">
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="236" t="s">
+      <c r="AG1" s="234"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="236" t="s">
+      <c r="AK1" s="234"/>
+      <c r="AL1" s="234"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="238"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="235"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7437,72 +7453,72 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="234">
+      <c r="D2" s="236">
         <v>45356</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="234">
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="236">
         <v>45357</v>
       </c>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="234">
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="236">
         <v>45358</v>
       </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="234">
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="236">
         <v>45359</v>
       </c>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="234">
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="236">
         <v>45363</v>
       </c>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="234">
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="236">
         <v>45364</v>
       </c>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="234">
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="236">
         <v>45365</v>
       </c>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="234">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="236">
         <v>45366</v>
       </c>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="234">
+      <c r="AG2" s="222"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="236">
         <v>45370</v>
       </c>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="234">
+      <c r="AK2" s="222"/>
+      <c r="AL2" s="222"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="236">
         <v>45371</v>
       </c>
-      <c r="AO2" s="224"/>
-      <c r="AP2" s="224"/>
-      <c r="AQ2" s="235"/>
+      <c r="AO2" s="222"/>
+      <c r="AP2" s="222"/>
+      <c r="AQ2" s="237"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="210" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="85">
@@ -7553,7 +7569,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="224"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="66">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7602,7 +7618,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="229" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="12">
@@ -7657,7 +7673,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="208"/>
+      <c r="B6" s="229"/>
       <c r="C6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -7708,7 +7724,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="231" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12">
@@ -7761,7 +7777,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
-      <c r="B8" s="216"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="45">
         <v>6.25E-2</v>
       </c>
@@ -7814,7 +7830,7 @@
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="209" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="12">
@@ -7865,7 +7881,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="210"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -7912,7 +7928,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="209" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="12">
@@ -7963,7 +7979,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="210"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -8010,7 +8026,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="209" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="12">
@@ -8061,7 +8077,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="210"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -8108,7 +8124,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="209" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="12">
@@ -8159,7 +8175,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="210"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -8206,7 +8222,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="209" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="12">
@@ -8257,7 +8273,7 @@
     </row>
     <row r="18" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="210"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="12">
         <v>0</v>
       </c>
@@ -8306,7 +8322,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="223" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -8357,7 +8373,7 @@
     </row>
     <row r="20" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="224"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="12">
         <v>0</v>
       </c>
@@ -8406,7 +8422,7 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="230" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="7">
@@ -8459,7 +8475,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="211"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="12">
         <v>0</v>
       </c>
@@ -8506,7 +8522,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="226" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="12">
@@ -8557,7 +8573,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="228"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="12">
         <v>0</v>
       </c>
@@ -8603,7 +8619,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="217" t="s">
+      <c r="B25" s="224" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="12">
@@ -8658,7 +8674,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="226"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -8705,7 +8721,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="217" t="s">
+      <c r="B27" s="224" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="12">
@@ -8758,7 +8774,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="217"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="12">
         <v>0</v>
       </c>
@@ -8805,7 +8821,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="217" t="s">
+      <c r="B29" s="224" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="12">
@@ -8858,7 +8874,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="217"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="12">
         <v>0</v>
       </c>
@@ -8905,7 +8921,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="217" t="s">
+      <c r="B31" s="224" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="12">
@@ -8960,7 +8976,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="217"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="12">
         <v>0</v>
       </c>
@@ -9007,7 +9023,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="220" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="12">
@@ -9060,7 +9076,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="210"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="12">
         <v>0</v>
       </c>
@@ -9107,7 +9123,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="220" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="12">
@@ -9160,7 +9176,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="210"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="12">
         <v>0</v>
       </c>
@@ -9207,7 +9223,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="220" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="12">
@@ -9260,7 +9276,7 @@
     </row>
     <row r="38" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="210"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="12">
         <v>0</v>
       </c>
@@ -9309,7 +9325,7 @@
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="221" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="7">
@@ -9360,7 +9376,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="211"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="12">
         <v>0</v>
       </c>
@@ -9407,7 +9423,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="210" t="s">
+      <c r="B41" s="209" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12">
@@ -9460,7 +9476,7 @@
     </row>
     <row r="42" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="212"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="17">
         <v>0</v>
       </c>
@@ -9509,7 +9525,7 @@
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="221" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7">
@@ -9562,7 +9578,7 @@
     </row>
     <row r="44" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="211"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="12">
         <v>0</v>
       </c>
@@ -9611,7 +9627,7 @@
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="221" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="7">
@@ -9662,7 +9678,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="211"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="12">
         <v>0</v>
       </c>
@@ -9709,7 +9725,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="210" t="s">
+      <c r="B47" s="209" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="12">
@@ -9760,7 +9776,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="211"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="12">
         <v>0</v>
       </c>
@@ -9807,7 +9823,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="209" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="12">
@@ -9858,7 +9874,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="211"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9907,7 +9923,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="210" t="s">
+      <c r="B51" s="209" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="12">
@@ -9964,7 +9980,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="211"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="86">
         <v>6.25E-2</v>
       </c>
@@ -10014,7 +10030,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="210" t="s">
+      <c r="B53" s="209" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12">
@@ -10065,7 +10081,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="211"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="12">
         <v>0</v>
       </c>
@@ -10112,7 +10128,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="210" t="s">
+      <c r="B55" s="209" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="12">
@@ -10171,7 +10187,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="211"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="12">
         <v>0</v>
       </c>
@@ -10218,7 +10234,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="211" t="s">
+      <c r="B57" s="210" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="12">
@@ -10269,7 +10285,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="211"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="12">
         <v>0</v>
       </c>
@@ -10316,7 +10332,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="210" t="s">
+      <c r="B59" s="209" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="12">
@@ -10397,7 +10413,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="211"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="12">
         <v>0</v>
       </c>
@@ -10444,7 +10460,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="210" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="12">
@@ -10501,7 +10517,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="211"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="12">
         <v>0</v>
       </c>
@@ -10548,7 +10564,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="211" t="s">
+      <c r="B63" s="210" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="12">
@@ -10605,7 +10621,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="211"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="12">
         <v>0</v>
       </c>
@@ -10652,7 +10668,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="211" t="s">
+      <c r="B65" s="210" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="12">
@@ -10703,7 +10719,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="211"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="12">
         <v>0</v>
       </c>
@@ -10750,7 +10766,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="209" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="107">
@@ -10820,7 +10836,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="211"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="12">
         <v>0</v>
       </c>
@@ -10867,7 +10883,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="210" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="12">
@@ -10922,7 +10938,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="211"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="12">
         <v>0</v>
       </c>
@@ -10969,7 +10985,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="210" t="s">
+      <c r="B71" s="209" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="12">
@@ -11020,7 +11036,7 @@
     </row>
     <row r="72" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="212"/>
+      <c r="B72" s="213"/>
       <c r="C72" s="17">
         <v>0</v>
       </c>
@@ -11072,66 +11088,66 @@
       <c r="C73" s="12">
         <v>3.3333333333333299</v>
       </c>
-      <c r="D73" s="233">
+      <c r="D73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E73" s="233"/>
-      <c r="F73" s="233"/>
-      <c r="G73" s="233"/>
-      <c r="H73" s="233">
+      <c r="E73" s="239"/>
+      <c r="F73" s="239"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I73" s="233"/>
-      <c r="J73" s="233"/>
-      <c r="K73" s="233"/>
-      <c r="L73" s="233">
+      <c r="I73" s="239"/>
+      <c r="J73" s="239"/>
+      <c r="K73" s="239"/>
+      <c r="L73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M73" s="233"/>
-      <c r="N73" s="233"/>
-      <c r="O73" s="233"/>
-      <c r="P73" s="233">
+      <c r="M73" s="239"/>
+      <c r="N73" s="239"/>
+      <c r="O73" s="239"/>
+      <c r="P73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q73" s="233"/>
-      <c r="R73" s="233"/>
-      <c r="S73" s="233"/>
-      <c r="T73" s="233">
+      <c r="Q73" s="239"/>
+      <c r="R73" s="239"/>
+      <c r="S73" s="239"/>
+      <c r="T73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="U73" s="233"/>
-      <c r="V73" s="233"/>
-      <c r="W73" s="233"/>
-      <c r="X73" s="233">
+      <c r="U73" s="239"/>
+      <c r="V73" s="239"/>
+      <c r="W73" s="239"/>
+      <c r="X73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y73" s="233"/>
-      <c r="Z73" s="233"/>
-      <c r="AA73" s="233"/>
-      <c r="AB73" s="233">
+      <c r="Y73" s="239"/>
+      <c r="Z73" s="239"/>
+      <c r="AA73" s="239"/>
+      <c r="AB73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC73" s="233"/>
-      <c r="AD73" s="233"/>
-      <c r="AE73" s="233"/>
-      <c r="AF73" s="233">
+      <c r="AC73" s="239"/>
+      <c r="AD73" s="239"/>
+      <c r="AE73" s="239"/>
+      <c r="AF73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG73" s="233"/>
-      <c r="AH73" s="233"/>
-      <c r="AI73" s="233"/>
-      <c r="AJ73" s="233">
+      <c r="AG73" s="239"/>
+      <c r="AH73" s="239"/>
+      <c r="AI73" s="239"/>
+      <c r="AJ73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AK73" s="233"/>
-      <c r="AL73" s="233"/>
-      <c r="AM73" s="233"/>
-      <c r="AN73" s="233">
+      <c r="AK73" s="239"/>
+      <c r="AL73" s="239"/>
+      <c r="AM73" s="239"/>
+      <c r="AN73" s="239">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AO73" s="233"/>
-      <c r="AP73" s="233"/>
-      <c r="AQ73" s="233"/>
+      <c r="AO73" s="239"/>
+      <c r="AP73" s="239"/>
+      <c r="AQ73" s="239"/>
     </row>
     <row r="74" spans="1:43" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -11141,66 +11157,66 @@
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="232">
+      <c r="D74" s="240">
         <v>0</v>
       </c>
-      <c r="E74" s="232"/>
-      <c r="F74" s="232"/>
-      <c r="G74" s="232"/>
-      <c r="H74" s="232">
+      <c r="E74" s="240"/>
+      <c r="F74" s="240"/>
+      <c r="G74" s="240"/>
+      <c r="H74" s="240">
         <v>0</v>
       </c>
-      <c r="I74" s="232"/>
-      <c r="J74" s="232"/>
-      <c r="K74" s="232"/>
-      <c r="L74" s="232">
+      <c r="I74" s="240"/>
+      <c r="J74" s="240"/>
+      <c r="K74" s="240"/>
+      <c r="L74" s="240">
         <v>0</v>
       </c>
-      <c r="M74" s="232"/>
-      <c r="N74" s="232"/>
-      <c r="O74" s="232"/>
-      <c r="P74" s="232">
+      <c r="M74" s="240"/>
+      <c r="N74" s="240"/>
+      <c r="O74" s="240"/>
+      <c r="P74" s="240">
         <v>0</v>
       </c>
-      <c r="Q74" s="232"/>
-      <c r="R74" s="232"/>
-      <c r="S74" s="232"/>
-      <c r="T74" s="232">
+      <c r="Q74" s="240"/>
+      <c r="R74" s="240"/>
+      <c r="S74" s="240"/>
+      <c r="T74" s="240">
         <v>0</v>
       </c>
-      <c r="U74" s="232"/>
-      <c r="V74" s="232"/>
-      <c r="W74" s="232"/>
-      <c r="X74" s="232">
+      <c r="U74" s="240"/>
+      <c r="V74" s="240"/>
+      <c r="W74" s="240"/>
+      <c r="X74" s="240">
         <v>0</v>
       </c>
-      <c r="Y74" s="232"/>
-      <c r="Z74" s="232"/>
-      <c r="AA74" s="232"/>
-      <c r="AB74" s="232">
+      <c r="Y74" s="240"/>
+      <c r="Z74" s="240"/>
+      <c r="AA74" s="240"/>
+      <c r="AB74" s="240">
         <v>0</v>
       </c>
-      <c r="AC74" s="232"/>
-      <c r="AD74" s="232"/>
-      <c r="AE74" s="232"/>
-      <c r="AF74" s="232">
+      <c r="AC74" s="240"/>
+      <c r="AD74" s="240"/>
+      <c r="AE74" s="240"/>
+      <c r="AF74" s="240">
         <v>0</v>
       </c>
-      <c r="AG74" s="232"/>
-      <c r="AH74" s="232"/>
-      <c r="AI74" s="232"/>
-      <c r="AJ74" s="232">
+      <c r="AG74" s="240"/>
+      <c r="AH74" s="240"/>
+      <c r="AI74" s="240"/>
+      <c r="AJ74" s="240">
         <v>0</v>
       </c>
-      <c r="AK74" s="232"/>
-      <c r="AL74" s="232"/>
-      <c r="AM74" s="232"/>
-      <c r="AN74" s="232">
+      <c r="AK74" s="240"/>
+      <c r="AL74" s="240"/>
+      <c r="AM74" s="240"/>
+      <c r="AN74" s="240">
         <v>0</v>
       </c>
-      <c r="AO74" s="232"/>
-      <c r="AP74" s="232"/>
-      <c r="AQ74" s="232"/>
+      <c r="AO74" s="240"/>
+      <c r="AP74" s="240"/>
+      <c r="AQ74" s="240"/>
     </row>
     <row r="75" spans="1:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -11254,6 +11270,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="AF74:AI74"/>
+    <mergeCell ref="AJ74:AM74"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AB73:AE73"/>
+    <mergeCell ref="AF73:AI73"/>
+    <mergeCell ref="AJ73:AM73"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
@@ -11270,65 +11345,6 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="AJ73:AM73"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="AF74:AI74"/>
-    <mergeCell ref="AJ74:AM74"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="X73:AA73"/>
-    <mergeCell ref="AB73:AE73"/>
-    <mergeCell ref="AF73:AI73"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:AQ2">
     <cfRule type="expression" dxfId="2" priority="1">
